--- a/resume_jp.xlsx
+++ b/resume_jp.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="200">
   <si>
     <t>　職　務　経　歴　書</t>
   </si>
@@ -1002,9 +1002,6 @@
     <t>3 つのデバイスに対応したレスポンシブ スタイルの紹介 Web サイト</t>
   </si>
   <si>
-    <t>Jquery</t>
-  </si>
-  <si>
     <t>パリ ショッピング ガイド</t>
   </si>
   <si>
@@ -1115,6 +1112,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
       <t>官公庁</t>
     </r>
     <r>
@@ -1141,7 +1143,7 @@
     <t>Javascript，PHP</t>
   </si>
   <si>
-    <t>当時勤めていた会社の公式サイト。</t>
+    <t>静的ページの作成を担当，ブラウザーの互換性をデバッグする</t>
   </si>
   <si>
     <t>Drupal,jQuery</t>
@@ -1150,19 +1152,10 @@
     <t>エレビット公式サイト</t>
   </si>
   <si>
-    <t>バイエル ファーマの妊娠中のヘルスケア製品エレビットの公式ウェブサイト。</t>
-  </si>
-  <si>
-    <t>西安大唐エバーブライトシティライトエフェクトコラム</t>
-  </si>
-  <si>
-    <t>Javascript，Extend Script</t>
-  </si>
-  <si>
-    <t>西安の観光名所である大唐光明城の視覚効果風景</t>
-  </si>
-  <si>
-    <t>After Effects,Softimage</t>
+    <t>リリーの糖尿病治療薬公式サイト</t>
+  </si>
+  <si>
+    <t>光と影の夢カンパニー公式サイト</t>
   </si>
   <si>
     <t>通信業種</t>
@@ -1194,17 +1187,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
-    <numFmt numFmtId="176" formatCode="yyyy/m"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
-    <numFmt numFmtId="179" formatCode="0&quot;人&quot;"/>
-    <numFmt numFmtId="180" formatCode="0&quot;点&quot;"/>
-    <numFmt numFmtId="181" formatCode="0&quot;歳&quot;"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m"/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="179" formatCode="0&quot;歳&quot;"/>
+    <numFmt numFmtId="180" formatCode="0&quot;人&quot;"/>
+    <numFmt numFmtId="181" formatCode="0&quot;点&quot;"/>
   </numFmts>
-  <fonts count="46">
+  <fonts count="45">
     <font>
       <sz val="11"/>
       <name val="SimSun"/>
@@ -1223,11 +1216,6 @@
     <font>
       <sz val="10"/>
       <color theme="0"/>
-      <name val="Meiryo UI"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Meiryo UI"/>
       <charset val="128"/>
     </font>
@@ -1305,14 +1293,51 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1326,9 +1351,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1342,22 +1366,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1373,41 +1382,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1415,15 +1405,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1437,15 +1420,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1465,6 +1441,18 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1499,7 +1487,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1538,102 +1526,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1646,31 +1538,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1688,7 +1568,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1700,25 +1682,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3545,6 +3527,24 @@
       <top/>
       <bottom style="hair">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3564,6 +3564,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3579,11 +3588,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3605,39 +3620,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -3649,1527 +3631,1323 @@
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="150" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="149" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="152" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="148" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="149" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="149" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="146" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="26" borderId="148" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="148" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="152" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="151" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="146" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="148" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="147" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="153" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="151" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="146" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="150" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="153" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="461">
+  <cellXfs count="393">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="4" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="79" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="80" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="81" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="69" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="14" fillId="0" borderId="69" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="79" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="82" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="73" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="14" fillId="0" borderId="73" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="37" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="79" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="80" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="81" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="83" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="54" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="53" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="75" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="76" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="14" fillId="0" borderId="76" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="54" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="14" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="15" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="68" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="37" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="38" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="82" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="54" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="4" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="92" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="93" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="80" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="94" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="95" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="80" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="38" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="39" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="96" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="66" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="97" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="98" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="66" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="53" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="55" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="53" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="55" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="56" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="53" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="75" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="4" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="100" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="100" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="86" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="78" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="102" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="103" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="104" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="81" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="95" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="80" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="81" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="82" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="96" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="82" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="105" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="106" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="96" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="14" fillId="0" borderId="83" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="75" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="107" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="108" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="109" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="110" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="108" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="111" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="14" fillId="0" borderId="54" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="14" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="15" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="112" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="110" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="86" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="78" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="113" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="114" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="115" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="116" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="117" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="118" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="105" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="104" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="121" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="122" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="68" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="119" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="120" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="123" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="121" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="122" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="14" fillId="0" borderId="106" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="14" fillId="0" borderId="75" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="93" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="124" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="125" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="126" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="127" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="128" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="129" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="126" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="126" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="130" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="131" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="133" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="132" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="134" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="132" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="135" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="136" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="137" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="138" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="131" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="139" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="141" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="142" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="126" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="140" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="141" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="142" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="143" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="14" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="180" fontId="14" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="180" fontId="14" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="144" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="145" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="123" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="71" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="14" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="14" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="111" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="72" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="51" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="119" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="120" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="123" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="121" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="122" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="14" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="14" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="140" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="141" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="79" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="80" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="81" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="69" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="15" fillId="0" borderId="69" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="79" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="82" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="73" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="15" fillId="0" borderId="73" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="37" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="79" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="80" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="81" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="83" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="54" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="53" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="75" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="76" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="15" fillId="0" borderId="76" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="54" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="14" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="15" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="68" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="37" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="38" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="82" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="54" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="92" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="93" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="80" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="94" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="95" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="80" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="38" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="39" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="96" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="66" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="97" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="98" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="66" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="53" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="55" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="56" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="53" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="55" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="7" fillId="0" borderId="56" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="7" fillId="0" borderId="53" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="7" fillId="0" borderId="75" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="4" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="100" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="3" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="3" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="3" borderId="100" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="86" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="78" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="102" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="103" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="104" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="81" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="95" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="80" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="81" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="82" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="96" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="82" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="105" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="106" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="96" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="15" fillId="0" borderId="83" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="75" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="107" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="108" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="109" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="110" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="108" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="111" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="15" fillId="0" borderId="54" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="14" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="15" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="112" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="110" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="86" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="78" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="113" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="114" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="115" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="116" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="117" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="118" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="105" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="104" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="121" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="122" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="68" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="119" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="120" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="123" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="121" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="122" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="15" fillId="0" borderId="106" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="15" fillId="0" borderId="75" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="93" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="124" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="125" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="126" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="127" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="128" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="129" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="126" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="126" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="130" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="131" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="133" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="132" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="134" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="132" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="135" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="136" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="137" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="138" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="131" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="139" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="141" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="142" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="126" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="140" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="141" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="142" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="143" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="15" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="179" fontId="15" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="179" fontId="15" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="144" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="145" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="123" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="15" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="15" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="111" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="144" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="145" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="123" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="111" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="119" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="120" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="123" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="121" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="122" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="15" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="15" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="123" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="140" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="141" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="142" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="142" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5547,8 +5325,8 @@
   </sheetPr>
   <dimension ref="A1:AK106"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="206" zoomScaleNormal="100" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41:Q42"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="190" zoomScaleNormal="100" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="U105" sqref="U105:W105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.66666666666667" defaultRowHeight="12.75"/>
@@ -5603,9 +5381,6 @@
       <c r="AE2" s="7"/>
       <c r="AF2" s="7"/>
       <c r="AG2" s="7"/>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="4"/>
-      <c r="AJ2" s="4"/>
       <c r="AK2" s="4" t="s">
         <v>1</v>
       </c>
@@ -8295,7 +8070,7 @@
       <c r="S62" s="291"/>
       <c r="T62" s="292"/>
       <c r="U62" s="275" t="s">
-        <v>163</v>
+        <v>94</v>
       </c>
       <c r="V62" s="276"/>
       <c r="W62" s="277"/>
@@ -8388,7 +8163,7 @@
       <c r="I64" s="214"/>
       <c r="J64" s="215"/>
       <c r="K64" s="216" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L64" s="217"/>
       <c r="M64" s="217"/>
@@ -8402,7 +8177,7 @@
       <c r="S64" s="214"/>
       <c r="T64" s="215"/>
       <c r="U64" s="269" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="V64" s="265"/>
       <c r="W64" s="266"/>
@@ -8433,7 +8208,7 @@
       <c r="I65" s="218"/>
       <c r="J65" s="219"/>
       <c r="K65" s="220" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L65" s="221"/>
       <c r="M65" s="221"/>
@@ -8486,7 +8261,7 @@
       <c r="S66" s="291"/>
       <c r="T66" s="292"/>
       <c r="U66" s="275" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="V66" s="276"/>
       <c r="W66" s="277"/>
@@ -8539,15 +8314,15 @@
       </c>
       <c r="S67" s="285"/>
       <c r="T67" s="286"/>
-      <c r="U67" s="406" t="s">
+      <c r="U67" s="365" t="s">
         <v>38</v>
       </c>
-      <c r="V67" s="407"/>
-      <c r="W67" s="408"/>
-      <c r="X67" s="409" t="s">
+      <c r="V67" s="366"/>
+      <c r="W67" s="367"/>
+      <c r="X67" s="368" t="s">
         <v>144</v>
       </c>
-      <c r="Y67" s="443"/>
+      <c r="Y67" s="379"/>
       <c r="Z67" s="324"/>
       <c r="AA67" s="330"/>
       <c r="AB67" s="322"/>
@@ -8579,7 +8354,7 @@
       <c r="I68" s="214"/>
       <c r="J68" s="215"/>
       <c r="K68" s="216" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L68" s="217"/>
       <c r="M68" s="217"/>
@@ -8624,7 +8399,7 @@
       <c r="I69" s="218"/>
       <c r="J69" s="219"/>
       <c r="K69" s="220" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L69" s="221"/>
       <c r="M69" s="221"/>
@@ -8677,7 +8452,7 @@
       <c r="S70" s="291"/>
       <c r="T70" s="292"/>
       <c r="U70" s="275" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="V70" s="276"/>
       <c r="W70" s="277"/>
@@ -8717,7 +8492,7 @@
       <c r="I71" s="210"/>
       <c r="J71" s="211"/>
       <c r="K71" s="212" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L71" s="213"/>
       <c r="M71" s="213"/>
@@ -8730,17 +8505,17 @@
       </c>
       <c r="S71" s="285"/>
       <c r="T71" s="286"/>
-      <c r="U71" s="406" t="s">
+      <c r="U71" s="365" t="s">
         <v>38</v>
       </c>
-      <c r="V71" s="407"/>
-      <c r="W71" s="408"/>
-      <c r="X71" s="410" t="s">
-        <v>172</v>
-      </c>
-      <c r="Y71" s="444"/>
-      <c r="Z71" s="445"/>
-      <c r="AA71" s="446"/>
+      <c r="V71" s="366"/>
+      <c r="W71" s="367"/>
+      <c r="X71" s="369" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y71" s="380"/>
+      <c r="Z71" s="381"/>
+      <c r="AA71" s="382"/>
       <c r="AB71" s="322" t="s">
         <v>39</v>
       </c>
@@ -8753,8 +8528,8 @@
       <c r="AE71" s="322" t="s">
         <v>39</v>
       </c>
-      <c r="AF71" s="446"/>
-      <c r="AG71" s="458"/>
+      <c r="AF71" s="382"/>
+      <c r="AG71" s="390"/>
     </row>
     <row r="72" s="6" customFormat="1" ht="24" customHeight="1" spans="1:33">
       <c r="A72" s="126"/>
@@ -8772,7 +8547,7 @@
       <c r="I72" s="214"/>
       <c r="J72" s="215"/>
       <c r="K72" s="216" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L72" s="217"/>
       <c r="M72" s="217"/>
@@ -8790,16 +8565,16 @@
       </c>
       <c r="V72" s="265"/>
       <c r="W72" s="266"/>
-      <c r="X72" s="411"/>
-      <c r="Y72" s="447"/>
-      <c r="Z72" s="448"/>
-      <c r="AA72" s="449"/>
+      <c r="X72" s="370"/>
+      <c r="Y72" s="383"/>
+      <c r="Z72" s="384"/>
+      <c r="AA72" s="385"/>
       <c r="AB72" s="325"/>
       <c r="AC72" s="325"/>
       <c r="AD72" s="325"/>
       <c r="AE72" s="325"/>
-      <c r="AF72" s="449"/>
-      <c r="AG72" s="459"/>
+      <c r="AF72" s="385"/>
+      <c r="AG72" s="391"/>
     </row>
     <row r="73" s="6" customFormat="1" ht="13.5" customHeight="1" spans="1:33">
       <c r="A73" s="126"/>
@@ -8817,7 +8592,7 @@
       <c r="I73" s="218"/>
       <c r="J73" s="219"/>
       <c r="K73" s="220" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L73" s="221"/>
       <c r="M73" s="221"/>
@@ -8835,18 +8610,18 @@
       </c>
       <c r="V73" s="265"/>
       <c r="W73" s="266"/>
-      <c r="X73" s="412">
+      <c r="X73" s="371">
         <v>2</v>
       </c>
-      <c r="Y73" s="450"/>
-      <c r="Z73" s="448"/>
-      <c r="AA73" s="449"/>
+      <c r="Y73" s="386"/>
+      <c r="Z73" s="384"/>
+      <c r="AA73" s="385"/>
       <c r="AB73" s="325"/>
       <c r="AC73" s="325"/>
       <c r="AD73" s="325"/>
       <c r="AE73" s="325"/>
-      <c r="AF73" s="449"/>
-      <c r="AG73" s="459"/>
+      <c r="AF73" s="385"/>
+      <c r="AG73" s="391"/>
     </row>
     <row r="74" s="6" customFormat="1" ht="22.05" customHeight="1" spans="1:33">
       <c r="A74" s="159"/>
@@ -8872,20 +8647,20 @@
       <c r="S74" s="291"/>
       <c r="T74" s="292"/>
       <c r="U74" s="275" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="V74" s="276"/>
       <c r="W74" s="277"/>
-      <c r="X74" s="413"/>
-      <c r="Y74" s="451"/>
-      <c r="Z74" s="452"/>
-      <c r="AA74" s="453"/>
+      <c r="X74" s="372"/>
+      <c r="Y74" s="387"/>
+      <c r="Z74" s="388"/>
+      <c r="AA74" s="389"/>
       <c r="AB74" s="329"/>
       <c r="AC74" s="329"/>
       <c r="AD74" s="329"/>
       <c r="AE74" s="329"/>
-      <c r="AF74" s="453"/>
-      <c r="AG74" s="460"/>
+      <c r="AF74" s="389"/>
+      <c r="AG74" s="392"/>
     </row>
     <row r="75" s="6" customFormat="1" ht="12.5" customHeight="1" spans="1:33">
       <c r="A75" s="152">
@@ -8912,7 +8687,7 @@
       <c r="I75" s="210"/>
       <c r="J75" s="211"/>
       <c r="K75" s="212" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L75" s="213"/>
       <c r="M75" s="213"/>
@@ -8925,17 +8700,17 @@
       </c>
       <c r="S75" s="285"/>
       <c r="T75" s="286"/>
-      <c r="U75" s="406" t="s">
+      <c r="U75" s="365" t="s">
         <v>38</v>
       </c>
-      <c r="V75" s="407"/>
-      <c r="W75" s="408"/>
-      <c r="X75" s="410" t="s">
+      <c r="V75" s="366"/>
+      <c r="W75" s="367"/>
+      <c r="X75" s="369" t="s">
         <v>144</v>
       </c>
-      <c r="Y75" s="444"/>
-      <c r="Z75" s="445"/>
-      <c r="AA75" s="446"/>
+      <c r="Y75" s="380"/>
+      <c r="Z75" s="381"/>
+      <c r="AA75" s="382"/>
       <c r="AB75" s="322"/>
       <c r="AC75" s="322" t="s">
         <v>39</v>
@@ -8946,8 +8721,8 @@
       <c r="AE75" s="322" t="s">
         <v>39</v>
       </c>
-      <c r="AF75" s="446"/>
-      <c r="AG75" s="458"/>
+      <c r="AF75" s="382"/>
+      <c r="AG75" s="390"/>
     </row>
     <row r="76" s="6" customFormat="1" ht="24" customHeight="1" spans="1:33">
       <c r="A76" s="126"/>
@@ -8965,7 +8740,7 @@
       <c r="I76" s="214"/>
       <c r="J76" s="215"/>
       <c r="K76" s="216" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L76" s="217"/>
       <c r="M76" s="217"/>
@@ -8978,21 +8753,21 @@
       </c>
       <c r="S76" s="214"/>
       <c r="T76" s="215"/>
-      <c r="U76" s="414" t="s">
+      <c r="U76" s="373" t="s">
         <v>146</v>
       </c>
-      <c r="V76" s="415"/>
-      <c r="W76" s="416"/>
-      <c r="X76" s="411"/>
-      <c r="Y76" s="447"/>
-      <c r="Z76" s="448"/>
-      <c r="AA76" s="449"/>
+      <c r="V76" s="374"/>
+      <c r="W76" s="375"/>
+      <c r="X76" s="370"/>
+      <c r="Y76" s="383"/>
+      <c r="Z76" s="384"/>
+      <c r="AA76" s="385"/>
       <c r="AB76" s="325"/>
       <c r="AC76" s="325"/>
       <c r="AD76" s="325"/>
       <c r="AE76" s="325"/>
-      <c r="AF76" s="449"/>
-      <c r="AG76" s="459"/>
+      <c r="AF76" s="385"/>
+      <c r="AG76" s="391"/>
     </row>
     <row r="77" s="6" customFormat="1" ht="13.5" customHeight="1" spans="1:33">
       <c r="A77" s="126"/>
@@ -9010,7 +8785,7 @@
       <c r="I77" s="218"/>
       <c r="J77" s="219"/>
       <c r="K77" s="220" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L77" s="221"/>
       <c r="M77" s="221"/>
@@ -9028,16 +8803,16 @@
       </c>
       <c r="V77" s="265"/>
       <c r="W77" s="266"/>
-      <c r="X77" s="412"/>
-      <c r="Y77" s="450"/>
-      <c r="Z77" s="448"/>
-      <c r="AA77" s="449"/>
+      <c r="X77" s="371"/>
+      <c r="Y77" s="386"/>
+      <c r="Z77" s="384"/>
+      <c r="AA77" s="385"/>
       <c r="AB77" s="325"/>
       <c r="AC77" s="325"/>
       <c r="AD77" s="325"/>
       <c r="AE77" s="325"/>
-      <c r="AF77" s="449"/>
-      <c r="AG77" s="459"/>
+      <c r="AF77" s="385"/>
+      <c r="AG77" s="391"/>
     </row>
     <row r="78" s="6" customFormat="1" ht="13.5" customHeight="1" spans="1:33">
       <c r="A78" s="159"/>
@@ -9063,20 +8838,20 @@
       <c r="S78" s="291"/>
       <c r="T78" s="292"/>
       <c r="U78" s="275" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="V78" s="276"/>
       <c r="W78" s="277"/>
-      <c r="X78" s="413"/>
-      <c r="Y78" s="451"/>
-      <c r="Z78" s="452"/>
-      <c r="AA78" s="453"/>
+      <c r="X78" s="372"/>
+      <c r="Y78" s="387"/>
+      <c r="Z78" s="388"/>
+      <c r="AA78" s="389"/>
       <c r="AB78" s="329"/>
       <c r="AC78" s="329"/>
       <c r="AD78" s="329"/>
       <c r="AE78" s="329"/>
-      <c r="AF78" s="453"/>
-      <c r="AG78" s="460"/>
+      <c r="AF78" s="389"/>
+      <c r="AG78" s="392"/>
     </row>
     <row r="79" s="6" customFormat="1" ht="12.5" customHeight="1" spans="1:33">
       <c r="A79" s="152">
@@ -9103,7 +8878,7 @@
       <c r="I79" s="210"/>
       <c r="J79" s="211"/>
       <c r="K79" s="212" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L79" s="213"/>
       <c r="M79" s="213"/>
@@ -9116,17 +8891,17 @@
       </c>
       <c r="S79" s="285"/>
       <c r="T79" s="286"/>
-      <c r="U79" s="406" t="s">
+      <c r="U79" s="365" t="s">
         <v>38</v>
       </c>
-      <c r="V79" s="407"/>
-      <c r="W79" s="408"/>
-      <c r="X79" s="410" t="s">
-        <v>172</v>
-      </c>
-      <c r="Y79" s="444"/>
-      <c r="Z79" s="445"/>
-      <c r="AA79" s="446"/>
+      <c r="V79" s="366"/>
+      <c r="W79" s="367"/>
+      <c r="X79" s="369" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y79" s="380"/>
+      <c r="Z79" s="381"/>
+      <c r="AA79" s="382"/>
       <c r="AB79" s="322" t="s">
         <v>39</v>
       </c>
@@ -9139,8 +8914,8 @@
       <c r="AE79" s="322" t="s">
         <v>39</v>
       </c>
-      <c r="AF79" s="446"/>
-      <c r="AG79" s="458"/>
+      <c r="AF79" s="382"/>
+      <c r="AG79" s="390"/>
     </row>
     <row r="80" s="6" customFormat="1" ht="26" customHeight="1" spans="1:33">
       <c r="A80" s="126"/>
@@ -9158,7 +8933,7 @@
       <c r="I80" s="214"/>
       <c r="J80" s="215"/>
       <c r="K80" s="216" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L80" s="217"/>
       <c r="M80" s="217"/>
@@ -9171,21 +8946,21 @@
       </c>
       <c r="S80" s="214"/>
       <c r="T80" s="215"/>
-      <c r="U80" s="414" t="s">
+      <c r="U80" s="373" t="s">
         <v>146</v>
       </c>
-      <c r="V80" s="415"/>
-      <c r="W80" s="416"/>
-      <c r="X80" s="411"/>
-      <c r="Y80" s="447"/>
-      <c r="Z80" s="448"/>
-      <c r="AA80" s="449"/>
+      <c r="V80" s="374"/>
+      <c r="W80" s="375"/>
+      <c r="X80" s="370"/>
+      <c r="Y80" s="383"/>
+      <c r="Z80" s="384"/>
+      <c r="AA80" s="385"/>
       <c r="AB80" s="325"/>
       <c r="AC80" s="325"/>
       <c r="AD80" s="325"/>
       <c r="AE80" s="325"/>
-      <c r="AF80" s="449"/>
-      <c r="AG80" s="459"/>
+      <c r="AF80" s="385"/>
+      <c r="AG80" s="391"/>
     </row>
     <row r="81" s="6" customFormat="1" ht="13.5" customHeight="1" spans="1:33">
       <c r="A81" s="126"/>
@@ -9203,7 +8978,7 @@
       <c r="I81" s="218"/>
       <c r="J81" s="219"/>
       <c r="K81" s="220" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L81" s="221"/>
       <c r="M81" s="221"/>
@@ -9221,18 +8996,18 @@
       </c>
       <c r="V81" s="265"/>
       <c r="W81" s="266"/>
-      <c r="X81" s="412">
+      <c r="X81" s="371">
         <v>1</v>
       </c>
-      <c r="Y81" s="450"/>
-      <c r="Z81" s="448"/>
-      <c r="AA81" s="449"/>
+      <c r="Y81" s="386"/>
+      <c r="Z81" s="384"/>
+      <c r="AA81" s="385"/>
       <c r="AB81" s="325"/>
       <c r="AC81" s="325"/>
       <c r="AD81" s="325"/>
       <c r="AE81" s="325"/>
-      <c r="AF81" s="449"/>
-      <c r="AG81" s="459"/>
+      <c r="AF81" s="385"/>
+      <c r="AG81" s="391"/>
     </row>
     <row r="82" s="6" customFormat="1" ht="22.05" customHeight="1" spans="1:33">
       <c r="A82" s="159"/>
@@ -9258,20 +9033,20 @@
       <c r="S82" s="291"/>
       <c r="T82" s="292"/>
       <c r="U82" s="275" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="V82" s="276"/>
       <c r="W82" s="277"/>
-      <c r="X82" s="413"/>
-      <c r="Y82" s="451"/>
-      <c r="Z82" s="452"/>
-      <c r="AA82" s="453"/>
+      <c r="X82" s="372"/>
+      <c r="Y82" s="387"/>
+      <c r="Z82" s="388"/>
+      <c r="AA82" s="389"/>
       <c r="AB82" s="329"/>
       <c r="AC82" s="329"/>
       <c r="AD82" s="329"/>
       <c r="AE82" s="329"/>
-      <c r="AF82" s="453"/>
-      <c r="AG82" s="460"/>
+      <c r="AF82" s="389"/>
+      <c r="AG82" s="392"/>
     </row>
     <row r="83" s="6" customFormat="1" ht="12.5" customHeight="1" spans="1:33">
       <c r="A83" s="152">
@@ -9298,7 +9073,7 @@
       <c r="I83" s="210"/>
       <c r="J83" s="211"/>
       <c r="K83" s="212" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L83" s="213"/>
       <c r="M83" s="213"/>
@@ -9311,17 +9086,17 @@
       </c>
       <c r="S83" s="285"/>
       <c r="T83" s="286"/>
-      <c r="U83" s="406" t="s">
+      <c r="U83" s="365" t="s">
         <v>38</v>
       </c>
-      <c r="V83" s="407"/>
-      <c r="W83" s="408"/>
-      <c r="X83" s="410" t="s">
+      <c r="V83" s="366"/>
+      <c r="W83" s="367"/>
+      <c r="X83" s="369" t="s">
         <v>133</v>
       </c>
-      <c r="Y83" s="444"/>
-      <c r="Z83" s="445"/>
-      <c r="AA83" s="446"/>
+      <c r="Y83" s="380"/>
+      <c r="Z83" s="381"/>
+      <c r="AA83" s="382"/>
       <c r="AB83" s="322" t="s">
         <v>39</v>
       </c>
@@ -9334,8 +9109,8 @@
       <c r="AE83" s="322" t="s">
         <v>39</v>
       </c>
-      <c r="AF83" s="446"/>
-      <c r="AG83" s="458"/>
+      <c r="AF83" s="382"/>
+      <c r="AG83" s="390"/>
     </row>
     <row r="84" s="6" customFormat="1" ht="23" customHeight="1" spans="1:33">
       <c r="A84" s="126"/>
@@ -9353,7 +9128,7 @@
       <c r="I84" s="214"/>
       <c r="J84" s="215"/>
       <c r="K84" s="216" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L84" s="217"/>
       <c r="M84" s="217"/>
@@ -9366,21 +9141,21 @@
       </c>
       <c r="S84" s="214"/>
       <c r="T84" s="215"/>
-      <c r="U84" s="414" t="s">
+      <c r="U84" s="373" t="s">
         <v>146</v>
       </c>
-      <c r="V84" s="415"/>
-      <c r="W84" s="416"/>
-      <c r="X84" s="411"/>
-      <c r="Y84" s="447"/>
-      <c r="Z84" s="448"/>
-      <c r="AA84" s="449"/>
+      <c r="V84" s="374"/>
+      <c r="W84" s="375"/>
+      <c r="X84" s="370"/>
+      <c r="Y84" s="383"/>
+      <c r="Z84" s="384"/>
+      <c r="AA84" s="385"/>
       <c r="AB84" s="325"/>
       <c r="AC84" s="325"/>
       <c r="AD84" s="325"/>
       <c r="AE84" s="325"/>
-      <c r="AF84" s="449"/>
-      <c r="AG84" s="459"/>
+      <c r="AF84" s="385"/>
+      <c r="AG84" s="391"/>
     </row>
     <row r="85" s="6" customFormat="1" ht="13.5" customHeight="1" spans="1:33">
       <c r="A85" s="126"/>
@@ -9398,7 +9173,7 @@
       <c r="I85" s="218"/>
       <c r="J85" s="219"/>
       <c r="K85" s="220" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L85" s="221"/>
       <c r="M85" s="221"/>
@@ -9416,16 +9191,16 @@
       </c>
       <c r="V85" s="265"/>
       <c r="W85" s="266"/>
-      <c r="X85" s="412"/>
-      <c r="Y85" s="450"/>
-      <c r="Z85" s="448"/>
-      <c r="AA85" s="449"/>
+      <c r="X85" s="371"/>
+      <c r="Y85" s="386"/>
+      <c r="Z85" s="384"/>
+      <c r="AA85" s="385"/>
       <c r="AB85" s="325"/>
       <c r="AC85" s="325"/>
       <c r="AD85" s="325"/>
       <c r="AE85" s="325"/>
-      <c r="AF85" s="449"/>
-      <c r="AG85" s="459"/>
+      <c r="AF85" s="385"/>
+      <c r="AG85" s="391"/>
     </row>
     <row r="86" s="6" customFormat="1" ht="44" customHeight="1" spans="1:33">
       <c r="A86" s="159"/>
@@ -9451,20 +9226,20 @@
       <c r="S86" s="291"/>
       <c r="T86" s="292"/>
       <c r="U86" s="275" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V86" s="276"/>
       <c r="W86" s="277"/>
-      <c r="X86" s="413"/>
-      <c r="Y86" s="451"/>
-      <c r="Z86" s="452"/>
-      <c r="AA86" s="453"/>
+      <c r="X86" s="372"/>
+      <c r="Y86" s="387"/>
+      <c r="Z86" s="388"/>
+      <c r="AA86" s="389"/>
       <c r="AB86" s="329"/>
       <c r="AC86" s="329"/>
       <c r="AD86" s="329"/>
       <c r="AE86" s="329"/>
-      <c r="AF86" s="453"/>
-      <c r="AG86" s="460"/>
+      <c r="AF86" s="389"/>
+      <c r="AG86" s="392"/>
     </row>
     <row r="87" s="6" customFormat="1" ht="12.5" customHeight="1" spans="1:33">
       <c r="A87" s="152">
@@ -9504,17 +9279,17 @@
       </c>
       <c r="S87" s="285"/>
       <c r="T87" s="286"/>
-      <c r="U87" s="406" t="s">
+      <c r="U87" s="365" t="s">
         <v>38</v>
       </c>
-      <c r="V87" s="407"/>
-      <c r="W87" s="408"/>
-      <c r="X87" s="410" t="s">
+      <c r="V87" s="366"/>
+      <c r="W87" s="367"/>
+      <c r="X87" s="369" t="s">
         <v>133</v>
       </c>
-      <c r="Y87" s="444"/>
-      <c r="Z87" s="445"/>
-      <c r="AA87" s="446"/>
+      <c r="Y87" s="380"/>
+      <c r="Z87" s="381"/>
+      <c r="AA87" s="382"/>
       <c r="AB87" s="322" t="s">
         <v>39</v>
       </c>
@@ -9527,8 +9302,8 @@
       <c r="AE87" s="322" t="s">
         <v>39</v>
       </c>
-      <c r="AF87" s="446"/>
-      <c r="AG87" s="458"/>
+      <c r="AF87" s="382"/>
+      <c r="AG87" s="390"/>
     </row>
     <row r="88" s="6" customFormat="1" ht="23" customHeight="1" spans="1:33">
       <c r="A88" s="126"/>
@@ -9546,7 +9321,7 @@
       <c r="I88" s="214"/>
       <c r="J88" s="215"/>
       <c r="K88" s="216" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L88" s="217"/>
       <c r="M88" s="217"/>
@@ -9564,16 +9339,16 @@
       </c>
       <c r="V88" s="265"/>
       <c r="W88" s="266"/>
-      <c r="X88" s="411"/>
-      <c r="Y88" s="447"/>
-      <c r="Z88" s="448"/>
-      <c r="AA88" s="449"/>
+      <c r="X88" s="370"/>
+      <c r="Y88" s="383"/>
+      <c r="Z88" s="384"/>
+      <c r="AA88" s="385"/>
       <c r="AB88" s="325"/>
       <c r="AC88" s="325"/>
       <c r="AD88" s="325"/>
       <c r="AE88" s="325"/>
-      <c r="AF88" s="449"/>
-      <c r="AG88" s="459"/>
+      <c r="AF88" s="385"/>
+      <c r="AG88" s="391"/>
     </row>
     <row r="89" s="6" customFormat="1" ht="13.5" customHeight="1" spans="1:33">
       <c r="A89" s="126"/>
@@ -9591,7 +9366,7 @@
       <c r="I89" s="218"/>
       <c r="J89" s="219"/>
       <c r="K89" s="220" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L89" s="221"/>
       <c r="M89" s="221"/>
@@ -9609,16 +9384,16 @@
       </c>
       <c r="V89" s="265"/>
       <c r="W89" s="266"/>
-      <c r="X89" s="412"/>
-      <c r="Y89" s="450"/>
-      <c r="Z89" s="448"/>
-      <c r="AA89" s="449"/>
+      <c r="X89" s="371"/>
+      <c r="Y89" s="386"/>
+      <c r="Z89" s="384"/>
+      <c r="AA89" s="385"/>
       <c r="AB89" s="325"/>
       <c r="AC89" s="325"/>
       <c r="AD89" s="325"/>
       <c r="AE89" s="325"/>
-      <c r="AF89" s="449"/>
-      <c r="AG89" s="459"/>
+      <c r="AF89" s="385"/>
+      <c r="AG89" s="391"/>
     </row>
     <row r="90" s="6" customFormat="1" ht="56" customHeight="1" spans="1:33">
       <c r="A90" s="159"/>
@@ -9644,33 +9419,33 @@
       <c r="S90" s="291"/>
       <c r="T90" s="292"/>
       <c r="U90" s="275" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="V90" s="276"/>
       <c r="W90" s="277"/>
-      <c r="X90" s="413"/>
-      <c r="Y90" s="451"/>
-      <c r="Z90" s="452"/>
-      <c r="AA90" s="453"/>
+      <c r="X90" s="372"/>
+      <c r="Y90" s="387"/>
+      <c r="Z90" s="388"/>
+      <c r="AA90" s="389"/>
       <c r="AB90" s="329"/>
       <c r="AC90" s="329"/>
       <c r="AD90" s="329"/>
       <c r="AE90" s="329"/>
-      <c r="AF90" s="453"/>
-      <c r="AG90" s="460"/>
+      <c r="AF90" s="389"/>
+      <c r="AG90" s="392"/>
     </row>
     <row r="91" s="6" customFormat="1" ht="12.5" customHeight="1" spans="1:33">
       <c r="A91" s="152">
         <v>14</v>
       </c>
       <c r="B91" s="160">
-        <v>41671</v>
+        <v>41640</v>
       </c>
       <c r="C91" s="161"/>
       <c r="D91" s="162"/>
       <c r="E91" s="130">
         <f ca="1">IF(AND(B91&lt;&gt;"",B93&lt;&gt;""),DATEDIF(B91,B93,"M")+1,IF(AND(B91&lt;&gt;"",B93=""),DATEDIF(B91,TODAY(),"M")+1,""))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F91" s="130">
         <v>10</v>
@@ -9684,7 +9459,7 @@
       <c r="I91" s="210"/>
       <c r="J91" s="211"/>
       <c r="K91" s="212" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L91" s="213"/>
       <c r="M91" s="213"/>
@@ -9697,27 +9472,27 @@
       </c>
       <c r="S91" s="285"/>
       <c r="T91" s="286"/>
-      <c r="U91" s="406" t="s">
+      <c r="U91" s="365" t="s">
         <v>38</v>
       </c>
-      <c r="V91" s="407"/>
-      <c r="W91" s="408"/>
-      <c r="X91" s="410" t="s">
+      <c r="V91" s="366"/>
+      <c r="W91" s="367"/>
+      <c r="X91" s="369" t="s">
         <v>144</v>
       </c>
-      <c r="Y91" s="444"/>
-      <c r="Z91" s="445"/>
-      <c r="AA91" s="446"/>
-      <c r="AB91" s="446"/>
+      <c r="Y91" s="380"/>
+      <c r="Z91" s="381"/>
+      <c r="AA91" s="382"/>
+      <c r="AB91" s="382"/>
       <c r="AC91" s="322" t="s">
         <v>39</v>
       </c>
       <c r="AD91" s="322" t="s">
         <v>39</v>
       </c>
-      <c r="AE91" s="446"/>
-      <c r="AF91" s="446"/>
-      <c r="AG91" s="458"/>
+      <c r="AE91" s="382"/>
+      <c r="AF91" s="382"/>
+      <c r="AG91" s="390"/>
     </row>
     <row r="92" s="6" customFormat="1" ht="12" spans="1:33">
       <c r="A92" s="126"/>
@@ -9735,7 +9510,7 @@
       <c r="I92" s="214"/>
       <c r="J92" s="215"/>
       <c r="K92" s="216" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L92" s="217"/>
       <c r="M92" s="217"/>
@@ -9748,21 +9523,21 @@
       </c>
       <c r="S92" s="214"/>
       <c r="T92" s="215"/>
-      <c r="U92" s="414" t="s">
-        <v>187</v>
-      </c>
-      <c r="V92" s="415"/>
-      <c r="W92" s="416"/>
-      <c r="X92" s="411"/>
-      <c r="Y92" s="447"/>
-      <c r="Z92" s="448"/>
-      <c r="AA92" s="449"/>
-      <c r="AB92" s="449"/>
+      <c r="U92" s="373" t="s">
+        <v>186</v>
+      </c>
+      <c r="V92" s="374"/>
+      <c r="W92" s="375"/>
+      <c r="X92" s="370"/>
+      <c r="Y92" s="383"/>
+      <c r="Z92" s="384"/>
+      <c r="AA92" s="385"/>
+      <c r="AB92" s="385"/>
       <c r="AC92" s="325"/>
       <c r="AD92" s="325"/>
-      <c r="AE92" s="449"/>
-      <c r="AF92" s="449"/>
-      <c r="AG92" s="459"/>
+      <c r="AE92" s="385"/>
+      <c r="AF92" s="385"/>
+      <c r="AG92" s="391"/>
     </row>
     <row r="93" s="6" customFormat="1" ht="13.5" customHeight="1" spans="1:33">
       <c r="A93" s="126"/>
@@ -9780,7 +9555,7 @@
       <c r="I93" s="218"/>
       <c r="J93" s="219"/>
       <c r="K93" s="220" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L93" s="221"/>
       <c r="M93" s="221"/>
@@ -9798,18 +9573,18 @@
       </c>
       <c r="V93" s="265"/>
       <c r="W93" s="266"/>
-      <c r="X93" s="412"/>
-      <c r="Y93" s="450"/>
-      <c r="Z93" s="448"/>
-      <c r="AA93" s="449"/>
-      <c r="AB93" s="449"/>
+      <c r="X93" s="371"/>
+      <c r="Y93" s="386"/>
+      <c r="Z93" s="384"/>
+      <c r="AA93" s="385"/>
+      <c r="AB93" s="385"/>
       <c r="AC93" s="325"/>
       <c r="AD93" s="325"/>
-      <c r="AE93" s="449"/>
-      <c r="AF93" s="449"/>
-      <c r="AG93" s="459"/>
-    </row>
-    <row r="94" s="6" customFormat="1" ht="12" spans="1:33">
+      <c r="AE93" s="385"/>
+      <c r="AF93" s="385"/>
+      <c r="AG93" s="391"/>
+    </row>
+    <row r="94" s="6" customFormat="1" ht="22" customHeight="1" spans="1:33">
       <c r="A94" s="159"/>
       <c r="B94" s="169"/>
       <c r="C94" s="170"/>
@@ -9832,34 +9607,34 @@
       </c>
       <c r="S94" s="291"/>
       <c r="T94" s="292"/>
-      <c r="U94" s="417" t="s">
-        <v>189</v>
-      </c>
-      <c r="V94" s="418"/>
-      <c r="W94" s="419"/>
-      <c r="X94" s="413"/>
-      <c r="Y94" s="451"/>
-      <c r="Z94" s="452"/>
-      <c r="AA94" s="453"/>
-      <c r="AB94" s="453"/>
+      <c r="U94" s="376" t="s">
+        <v>188</v>
+      </c>
+      <c r="V94" s="377"/>
+      <c r="W94" s="378"/>
+      <c r="X94" s="372"/>
+      <c r="Y94" s="387"/>
+      <c r="Z94" s="388"/>
+      <c r="AA94" s="389"/>
+      <c r="AB94" s="389"/>
       <c r="AC94" s="329"/>
       <c r="AD94" s="329"/>
-      <c r="AE94" s="453"/>
-      <c r="AF94" s="453"/>
-      <c r="AG94" s="460"/>
+      <c r="AE94" s="389"/>
+      <c r="AF94" s="389"/>
+      <c r="AG94" s="392"/>
     </row>
     <row r="95" customFormat="1" ht="14" customHeight="1" spans="1:33">
       <c r="A95" s="152">
         <v>15</v>
       </c>
       <c r="B95" s="160">
-        <v>41548</v>
+        <v>41518</v>
       </c>
       <c r="C95" s="161"/>
       <c r="D95" s="162"/>
       <c r="E95" s="130">
         <f ca="1">IF(AND(B95&lt;&gt;"",B97&lt;&gt;""),DATEDIF(B95,B97,"M")+1,IF(AND(B95&lt;&gt;"",B97=""),DATEDIF(B95,TODAY(),"M")+1,""))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F95" s="130">
         <v>5</v>
@@ -9886,27 +9661,27 @@
       </c>
       <c r="S95" s="285"/>
       <c r="T95" s="286"/>
-      <c r="U95" s="406" t="s">
+      <c r="U95" s="365" t="s">
         <v>38</v>
       </c>
-      <c r="V95" s="407"/>
-      <c r="W95" s="408"/>
-      <c r="X95" s="410" t="s">
+      <c r="V95" s="366"/>
+      <c r="W95" s="367"/>
+      <c r="X95" s="369" t="s">
         <v>144</v>
       </c>
-      <c r="Y95" s="444"/>
-      <c r="Z95" s="445"/>
-      <c r="AA95" s="446"/>
-      <c r="AB95" s="446"/>
+      <c r="Y95" s="380"/>
+      <c r="Z95" s="381"/>
+      <c r="AA95" s="382"/>
+      <c r="AB95" s="382"/>
       <c r="AC95" s="322" t="s">
         <v>39</v>
       </c>
       <c r="AD95" s="322" t="s">
         <v>39</v>
       </c>
-      <c r="AE95" s="446"/>
-      <c r="AF95" s="446"/>
-      <c r="AG95" s="458"/>
+      <c r="AE95" s="382"/>
+      <c r="AF95" s="382"/>
+      <c r="AG95" s="390"/>
     </row>
     <row r="96" customFormat="1" ht="13.5" spans="1:33">
       <c r="A96" s="126"/>
@@ -9924,7 +9699,7 @@
       <c r="I96" s="214"/>
       <c r="J96" s="215"/>
       <c r="K96" s="216" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L96" s="217"/>
       <c r="M96" s="217"/>
@@ -9937,26 +9712,26 @@
       </c>
       <c r="S96" s="214"/>
       <c r="T96" s="215"/>
-      <c r="U96" s="414" t="s">
-        <v>187</v>
-      </c>
-      <c r="V96" s="415"/>
-      <c r="W96" s="416"/>
-      <c r="X96" s="411"/>
-      <c r="Y96" s="447"/>
-      <c r="Z96" s="448"/>
-      <c r="AA96" s="449"/>
-      <c r="AB96" s="449"/>
+      <c r="U96" s="373" t="s">
+        <v>186</v>
+      </c>
+      <c r="V96" s="374"/>
+      <c r="W96" s="375"/>
+      <c r="X96" s="370"/>
+      <c r="Y96" s="383"/>
+      <c r="Z96" s="384"/>
+      <c r="AA96" s="385"/>
+      <c r="AB96" s="385"/>
       <c r="AC96" s="325"/>
       <c r="AD96" s="325"/>
-      <c r="AE96" s="449"/>
-      <c r="AF96" s="449"/>
-      <c r="AG96" s="459"/>
+      <c r="AE96" s="385"/>
+      <c r="AF96" s="385"/>
+      <c r="AG96" s="391"/>
     </row>
     <row r="97" customFormat="1" ht="13.5" spans="1:33">
       <c r="A97" s="126"/>
       <c r="B97" s="359">
-        <v>41640</v>
+        <v>41579</v>
       </c>
       <c r="C97" s="360"/>
       <c r="D97" s="361"/>
@@ -9969,7 +9744,7 @@
       <c r="I97" s="218"/>
       <c r="J97" s="219"/>
       <c r="K97" s="220" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="L97" s="221"/>
       <c r="M97" s="221"/>
@@ -9987,18 +9762,18 @@
       </c>
       <c r="V97" s="265"/>
       <c r="W97" s="266"/>
-      <c r="X97" s="412"/>
-      <c r="Y97" s="450"/>
-      <c r="Z97" s="448"/>
-      <c r="AA97" s="449"/>
-      <c r="AB97" s="449"/>
+      <c r="X97" s="371"/>
+      <c r="Y97" s="386"/>
+      <c r="Z97" s="384"/>
+      <c r="AA97" s="385"/>
+      <c r="AB97" s="385"/>
       <c r="AC97" s="325"/>
       <c r="AD97" s="325"/>
-      <c r="AE97" s="449"/>
-      <c r="AF97" s="449"/>
-      <c r="AG97" s="459"/>
-    </row>
-    <row r="98" customFormat="1" ht="25.05" customHeight="1" spans="1:33">
+      <c r="AE97" s="385"/>
+      <c r="AF97" s="385"/>
+      <c r="AG97" s="391"/>
+    </row>
+    <row r="98" customFormat="1" ht="21" customHeight="1" spans="1:33">
       <c r="A98" s="159"/>
       <c r="B98" s="169"/>
       <c r="C98" s="170"/>
@@ -10021,34 +9796,34 @@
       </c>
       <c r="S98" s="291"/>
       <c r="T98" s="292"/>
-      <c r="U98" s="417" t="s">
-        <v>189</v>
-      </c>
-      <c r="V98" s="418"/>
-      <c r="W98" s="419"/>
-      <c r="X98" s="413"/>
-      <c r="Y98" s="451"/>
-      <c r="Z98" s="452"/>
-      <c r="AA98" s="453"/>
-      <c r="AB98" s="453"/>
+      <c r="U98" s="376" t="s">
+        <v>188</v>
+      </c>
+      <c r="V98" s="377"/>
+      <c r="W98" s="378"/>
+      <c r="X98" s="372"/>
+      <c r="Y98" s="387"/>
+      <c r="Z98" s="388"/>
+      <c r="AA98" s="389"/>
+      <c r="AB98" s="389"/>
       <c r="AC98" s="329"/>
       <c r="AD98" s="329"/>
-      <c r="AE98" s="453"/>
-      <c r="AF98" s="453"/>
-      <c r="AG98" s="460"/>
+      <c r="AE98" s="389"/>
+      <c r="AF98" s="389"/>
+      <c r="AG98" s="392"/>
     </row>
     <row r="99" s="4" customFormat="1" ht="15" customHeight="1" spans="1:33">
       <c r="A99" s="152">
         <v>16</v>
       </c>
       <c r="B99" s="160">
-        <v>40664</v>
+        <v>41395</v>
       </c>
       <c r="C99" s="161"/>
       <c r="D99" s="162"/>
       <c r="E99" s="130">
         <f ca="1">IF(AND(B99&lt;&gt;"",B101&lt;&gt;""),DATEDIF(B99,B101,"M")+1,IF(AND(B99&lt;&gt;"",B101=""),DATEDIF(B99,TODAY(),"M")+1,""))</f>
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="F99" s="130">
         <v>5</v>
@@ -10075,27 +9850,27 @@
       </c>
       <c r="S99" s="285"/>
       <c r="T99" s="286"/>
-      <c r="U99" s="406" t="s">
+      <c r="U99" s="365" t="s">
         <v>38</v>
       </c>
-      <c r="V99" s="407"/>
-      <c r="W99" s="408"/>
-      <c r="X99" s="410" t="s">
+      <c r="V99" s="366"/>
+      <c r="W99" s="367"/>
+      <c r="X99" s="369" t="s">
         <v>144</v>
       </c>
-      <c r="Y99" s="444"/>
-      <c r="Z99" s="445"/>
-      <c r="AA99" s="446"/>
-      <c r="AB99" s="446"/>
+      <c r="Y99" s="380"/>
+      <c r="Z99" s="381"/>
+      <c r="AA99" s="382"/>
+      <c r="AB99" s="382"/>
       <c r="AC99" s="322" t="s">
         <v>39</v>
       </c>
       <c r="AD99" s="322" t="s">
         <v>39</v>
       </c>
-      <c r="AE99" s="446"/>
-      <c r="AF99" s="446"/>
-      <c r="AG99" s="458"/>
+      <c r="AE99" s="382"/>
+      <c r="AF99" s="382"/>
+      <c r="AG99" s="390"/>
     </row>
     <row r="100" s="4" customFormat="1" ht="27" customHeight="1" spans="1:33">
       <c r="A100" s="126"/>
@@ -10113,7 +9888,7 @@
       <c r="I100" s="214"/>
       <c r="J100" s="215"/>
       <c r="K100" s="216" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L100" s="217"/>
       <c r="M100" s="217"/>
@@ -10126,26 +9901,26 @@
       </c>
       <c r="S100" s="214"/>
       <c r="T100" s="215"/>
-      <c r="U100" s="414" t="s">
-        <v>193</v>
-      </c>
-      <c r="V100" s="415"/>
-      <c r="W100" s="416"/>
-      <c r="X100" s="411"/>
-      <c r="Y100" s="447"/>
-      <c r="Z100" s="448"/>
-      <c r="AA100" s="449"/>
-      <c r="AB100" s="449"/>
+      <c r="U100" s="373" t="s">
+        <v>186</v>
+      </c>
+      <c r="V100" s="374"/>
+      <c r="W100" s="375"/>
+      <c r="X100" s="370"/>
+      <c r="Y100" s="383"/>
+      <c r="Z100" s="384"/>
+      <c r="AA100" s="385"/>
+      <c r="AB100" s="385"/>
       <c r="AC100" s="325"/>
       <c r="AD100" s="325"/>
-      <c r="AE100" s="449"/>
-      <c r="AF100" s="449"/>
-      <c r="AG100" s="459"/>
+      <c r="AE100" s="385"/>
+      <c r="AF100" s="385"/>
+      <c r="AG100" s="391"/>
     </row>
     <row r="101" s="4" customFormat="1" ht="15" customHeight="1" spans="1:33">
       <c r="A101" s="126"/>
       <c r="B101" s="359">
-        <v>41394</v>
+        <v>41485</v>
       </c>
       <c r="C101" s="360"/>
       <c r="D101" s="361"/>
@@ -10158,7 +9933,7 @@
       <c r="I101" s="218"/>
       <c r="J101" s="219"/>
       <c r="K101" s="220" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="L101" s="221"/>
       <c r="M101" s="221"/>
@@ -10171,21 +9946,23 @@
       </c>
       <c r="S101" s="214"/>
       <c r="T101" s="215"/>
-      <c r="U101" s="414"/>
-      <c r="V101" s="415"/>
-      <c r="W101" s="416"/>
-      <c r="X101" s="412"/>
-      <c r="Y101" s="450"/>
-      <c r="Z101" s="448"/>
-      <c r="AA101" s="449"/>
-      <c r="AB101" s="449"/>
+      <c r="U101" s="269" t="s">
+        <v>83</v>
+      </c>
+      <c r="V101" s="265"/>
+      <c r="W101" s="266"/>
+      <c r="X101" s="371"/>
+      <c r="Y101" s="386"/>
+      <c r="Z101" s="384"/>
+      <c r="AA101" s="385"/>
+      <c r="AB101" s="385"/>
       <c r="AC101" s="325"/>
       <c r="AD101" s="325"/>
-      <c r="AE101" s="449"/>
-      <c r="AF101" s="449"/>
-      <c r="AG101" s="459"/>
-    </row>
-    <row r="102" s="4" customFormat="1" spans="1:33">
+      <c r="AE101" s="385"/>
+      <c r="AF101" s="385"/>
+      <c r="AG101" s="391"/>
+    </row>
+    <row r="102" s="4" customFormat="1" ht="21" customHeight="1" spans="1:33">
       <c r="A102" s="159"/>
       <c r="B102" s="169"/>
       <c r="C102" s="170"/>
@@ -10208,161 +9985,210 @@
       </c>
       <c r="S102" s="291"/>
       <c r="T102" s="292"/>
-      <c r="U102" s="417" t="s">
-        <v>195</v>
-      </c>
-      <c r="V102" s="418"/>
-      <c r="W102" s="419"/>
-      <c r="X102" s="413"/>
-      <c r="Y102" s="451"/>
-      <c r="Z102" s="452"/>
-      <c r="AA102" s="453"/>
-      <c r="AB102" s="453"/>
+      <c r="U102" s="376" t="s">
+        <v>94</v>
+      </c>
+      <c r="V102" s="377"/>
+      <c r="W102" s="378"/>
+      <c r="X102" s="372"/>
+      <c r="Y102" s="387"/>
+      <c r="Z102" s="388"/>
+      <c r="AA102" s="389"/>
+      <c r="AB102" s="389"/>
       <c r="AC102" s="329"/>
       <c r="AD102" s="329"/>
-      <c r="AE102" s="453"/>
-      <c r="AF102" s="453"/>
-      <c r="AG102" s="460"/>
+      <c r="AE102" s="389"/>
+      <c r="AF102" s="389"/>
+      <c r="AG102" s="392"/>
     </row>
     <row r="103" s="4" customFormat="1" spans="1:33">
-      <c r="A103" s="365"/>
-      <c r="B103" s="366"/>
-      <c r="C103" s="367"/>
-      <c r="D103" s="368"/>
-      <c r="E103" s="369"/>
-      <c r="F103" s="369"/>
-      <c r="G103" s="370"/>
-      <c r="H103" s="371"/>
-      <c r="I103" s="390"/>
-      <c r="J103" s="391"/>
-      <c r="K103" s="392"/>
-      <c r="L103" s="393"/>
-      <c r="M103" s="393"/>
-      <c r="N103" s="393"/>
-      <c r="O103" s="393"/>
-      <c r="P103" s="393"/>
-      <c r="Q103" s="420"/>
-      <c r="R103" s="421"/>
-      <c r="S103" s="422"/>
-      <c r="T103" s="423"/>
-      <c r="U103" s="424"/>
-      <c r="V103" s="425"/>
-      <c r="W103" s="426"/>
-      <c r="X103" s="427"/>
-      <c r="Y103" s="454"/>
-      <c r="Z103" s="445"/>
-      <c r="AA103" s="446"/>
-      <c r="AB103" s="446"/>
-      <c r="AC103" s="322"/>
-      <c r="AD103" s="446"/>
-      <c r="AE103" s="446"/>
-      <c r="AF103" s="446"/>
-      <c r="AG103" s="458"/>
-    </row>
-    <row r="104" s="4" customFormat="1" spans="1:33">
-      <c r="A104" s="372"/>
-      <c r="B104" s="373"/>
-      <c r="C104" s="374"/>
-      <c r="D104" s="375"/>
-      <c r="E104" s="376"/>
-      <c r="F104" s="376"/>
-      <c r="G104" s="377"/>
-      <c r="H104" s="378"/>
-      <c r="I104" s="394"/>
-      <c r="J104" s="395"/>
-      <c r="K104" s="396"/>
-      <c r="L104" s="397"/>
-      <c r="M104" s="397"/>
-      <c r="N104" s="397"/>
-      <c r="O104" s="397"/>
-      <c r="P104" s="397"/>
-      <c r="Q104" s="428"/>
-      <c r="R104" s="378"/>
-      <c r="S104" s="394"/>
-      <c r="T104" s="395"/>
-      <c r="U104" s="429"/>
-      <c r="V104" s="430"/>
-      <c r="W104" s="431"/>
-      <c r="X104" s="432"/>
-      <c r="Y104" s="455"/>
-      <c r="Z104" s="448"/>
-      <c r="AA104" s="449"/>
-      <c r="AB104" s="449"/>
+      <c r="A103" s="152">
+        <v>17</v>
+      </c>
+      <c r="B103" s="160">
+        <v>41030</v>
+      </c>
+      <c r="C103" s="161"/>
+      <c r="D103" s="162"/>
+      <c r="E103" s="130">
+        <f ca="1">IF(AND(B103&lt;&gt;"",B105&lt;&gt;""),DATEDIF(B103,B105,"M")+1,IF(AND(B103&lt;&gt;"",B105=""),DATEDIF(B103,TODAY(),"M")+1,""))</f>
+        <v>8</v>
+      </c>
+      <c r="F103" s="130">
+        <v>5</v>
+      </c>
+      <c r="G103" s="362" t="s">
+        <v>129</v>
+      </c>
+      <c r="H103" s="163" t="s">
+        <v>130</v>
+      </c>
+      <c r="I103" s="210"/>
+      <c r="J103" s="211"/>
+      <c r="K103" s="212" t="s">
+        <v>33</v>
+      </c>
+      <c r="L103" s="213"/>
+      <c r="M103" s="213"/>
+      <c r="N103" s="213"/>
+      <c r="O103" s="213"/>
+      <c r="P103" s="213"/>
+      <c r="Q103" s="283"/>
+      <c r="R103" s="284" t="s">
+        <v>132</v>
+      </c>
+      <c r="S103" s="285"/>
+      <c r="T103" s="286"/>
+      <c r="U103" s="365" t="s">
+        <v>38</v>
+      </c>
+      <c r="V103" s="366"/>
+      <c r="W103" s="367"/>
+      <c r="X103" s="369" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y103" s="380"/>
+      <c r="Z103" s="381"/>
+      <c r="AA103" s="382"/>
+      <c r="AB103" s="382"/>
+      <c r="AC103" s="322" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD103" s="322" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE103" s="382"/>
+      <c r="AF103" s="382"/>
+      <c r="AG103" s="390"/>
+    </row>
+    <row r="104" s="4" customFormat="1" ht="24" customHeight="1" spans="1:33">
+      <c r="A104" s="126"/>
+      <c r="B104" s="164" t="s">
+        <v>134</v>
+      </c>
+      <c r="C104" s="165"/>
+      <c r="D104" s="166"/>
+      <c r="E104" s="137"/>
+      <c r="F104" s="137"/>
+      <c r="G104" s="363"/>
+      <c r="H104" s="167" t="s">
+        <v>135</v>
+      </c>
+      <c r="I104" s="214"/>
+      <c r="J104" s="215"/>
+      <c r="K104" s="216" t="s">
+        <v>191</v>
+      </c>
+      <c r="L104" s="217"/>
+      <c r="M104" s="217"/>
+      <c r="N104" s="217"/>
+      <c r="O104" s="217"/>
+      <c r="P104" s="217"/>
+      <c r="Q104" s="287"/>
+      <c r="R104" s="167" t="s">
+        <v>137</v>
+      </c>
+      <c r="S104" s="214"/>
+      <c r="T104" s="215"/>
+      <c r="U104" s="373" t="s">
+        <v>186</v>
+      </c>
+      <c r="V104" s="374"/>
+      <c r="W104" s="375"/>
+      <c r="X104" s="370"/>
+      <c r="Y104" s="383"/>
+      <c r="Z104" s="384"/>
+      <c r="AA104" s="385"/>
+      <c r="AB104" s="385"/>
       <c r="AC104" s="325"/>
-      <c r="AD104" s="449"/>
-      <c r="AE104" s="449"/>
-      <c r="AF104" s="449"/>
-      <c r="AG104" s="459"/>
+      <c r="AD104" s="325"/>
+      <c r="AE104" s="385"/>
+      <c r="AF104" s="385"/>
+      <c r="AG104" s="391"/>
     </row>
     <row r="105" s="4" customFormat="1" spans="1:33">
-      <c r="A105" s="372"/>
-      <c r="B105" s="379"/>
-      <c r="C105" s="380"/>
-      <c r="D105" s="381"/>
-      <c r="E105" s="376"/>
-      <c r="F105" s="376"/>
-      <c r="G105" s="377"/>
-      <c r="H105" s="382"/>
-      <c r="I105" s="398"/>
-      <c r="J105" s="399"/>
-      <c r="K105" s="400"/>
-      <c r="L105" s="401"/>
-      <c r="M105" s="401"/>
-      <c r="N105" s="401"/>
-      <c r="O105" s="401"/>
-      <c r="P105" s="401"/>
-      <c r="Q105" s="433"/>
-      <c r="R105" s="378"/>
-      <c r="S105" s="394"/>
-      <c r="T105" s="395"/>
-      <c r="U105" s="429"/>
-      <c r="V105" s="430"/>
-      <c r="W105" s="431"/>
-      <c r="X105" s="434"/>
-      <c r="Y105" s="456"/>
-      <c r="Z105" s="448"/>
-      <c r="AA105" s="449"/>
-      <c r="AB105" s="449"/>
+      <c r="A105" s="126"/>
+      <c r="B105" s="359">
+        <v>41273</v>
+      </c>
+      <c r="C105" s="360"/>
+      <c r="D105" s="361"/>
+      <c r="E105" s="137"/>
+      <c r="F105" s="137"/>
+      <c r="G105" s="363"/>
+      <c r="H105" s="168" t="s">
+        <v>139</v>
+      </c>
+      <c r="I105" s="218"/>
+      <c r="J105" s="219"/>
+      <c r="K105" s="220" t="s">
+        <v>187</v>
+      </c>
+      <c r="L105" s="221"/>
+      <c r="M105" s="221"/>
+      <c r="N105" s="221"/>
+      <c r="O105" s="221"/>
+      <c r="P105" s="221"/>
+      <c r="Q105" s="288"/>
+      <c r="R105" s="167" t="s">
+        <v>141</v>
+      </c>
+      <c r="S105" s="214"/>
+      <c r="T105" s="215"/>
+      <c r="U105" s="269" t="s">
+        <v>83</v>
+      </c>
+      <c r="V105" s="265"/>
+      <c r="W105" s="266"/>
+      <c r="X105" s="371"/>
+      <c r="Y105" s="386"/>
+      <c r="Z105" s="384"/>
+      <c r="AA105" s="385"/>
+      <c r="AB105" s="385"/>
       <c r="AC105" s="325"/>
-      <c r="AD105" s="449"/>
-      <c r="AE105" s="449"/>
-      <c r="AF105" s="449"/>
-      <c r="AG105" s="459"/>
+      <c r="AD105" s="325"/>
+      <c r="AE105" s="385"/>
+      <c r="AF105" s="385"/>
+      <c r="AG105" s="391"/>
     </row>
     <row r="106" s="4" customFormat="1" spans="1:33">
-      <c r="A106" s="383"/>
-      <c r="B106" s="384"/>
-      <c r="C106" s="385"/>
-      <c r="D106" s="386"/>
-      <c r="E106" s="387"/>
-      <c r="F106" s="387"/>
-      <c r="G106" s="388"/>
-      <c r="H106" s="389"/>
-      <c r="I106" s="402"/>
-      <c r="J106" s="403"/>
-      <c r="K106" s="404"/>
-      <c r="L106" s="405"/>
-      <c r="M106" s="405"/>
-      <c r="N106" s="405"/>
-      <c r="O106" s="405"/>
-      <c r="P106" s="405"/>
-      <c r="Q106" s="435"/>
-      <c r="R106" s="436"/>
-      <c r="S106" s="437"/>
-      <c r="T106" s="438"/>
-      <c r="U106" s="439"/>
-      <c r="V106" s="440"/>
-      <c r="W106" s="441"/>
-      <c r="X106" s="442"/>
-      <c r="Y106" s="457"/>
-      <c r="Z106" s="452"/>
-      <c r="AA106" s="453"/>
-      <c r="AB106" s="453"/>
+      <c r="A106" s="159"/>
+      <c r="B106" s="169"/>
+      <c r="C106" s="170"/>
+      <c r="D106" s="171"/>
+      <c r="E106" s="148"/>
+      <c r="F106" s="148"/>
+      <c r="G106" s="364"/>
+      <c r="H106" s="172"/>
+      <c r="I106" s="222"/>
+      <c r="J106" s="223"/>
+      <c r="K106" s="224"/>
+      <c r="L106" s="225"/>
+      <c r="M106" s="225"/>
+      <c r="N106" s="225"/>
+      <c r="O106" s="225"/>
+      <c r="P106" s="225"/>
+      <c r="Q106" s="289"/>
+      <c r="R106" s="290" t="s">
+        <v>142</v>
+      </c>
+      <c r="S106" s="291"/>
+      <c r="T106" s="292"/>
+      <c r="U106" s="376" t="s">
+        <v>94</v>
+      </c>
+      <c r="V106" s="377"/>
+      <c r="W106" s="378"/>
+      <c r="X106" s="372"/>
+      <c r="Y106" s="387"/>
+      <c r="Z106" s="388"/>
+      <c r="AA106" s="389"/>
+      <c r="AB106" s="389"/>
       <c r="AC106" s="329"/>
-      <c r="AD106" s="453"/>
-      <c r="AE106" s="453"/>
-      <c r="AF106" s="453"/>
-      <c r="AG106" s="460"/>
+      <c r="AD106" s="329"/>
+      <c r="AE106" s="389"/>
+      <c r="AF106" s="389"/>
+      <c r="AG106" s="392"/>
     </row>
   </sheetData>
   <mergeCells count="671">
@@ -11029,14 +10855,14 @@
     <mergeCell ref="K93:Q94"/>
     <mergeCell ref="X93:Y94"/>
     <mergeCell ref="X95:Y96"/>
-    <mergeCell ref="K97:Q98"/>
     <mergeCell ref="X97:Y98"/>
     <mergeCell ref="X99:Y100"/>
-    <mergeCell ref="K101:Q102"/>
     <mergeCell ref="X101:Y102"/>
     <mergeCell ref="X103:Y104"/>
+    <mergeCell ref="X105:Y106"/>
+    <mergeCell ref="K101:Q102"/>
+    <mergeCell ref="K97:Q98"/>
     <mergeCell ref="K105:Q106"/>
-    <mergeCell ref="X105:Y106"/>
   </mergeCells>
   <conditionalFormatting sqref="AD3:AG3">
     <cfRule type="expression" dxfId="0" priority="1">
@@ -11044,40 +10870,40 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="13">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="その他の場合、ここに記入してください。" sqref="R16:AG16 AB21 W23:AG23 AB26"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="点数" sqref="L11"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11">
+      <formula1>"TOEIC,GRE,その他"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5">
       <formula1>"女,男"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="その他の場合、ここに記入してください。" sqref="R16:AG16 AB21 W23:AG23 AB26"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N5">
       <formula1>"有,無"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="点数" sqref="L11"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K39:Q39 K43:Q43 K47:Q47 K51:Q51 K55:Q55 K59:Q59 K63:Q63 K67:Q67 K71:Q71 K75:Q75 K79:Q79 K83:Q83 K87:Q87 K91:Q91 K95:Q95 K99:Q99 K103:Q103">
+      <formula1>業種</formula1>
+    </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="作成日を記入すると、自動的に算出" sqref="U5:W5"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G10">
       <formula1>"1級強(母国語レベル),1級(会議に支障がない),1級弱(仕事に支障がない),2級強(日常会話に支障がない),2級(簡単な意思疎通ができる),2級弱(簡単な単語を話せる)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11">
-      <formula1>"TOEIC,GRE,その他"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q15 V15 AA15 AG15 V17 AA19 AA22 AG22 G15:G26 L15:L26 Q17:Q26 V19:V22 V24:V26 AA24:AA25 AG17:AG20 AG24:AG25">
       <formula1>"●,〇,△,　"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K39:Q39 K43:Q43 K47:Q47 K51:Q51 K55:Q55 K59:Q59 K63:Q63 K67:Q67 K71:Q71 K75:Q75 K79:Q79 K83:Q83 K87:Q87 K91:Q91 K95:Q95 K99:Q99 K103:Q103">
-      <formula1>業種</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z39:AG39 Z43:AG43 Z47:AG47 Z51:AG51 Z55:AG55 Z59:AG59 Z63:AG63 Z67:AG67 Z71:AG71 Z75:AG75 Z79:AG79 Z83:AG83 Z87:AG87 Z91:AG91 Z95:AG95 Z99:AG99 Z103:AG103">
       <formula1>"●"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G39:G106">
-      <formula1>"日本,中国,韓国"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X39:Y40 X43:Y44 X47:Y48 X51:Y52 X55:Y56 X59:Y60 X63:Y64 X67:Y68 X71:Y72 X75:Y76 X79:Y80 X83:Y84 X87:Y88 X91:Y92 X95:Y96 X99:Y100 X103:Y104">
       <formula1>役割</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G39:G102 G103:G106">
+      <formula1>"日本,中国,韓国"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="管理人数を記載する。" sqref="X41:Y42 X45:Y46 X49:Y50 X53:Y54 X57:Y58 X61:Y62 X65:Y66 X69:Y70 X73:Y74 X77:Y78 X81:Y82 X85:Y86 X89:Y90 X93:Y94 X97:Y98 X101:Y102 X105:Y106"/>
   </dataValidations>
   <pageMargins left="0.31496062992126" right="0.275590551181102" top="0.31496062992126" bottom="0.511811023622047" header="0.511811023622047" footer="0.31496062992126"/>
-  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="93" fitToHeight="0" orientation="portrait" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;P / &amp;N</oddFooter>
   </headerFooter>
@@ -11122,7 +10948,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>133</v>
@@ -11130,26 +10956,26 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -11157,12 +10983,12 @@
         <v>33</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/resume_jp.xlsx
+++ b/resume_jp.xlsx
@@ -11,7 +11,7 @@
     <sheet name="work" sheetId="3" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'職務経歴書（開発用）'!$A$33:$BF$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'職務経歴書（開発用）'!$A$33:$BF$106</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'職務経歴書（開発用）'!$31:$38</definedName>
     <definedName name="業種">work!$A$2:$A$7</definedName>
     <definedName name="役割">work!$B$2:$B$8</definedName>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="208">
   <si>
     <t>　職　務　経　歴　書</t>
   </si>
@@ -929,6 +929,16 @@
 Ant Design Mobile</t>
   </si>
   <si>
+    <t>吉市分割払い</t>
+  </si>
+  <si>
+    <t>システム、公式サイト、携帯端末 h5 の 3 つの部分で構成されています。 すべてのフロントエンド作業は私が独立して行います</t>
+  </si>
+  <si>
+    <t>Vue,ElementUI,
+VantUI</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="9"/>
@@ -965,11 +975,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="黑体"/>
-        <charset val="134"/>
-      </rPr>
       <t>登録商標</t>
     </r>
     <r>
@@ -986,7 +991,7 @@
         <rFont val="黑体"/>
         <charset val="134"/>
       </rPr>
-      <t>商標調査をオンラインで行うビジネスサイト。</t>
+      <t>商標調査をオンラインで行うビジネスサイト</t>
     </r>
   </si>
   <si>
@@ -1012,6 +1017,21 @@
   </si>
   <si>
     <t>WeChat ミニ プログラム フレームワーク</t>
+  </si>
+  <si>
+    <t>Windows,Linux</t>
+  </si>
+  <si>
+    <t>まおやんムービークローラーシステム</t>
+  </si>
+  <si>
+    <t>JavaScript</t>
+  </si>
+  <si>
+    <t>Nodejs編集塔まおやん動画商用版ベースの各種数理クローラーシステム</t>
+  </si>
+  <si>
+    <t>Vue,ElementUI,Express,Sequelize,Node clawer,opentype.js</t>
   </si>
   <si>
     <t>ファンバレーアプリ</t>
@@ -1187,15 +1207,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
+    <numFmt numFmtId="176" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy/m"/>
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="179" formatCode="0&quot;歳&quot;"/>
-    <numFmt numFmtId="180" formatCode="0&quot;人&quot;"/>
-    <numFmt numFmtId="181" formatCode="0&quot;点&quot;"/>
+    <numFmt numFmtId="178" formatCode="yyyy/m"/>
+    <numFmt numFmtId="179" formatCode="0&quot;人&quot;"/>
+    <numFmt numFmtId="180" formatCode="0&quot;点&quot;"/>
+    <numFmt numFmtId="181" formatCode="0&quot;歳&quot;"/>
   </numFmts>
   <fonts count="45">
     <font>
@@ -1293,6 +1313,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -1300,22 +1328,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1329,18 +1372,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color indexed="8"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
     </font>
     <font>
       <i/>
@@ -1352,37 +1393,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1397,24 +1416,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1428,10 +1431,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1444,7 +1464,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1532,13 +1552,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1550,7 +1606,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1562,97 +1636,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1670,7 +1654,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1682,7 +1690,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1694,13 +1720,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3531,20 +3551,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3567,8 +3584,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3588,17 +3605,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3620,6 +3631,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -3631,150 +3651,150 @@
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="150" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="149" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="149" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="150" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="152" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="151" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="150" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="149" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="152" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="146" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="26" borderId="148" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="146" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="151" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="147" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="148" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="147" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="148" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="153" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3846,7 +3866,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="4" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3855,7 +3875,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4152,22 +4172,22 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="79" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="79" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="80" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="80" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="81" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="81" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="69" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="69" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="180" fontId="14" fillId="0" borderId="69" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="14" fillId="0" borderId="69" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="79" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4182,46 +4202,46 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="82" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="73" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="73" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="180" fontId="14" fillId="0" borderId="73" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="14" fillId="0" borderId="73" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="37" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="79" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="79" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="80" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="80" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="81" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="81" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="83" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="54" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="54" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="53" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="53" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="75" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="75" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="76" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="76" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="180" fontId="14" fillId="0" borderId="76" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="14" fillId="0" borderId="76" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="54" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4230,34 +4250,34 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="14" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="14" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="15" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="15" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="68" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="68" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="37" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="37" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="38" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="38" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="82" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="82" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4275,155 +4295,557 @@
     <xf numFmtId="0" fontId="14" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="54" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="92" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="93" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="80" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="94" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="95" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="80" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="38" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="39" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="96" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="66" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="97" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="98" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="66" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="53" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="55" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="53" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="55" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="56" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="53" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="75" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="100" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="100" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="86" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="78" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="102" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="103" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="104" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="81" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="95" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="80" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="81" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="82" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="96" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="82" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="105" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="106" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="96" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="14" fillId="0" borderId="83" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="75" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="107" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="108" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="109" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="110" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="108" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="111" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="14" fillId="0" borderId="54" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="14" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="15" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="112" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="110" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="86" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="78" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="113" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="114" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="115" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="116" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="117" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="118" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="105" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="104" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="121" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="122" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="68" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="119" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="120" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="123" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="121" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="122" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="14" fillId="0" borderId="106" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="14" fillId="0" borderId="75" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="93" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="124" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="125" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="126" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="127" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="128" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="129" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="126" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="126" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="130" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="131" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="133" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="132" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="134" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="132" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="135" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="136" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="137" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="138" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="131" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="139" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="141" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="142" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="126" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="140" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="141" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="142" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="143" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="54" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="92" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="93" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="80" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="94" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="95" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="80" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="38" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="39" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="96" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="66" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="97" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="98" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="66" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="53" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="55" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="14" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="179" fontId="14" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="179" fontId="14" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
@@ -4449,192 +4871,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="53" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="55" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="56" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="53" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="75" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="4" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="100" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="100" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="86" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="78" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="102" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="103" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="104" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="81" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="95" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="80" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="81" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="82" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="96" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="82" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="105" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="106" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="96" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="14" fillId="0" borderId="83" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="75" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="107" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="108" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="109" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="110" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="108" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="111" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="14" fillId="0" borderId="54" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="14" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="15" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="112" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="110" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4650,222 +4886,6 @@
     <xf numFmtId="0" fontId="14" fillId="6" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="86" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="78" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="113" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="114" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="115" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="116" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="117" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="118" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="105" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="104" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="121" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="122" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="68" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="119" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="120" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="123" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="121" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="122" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="14" fillId="0" borderId="106" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="14" fillId="0" borderId="75" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="93" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="124" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="125" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="126" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="127" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="128" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="129" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="126" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="126" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="130" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="131" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="133" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="132" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="134" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="132" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="135" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="136" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="137" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="138" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="131" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="139" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="141" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="142" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="126" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="140" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="141" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="142" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="143" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="14" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="180" fontId="14" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="180" fontId="14" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="144" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -4884,10 +4904,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="14" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="14" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="14" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="14" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4929,10 +4949,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="122" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="14" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="14" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="14" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="14" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5323,10 +5343,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AK106"/>
+  <dimension ref="A1:AK122"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="190" zoomScaleNormal="100" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="U105" sqref="U105:W105"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="190" zoomScaleNormal="100" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75:AG78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.66666666666667" defaultRowHeight="12.75"/>
@@ -5396,33 +5416,33 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
-      <c r="K3" s="173"/>
-      <c r="L3" s="173"/>
-      <c r="M3" s="173"/>
-      <c r="N3" s="173"/>
-      <c r="O3" s="173"/>
-      <c r="P3" s="173"/>
-      <c r="Q3" s="173"/>
-      <c r="R3" s="173"/>
-      <c r="S3" s="173"/>
-      <c r="T3" s="173"/>
-      <c r="U3" s="173"/>
-      <c r="V3" s="173"/>
+      <c r="K3" s="168"/>
+      <c r="L3" s="168"/>
+      <c r="M3" s="168"/>
+      <c r="N3" s="168"/>
+      <c r="O3" s="168"/>
+      <c r="P3" s="168"/>
+      <c r="Q3" s="168"/>
+      <c r="R3" s="168"/>
+      <c r="S3" s="168"/>
+      <c r="T3" s="168"/>
+      <c r="U3" s="168"/>
+      <c r="V3" s="168"/>
       <c r="W3" s="8"/>
       <c r="X3" s="8"/>
       <c r="Y3" s="8"/>
       <c r="Z3" s="8"/>
       <c r="AA3" s="8"/>
       <c r="AB3" s="8"/>
-      <c r="AC3" s="293" t="s">
+      <c r="AC3" s="275" t="s">
         <v>2</v>
       </c>
-      <c r="AD3" s="294">
+      <c r="AD3" s="276">
         <v>44960</v>
       </c>
-      <c r="AE3" s="294"/>
-      <c r="AF3" s="294"/>
-      <c r="AG3" s="294"/>
+      <c r="AE3" s="276"/>
+      <c r="AF3" s="276"/>
+      <c r="AG3" s="276"/>
     </row>
     <row r="4" s="4" customFormat="1" ht="17" customHeight="1" spans="1:33">
       <c r="A4" s="9" t="s">
@@ -5440,38 +5460,38 @@
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
-      <c r="L4" s="174" t="s">
+      <c r="L4" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="175"/>
-      <c r="N4" s="174" t="s">
+      <c r="M4" s="170"/>
+      <c r="N4" s="169" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="175"/>
-      <c r="P4" s="174" t="s">
+      <c r="O4" s="170"/>
+      <c r="P4" s="169" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="226"/>
-      <c r="R4" s="226"/>
-      <c r="S4" s="226"/>
-      <c r="T4" s="226"/>
-      <c r="U4" s="226"/>
-      <c r="V4" s="226"/>
-      <c r="W4" s="175"/>
-      <c r="X4" s="227" t="s">
+      <c r="Q4" s="213"/>
+      <c r="R4" s="213"/>
+      <c r="S4" s="213"/>
+      <c r="T4" s="213"/>
+      <c r="U4" s="213"/>
+      <c r="V4" s="213"/>
+      <c r="W4" s="170"/>
+      <c r="X4" s="214" t="s">
         <v>8</v>
       </c>
-      <c r="Y4" s="295"/>
-      <c r="Z4" s="295"/>
-      <c r="AA4" s="295"/>
-      <c r="AB4" s="296"/>
-      <c r="AC4" s="174" t="s">
+      <c r="Y4" s="277"/>
+      <c r="Z4" s="277"/>
+      <c r="AA4" s="277"/>
+      <c r="AB4" s="278"/>
+      <c r="AC4" s="169" t="s">
         <v>9</v>
       </c>
-      <c r="AD4" s="226"/>
-      <c r="AE4" s="226"/>
-      <c r="AF4" s="226"/>
-      <c r="AG4" s="331"/>
+      <c r="AD4" s="213"/>
+      <c r="AE4" s="213"/>
+      <c r="AF4" s="213"/>
+      <c r="AG4" s="313"/>
     </row>
     <row r="5" s="4" customFormat="1" ht="22.25" customHeight="1" spans="1:33">
       <c r="A5" s="13" t="s">
@@ -5489,38 +5509,38 @@
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
-      <c r="L5" s="176" t="s">
+      <c r="L5" s="171" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="177"/>
-      <c r="N5" s="176" t="s">
+      <c r="M5" s="172"/>
+      <c r="N5" s="171" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="177"/>
-      <c r="P5" s="178">
+      <c r="O5" s="172"/>
+      <c r="P5" s="173">
         <v>32194</v>
       </c>
-      <c r="Q5" s="228"/>
-      <c r="R5" s="228"/>
-      <c r="S5" s="228"/>
-      <c r="T5" s="229"/>
-      <c r="U5" s="230">
+      <c r="Q5" s="215"/>
+      <c r="R5" s="215"/>
+      <c r="S5" s="215"/>
+      <c r="T5" s="216"/>
+      <c r="U5" s="217">
         <v>34</v>
       </c>
-      <c r="V5" s="231"/>
-      <c r="W5" s="232"/>
-      <c r="X5" s="233">
+      <c r="V5" s="218"/>
+      <c r="W5" s="219"/>
+      <c r="X5" s="220">
         <v>45047</v>
       </c>
-      <c r="Y5" s="233"/>
-      <c r="Z5" s="233"/>
-      <c r="AA5" s="233"/>
-      <c r="AB5" s="233"/>
-      <c r="AC5" s="297"/>
-      <c r="AD5" s="298"/>
-      <c r="AE5" s="298"/>
-      <c r="AF5" s="298"/>
-      <c r="AG5" s="332"/>
+      <c r="Y5" s="220"/>
+      <c r="Z5" s="220"/>
+      <c r="AA5" s="220"/>
+      <c r="AB5" s="220"/>
+      <c r="AC5" s="279"/>
+      <c r="AD5" s="280"/>
+      <c r="AE5" s="280"/>
+      <c r="AF5" s="280"/>
+      <c r="AG5" s="314"/>
     </row>
     <row r="6" s="4" customFormat="1" ht="13.5" spans="1:33">
       <c r="A6" s="13" t="s">
@@ -5546,24 +5566,24 @@
       <c r="Q6" s="17"/>
       <c r="R6" s="17"/>
       <c r="S6" s="17"/>
-      <c r="T6" s="234"/>
-      <c r="U6" s="235" t="s">
+      <c r="T6" s="221"/>
+      <c r="U6" s="222" t="s">
         <v>16</v>
       </c>
-      <c r="V6" s="236"/>
-      <c r="W6" s="237"/>
-      <c r="X6" s="238" t="s">
+      <c r="V6" s="223"/>
+      <c r="W6" s="224"/>
+      <c r="X6" s="225" t="s">
         <v>17</v>
       </c>
-      <c r="Y6" s="299"/>
-      <c r="Z6" s="299"/>
-      <c r="AA6" s="299"/>
-      <c r="AB6" s="299"/>
-      <c r="AC6" s="299"/>
-      <c r="AD6" s="299"/>
-      <c r="AE6" s="299"/>
-      <c r="AF6" s="299"/>
-      <c r="AG6" s="333"/>
+      <c r="Y6" s="281"/>
+      <c r="Z6" s="281"/>
+      <c r="AA6" s="281"/>
+      <c r="AB6" s="281"/>
+      <c r="AC6" s="281"/>
+      <c r="AD6" s="281"/>
+      <c r="AE6" s="281"/>
+      <c r="AF6" s="281"/>
+      <c r="AG6" s="315"/>
     </row>
     <row r="7" s="4" customFormat="1" ht="13.5" spans="1:33">
       <c r="A7" s="18" t="s">
@@ -5578,37 +5598,37 @@
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
-      <c r="I7" s="179" t="s">
+      <c r="I7" s="174" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="180"/>
-      <c r="K7" s="180"/>
-      <c r="L7" s="180"/>
-      <c r="M7" s="180"/>
-      <c r="N7" s="180"/>
-      <c r="O7" s="180"/>
-      <c r="P7" s="180"/>
-      <c r="Q7" s="180"/>
-      <c r="R7" s="239"/>
-      <c r="S7" s="179" t="s">
+      <c r="J7" s="175"/>
+      <c r="K7" s="175"/>
+      <c r="L7" s="175"/>
+      <c r="M7" s="175"/>
+      <c r="N7" s="175"/>
+      <c r="O7" s="175"/>
+      <c r="P7" s="175"/>
+      <c r="Q7" s="175"/>
+      <c r="R7" s="226"/>
+      <c r="S7" s="174" t="s">
         <v>21</v>
       </c>
-      <c r="T7" s="180"/>
-      <c r="U7" s="180"/>
-      <c r="V7" s="180"/>
-      <c r="W7" s="180"/>
-      <c r="X7" s="180"/>
-      <c r="Y7" s="180"/>
-      <c r="Z7" s="180"/>
-      <c r="AA7" s="180"/>
-      <c r="AB7" s="239"/>
+      <c r="T7" s="175"/>
+      <c r="U7" s="175"/>
+      <c r="V7" s="175"/>
+      <c r="W7" s="175"/>
+      <c r="X7" s="175"/>
+      <c r="Y7" s="175"/>
+      <c r="Z7" s="175"/>
+      <c r="AA7" s="175"/>
+      <c r="AB7" s="226"/>
       <c r="AC7" s="21" t="s">
         <v>22</v>
       </c>
       <c r="AD7" s="21"/>
       <c r="AE7" s="21"/>
       <c r="AF7" s="21"/>
-      <c r="AG7" s="334"/>
+      <c r="AG7" s="316"/>
     </row>
     <row r="8" s="4" customFormat="1" ht="13.5" spans="1:33">
       <c r="A8" s="22"/>
@@ -5651,7 +5671,7 @@
       <c r="AD8" s="32"/>
       <c r="AE8" s="32"/>
       <c r="AF8" s="32"/>
-      <c r="AG8" s="335"/>
+      <c r="AG8" s="317"/>
     </row>
     <row r="9" s="4" customFormat="1" ht="15" customHeight="1" spans="1:33">
       <c r="A9" s="26" t="s">
@@ -5674,27 +5694,27 @@
       <c r="L9" s="30"/>
       <c r="M9" s="30"/>
       <c r="N9" s="30"/>
-      <c r="O9" s="181"/>
+      <c r="O9" s="176"/>
       <c r="P9" s="27" t="s">
         <v>29</v>
       </c>
       <c r="Q9" s="14"/>
-      <c r="R9" s="240"/>
-      <c r="S9" s="241"/>
-      <c r="T9" s="241"/>
-      <c r="U9" s="241"/>
-      <c r="V9" s="241"/>
-      <c r="W9" s="241"/>
-      <c r="X9" s="241"/>
-      <c r="Y9" s="241"/>
-      <c r="Z9" s="241"/>
-      <c r="AA9" s="241"/>
-      <c r="AB9" s="241"/>
-      <c r="AC9" s="241"/>
-      <c r="AD9" s="241"/>
-      <c r="AE9" s="241"/>
-      <c r="AF9" s="241"/>
-      <c r="AG9" s="336"/>
+      <c r="R9" s="227"/>
+      <c r="S9" s="228"/>
+      <c r="T9" s="228"/>
+      <c r="U9" s="228"/>
+      <c r="V9" s="228"/>
+      <c r="W9" s="228"/>
+      <c r="X9" s="228"/>
+      <c r="Y9" s="228"/>
+      <c r="Z9" s="228"/>
+      <c r="AA9" s="228"/>
+      <c r="AB9" s="228"/>
+      <c r="AC9" s="228"/>
+      <c r="AD9" s="228"/>
+      <c r="AE9" s="228"/>
+      <c r="AF9" s="228"/>
+      <c r="AG9" s="318"/>
     </row>
     <row r="10" s="4" customFormat="1" ht="14.25" customHeight="1" spans="1:33">
       <c r="A10" s="26"/>
@@ -5718,22 +5738,22 @@
       <c r="O10" s="32"/>
       <c r="P10" s="14"/>
       <c r="Q10" s="14"/>
-      <c r="R10" s="242"/>
-      <c r="S10" s="243"/>
-      <c r="T10" s="243"/>
-      <c r="U10" s="243"/>
-      <c r="V10" s="243"/>
-      <c r="W10" s="243"/>
-      <c r="X10" s="243"/>
-      <c r="Y10" s="243"/>
-      <c r="Z10" s="243"/>
-      <c r="AA10" s="243"/>
-      <c r="AB10" s="243"/>
-      <c r="AC10" s="243"/>
-      <c r="AD10" s="243"/>
-      <c r="AE10" s="243"/>
-      <c r="AF10" s="243"/>
-      <c r="AG10" s="337"/>
+      <c r="R10" s="229"/>
+      <c r="S10" s="230"/>
+      <c r="T10" s="230"/>
+      <c r="U10" s="230"/>
+      <c r="V10" s="230"/>
+      <c r="W10" s="230"/>
+      <c r="X10" s="230"/>
+      <c r="Y10" s="230"/>
+      <c r="Z10" s="230"/>
+      <c r="AA10" s="230"/>
+      <c r="AB10" s="230"/>
+      <c r="AC10" s="230"/>
+      <c r="AD10" s="230"/>
+      <c r="AE10" s="230"/>
+      <c r="AF10" s="230"/>
+      <c r="AG10" s="319"/>
     </row>
     <row r="11" s="4" customFormat="1" ht="13.5" spans="1:33">
       <c r="A11" s="33"/>
@@ -5750,31 +5770,31 @@
       <c r="H11" s="37"/>
       <c r="I11" s="37"/>
       <c r="J11" s="37"/>
-      <c r="K11" s="182"/>
-      <c r="L11" s="183" t="s">
+      <c r="K11" s="177"/>
+      <c r="L11" s="178" t="s">
         <v>34</v>
       </c>
-      <c r="M11" s="184"/>
-      <c r="N11" s="184"/>
-      <c r="O11" s="185"/>
-      <c r="P11" s="186"/>
-      <c r="Q11" s="186"/>
-      <c r="R11" s="244"/>
-      <c r="S11" s="192"/>
-      <c r="T11" s="192"/>
-      <c r="U11" s="192"/>
-      <c r="V11" s="192"/>
-      <c r="W11" s="192"/>
-      <c r="X11" s="192"/>
-      <c r="Y11" s="192"/>
-      <c r="Z11" s="192"/>
-      <c r="AA11" s="192"/>
-      <c r="AB11" s="192"/>
-      <c r="AC11" s="192"/>
-      <c r="AD11" s="192"/>
-      <c r="AE11" s="192"/>
-      <c r="AF11" s="192"/>
-      <c r="AG11" s="338"/>
+      <c r="M11" s="179"/>
+      <c r="N11" s="179"/>
+      <c r="O11" s="180"/>
+      <c r="P11" s="181"/>
+      <c r="Q11" s="181"/>
+      <c r="R11" s="231"/>
+      <c r="S11" s="187"/>
+      <c r="T11" s="187"/>
+      <c r="U11" s="187"/>
+      <c r="V11" s="187"/>
+      <c r="W11" s="187"/>
+      <c r="X11" s="187"/>
+      <c r="Y11" s="187"/>
+      <c r="Z11" s="187"/>
+      <c r="AA11" s="187"/>
+      <c r="AB11" s="187"/>
+      <c r="AC11" s="187"/>
+      <c r="AD11" s="187"/>
+      <c r="AE11" s="187"/>
+      <c r="AF11" s="187"/>
+      <c r="AG11" s="320"/>
     </row>
     <row r="12" s="4" customFormat="1" ht="13.5" spans="1:33">
       <c r="A12" s="38"/>
@@ -5798,7 +5818,7 @@
       <c r="S12" s="38"/>
       <c r="T12" s="38"/>
       <c r="U12" s="38"/>
-      <c r="V12" s="245"/>
+      <c r="V12" s="232"/>
       <c r="W12" s="38"/>
       <c r="X12" s="38"/>
       <c r="Y12" s="38"/>
@@ -5846,7 +5866,7 @@
       <c r="AD13" s="40"/>
       <c r="AE13" s="40"/>
       <c r="AF13" s="40"/>
-      <c r="AG13" s="339"/>
+      <c r="AG13" s="321"/>
     </row>
     <row r="14" s="4" customFormat="1" ht="13.5" spans="1:33">
       <c r="A14" s="41" t="s">
@@ -5883,7 +5903,7 @@
       <c r="AD14" s="42"/>
       <c r="AE14" s="42"/>
       <c r="AF14" s="42"/>
-      <c r="AG14" s="340"/>
+      <c r="AG14" s="322"/>
     </row>
     <row r="15" s="4" customFormat="1" ht="13.5" spans="1:33">
       <c r="A15" s="43" t="s">
@@ -5904,7 +5924,7 @@
       </c>
       <c r="I15" s="45"/>
       <c r="J15" s="45"/>
-      <c r="K15" s="187"/>
+      <c r="K15" s="182"/>
       <c r="L15" s="47"/>
       <c r="M15" s="45" t="s">
         <v>41</v>
@@ -5936,7 +5956,7 @@
       <c r="AD15" s="45"/>
       <c r="AE15" s="45"/>
       <c r="AF15" s="46"/>
-      <c r="AG15" s="341"/>
+      <c r="AG15" s="323"/>
     </row>
     <row r="16" s="4" customFormat="1" ht="13.5" spans="1:33">
       <c r="A16" s="48"/>
@@ -5955,29 +5975,29 @@
       <c r="J16" s="50"/>
       <c r="K16" s="68"/>
       <c r="L16" s="52"/>
-      <c r="M16" s="188" t="s">
+      <c r="M16" s="183" t="s">
         <v>46</v>
       </c>
-      <c r="N16" s="189"/>
-      <c r="O16" s="189"/>
-      <c r="P16" s="189"/>
-      <c r="Q16" s="246"/>
+      <c r="N16" s="184"/>
+      <c r="O16" s="184"/>
+      <c r="P16" s="184"/>
+      <c r="Q16" s="233"/>
       <c r="R16" s="51"/>
-      <c r="S16" s="247"/>
-      <c r="T16" s="247"/>
-      <c r="U16" s="247"/>
-      <c r="V16" s="247"/>
-      <c r="W16" s="247"/>
-      <c r="X16" s="247"/>
-      <c r="Y16" s="247"/>
-      <c r="Z16" s="247"/>
-      <c r="AA16" s="247"/>
-      <c r="AB16" s="247"/>
-      <c r="AC16" s="247"/>
-      <c r="AD16" s="247"/>
-      <c r="AE16" s="247"/>
-      <c r="AF16" s="247"/>
-      <c r="AG16" s="342"/>
+      <c r="S16" s="234"/>
+      <c r="T16" s="234"/>
+      <c r="U16" s="234"/>
+      <c r="V16" s="234"/>
+      <c r="W16" s="234"/>
+      <c r="X16" s="234"/>
+      <c r="Y16" s="234"/>
+      <c r="Z16" s="234"/>
+      <c r="AA16" s="234"/>
+      <c r="AB16" s="234"/>
+      <c r="AC16" s="234"/>
+      <c r="AD16" s="234"/>
+      <c r="AE16" s="234"/>
+      <c r="AF16" s="234"/>
+      <c r="AG16" s="324"/>
     </row>
     <row r="17" s="4" customFormat="1" ht="13.5" spans="1:33">
       <c r="A17" s="53" t="s">
@@ -6030,11 +6050,11 @@
       <c r="AB17" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="AC17" s="300"/>
-      <c r="AD17" s="300"/>
-      <c r="AE17" s="300"/>
-      <c r="AF17" s="300"/>
-      <c r="AG17" s="341"/>
+      <c r="AC17" s="282"/>
+      <c r="AD17" s="282"/>
+      <c r="AE17" s="282"/>
+      <c r="AF17" s="282"/>
+      <c r="AG17" s="323"/>
     </row>
     <row r="18" s="4" customFormat="1" spans="1:33">
       <c r="A18" s="55"/>
@@ -6083,7 +6103,7 @@
       <c r="AD18" s="58"/>
       <c r="AE18" s="58"/>
       <c r="AF18" s="58"/>
-      <c r="AG18" s="343" t="s">
+      <c r="AG18" s="325" t="s">
         <v>39</v>
       </c>
     </row>
@@ -6140,7 +6160,7 @@
       <c r="AD19" s="61"/>
       <c r="AE19" s="61"/>
       <c r="AF19" s="57"/>
-      <c r="AG19" s="343"/>
+      <c r="AG19" s="325"/>
     </row>
     <row r="20" s="4" customFormat="1" spans="1:33">
       <c r="A20" s="55"/>
@@ -6193,7 +6213,7 @@
       <c r="AD20" s="58"/>
       <c r="AE20" s="58"/>
       <c r="AF20" s="58"/>
-      <c r="AG20" s="343" t="s">
+      <c r="AG20" s="325" t="s">
         <v>39</v>
       </c>
     </row>
@@ -6228,19 +6248,19 @@
       <c r="T21" s="61"/>
       <c r="U21" s="57"/>
       <c r="V21" s="60"/>
-      <c r="W21" s="188" t="s">
+      <c r="W21" s="183" t="s">
         <v>46</v>
       </c>
-      <c r="X21" s="189"/>
-      <c r="Y21" s="189"/>
-      <c r="Z21" s="189"/>
-      <c r="AA21" s="246"/>
+      <c r="X21" s="184"/>
+      <c r="Y21" s="184"/>
+      <c r="Z21" s="184"/>
+      <c r="AA21" s="233"/>
       <c r="AB21" s="51"/>
-      <c r="AC21" s="247"/>
-      <c r="AD21" s="247"/>
-      <c r="AE21" s="247"/>
-      <c r="AF21" s="247"/>
-      <c r="AG21" s="342"/>
+      <c r="AC21" s="234"/>
+      <c r="AD21" s="234"/>
+      <c r="AE21" s="234"/>
+      <c r="AF21" s="234"/>
+      <c r="AG21" s="324"/>
     </row>
     <row r="22" s="4" customFormat="1" ht="13.5" spans="1:33">
       <c r="A22" s="64" t="s">
@@ -6272,19 +6292,19 @@
       <c r="O22" s="45"/>
       <c r="P22" s="46"/>
       <c r="Q22" s="60"/>
-      <c r="R22" s="187" t="s">
+      <c r="R22" s="182" t="s">
         <v>81</v>
       </c>
-      <c r="S22" s="248"/>
-      <c r="T22" s="248"/>
-      <c r="U22" s="248"/>
+      <c r="S22" s="235"/>
+      <c r="T22" s="235"/>
+      <c r="U22" s="235"/>
       <c r="V22" s="47"/>
-      <c r="W22" s="187" t="s">
+      <c r="W22" s="182" t="s">
         <v>82</v>
       </c>
-      <c r="X22" s="248"/>
-      <c r="Y22" s="248"/>
-      <c r="Z22" s="248"/>
+      <c r="X22" s="235"/>
+      <c r="Y22" s="235"/>
+      <c r="Z22" s="235"/>
       <c r="AA22" s="60"/>
       <c r="AB22" s="45" t="s">
         <v>83</v>
@@ -6293,7 +6313,7 @@
       <c r="AD22" s="45"/>
       <c r="AE22" s="45"/>
       <c r="AF22" s="46"/>
-      <c r="AG22" s="341" t="s">
+      <c r="AG22" s="323" t="s">
         <v>39</v>
       </c>
     </row>
@@ -6325,24 +6345,24 @@
       <c r="O23" s="50"/>
       <c r="P23" s="68"/>
       <c r="Q23" s="52"/>
-      <c r="R23" s="188" t="s">
+      <c r="R23" s="183" t="s">
         <v>46</v>
       </c>
-      <c r="S23" s="189"/>
-      <c r="T23" s="189"/>
-      <c r="U23" s="189"/>
-      <c r="V23" s="246"/>
-      <c r="W23" s="249"/>
-      <c r="X23" s="250"/>
-      <c r="Y23" s="250"/>
-      <c r="Z23" s="250"/>
-      <c r="AA23" s="250"/>
-      <c r="AB23" s="250"/>
-      <c r="AC23" s="250"/>
-      <c r="AD23" s="250"/>
-      <c r="AE23" s="250"/>
-      <c r="AF23" s="250"/>
-      <c r="AG23" s="344"/>
+      <c r="S23" s="184"/>
+      <c r="T23" s="184"/>
+      <c r="U23" s="184"/>
+      <c r="V23" s="233"/>
+      <c r="W23" s="236"/>
+      <c r="X23" s="237"/>
+      <c r="Y23" s="237"/>
+      <c r="Z23" s="237"/>
+      <c r="AA23" s="237"/>
+      <c r="AB23" s="237"/>
+      <c r="AC23" s="237"/>
+      <c r="AD23" s="237"/>
+      <c r="AE23" s="237"/>
+      <c r="AF23" s="237"/>
+      <c r="AG23" s="326"/>
     </row>
     <row r="24" s="4" customFormat="1" ht="13.5" spans="1:33">
       <c r="A24" s="69" t="s">
@@ -6374,30 +6394,30 @@
       <c r="Q24" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="R24" s="187" t="s">
+      <c r="R24" s="182" t="s">
         <v>91</v>
       </c>
-      <c r="S24" s="248"/>
-      <c r="T24" s="248"/>
-      <c r="U24" s="248"/>
+      <c r="S24" s="235"/>
+      <c r="T24" s="235"/>
+      <c r="U24" s="235"/>
       <c r="V24" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="W24" s="187" t="s">
+      <c r="W24" s="182" t="s">
         <v>92</v>
       </c>
-      <c r="X24" s="248"/>
-      <c r="Y24" s="248"/>
-      <c r="Z24" s="248"/>
+      <c r="X24" s="235"/>
+      <c r="Y24" s="235"/>
+      <c r="Z24" s="235"/>
       <c r="AA24" s="47"/>
-      <c r="AB24" s="301" t="s">
+      <c r="AB24" s="283" t="s">
         <v>93</v>
       </c>
-      <c r="AC24" s="302"/>
-      <c r="AD24" s="302"/>
-      <c r="AE24" s="302"/>
-      <c r="AF24" s="303"/>
-      <c r="AG24" s="301" t="s">
+      <c r="AC24" s="284"/>
+      <c r="AD24" s="284"/>
+      <c r="AE24" s="284"/>
+      <c r="AF24" s="285"/>
+      <c r="AG24" s="283" t="s">
         <v>50</v>
       </c>
     </row>
@@ -6416,47 +6436,47 @@
       <c r="H25" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="I25" s="190"/>
-      <c r="J25" s="190"/>
-      <c r="K25" s="190"/>
+      <c r="I25" s="185"/>
+      <c r="J25" s="185"/>
+      <c r="K25" s="185"/>
       <c r="L25" s="52" t="s">
         <v>39</v>
       </c>
       <c r="M25" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="N25" s="190"/>
-      <c r="O25" s="190"/>
-      <c r="P25" s="190"/>
+      <c r="N25" s="185"/>
+      <c r="O25" s="185"/>
+      <c r="P25" s="185"/>
       <c r="Q25" s="52" t="s">
         <v>39</v>
       </c>
       <c r="R25" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="S25" s="190"/>
-      <c r="T25" s="190"/>
-      <c r="U25" s="190"/>
+      <c r="S25" s="185"/>
+      <c r="T25" s="185"/>
+      <c r="U25" s="185"/>
       <c r="V25" s="52" t="s">
         <v>39</v>
       </c>
       <c r="W25" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="X25" s="190"/>
-      <c r="Y25" s="190"/>
-      <c r="Z25" s="190"/>
-      <c r="AA25" s="304" t="s">
+      <c r="X25" s="185"/>
+      <c r="Y25" s="185"/>
+      <c r="Z25" s="185"/>
+      <c r="AA25" s="286" t="s">
         <v>39</v>
       </c>
-      <c r="AB25" s="305" t="s">
+      <c r="AB25" s="287" t="s">
         <v>99</v>
       </c>
-      <c r="AC25" s="305"/>
-      <c r="AD25" s="305"/>
-      <c r="AE25" s="305"/>
-      <c r="AF25" s="306"/>
-      <c r="AG25" s="345" t="s">
+      <c r="AC25" s="287"/>
+      <c r="AD25" s="287"/>
+      <c r="AE25" s="287"/>
+      <c r="AF25" s="288"/>
+      <c r="AG25" s="327" t="s">
         <v>39</v>
       </c>
     </row>
@@ -6493,19 +6513,19 @@
       <c r="T26" s="78"/>
       <c r="U26" s="79"/>
       <c r="V26" s="80"/>
-      <c r="W26" s="251" t="s">
+      <c r="W26" s="238" t="s">
         <v>46</v>
       </c>
-      <c r="X26" s="252"/>
-      <c r="Y26" s="252"/>
-      <c r="Z26" s="252"/>
-      <c r="AA26" s="307"/>
+      <c r="X26" s="239"/>
+      <c r="Y26" s="239"/>
+      <c r="Z26" s="239"/>
+      <c r="AA26" s="289"/>
       <c r="AB26" s="79"/>
-      <c r="AC26" s="308"/>
-      <c r="AD26" s="308"/>
-      <c r="AE26" s="308"/>
-      <c r="AF26" s="308"/>
-      <c r="AG26" s="346"/>
+      <c r="AC26" s="290"/>
+      <c r="AD26" s="290"/>
+      <c r="AE26" s="290"/>
+      <c r="AF26" s="290"/>
+      <c r="AG26" s="328"/>
     </row>
     <row r="27" s="4" customFormat="1" ht="13.5" spans="1:33">
       <c r="A27" s="81" t="s">
@@ -6522,31 +6542,31 @@
       <c r="H27" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="I27" s="191"/>
-      <c r="J27" s="191"/>
-      <c r="K27" s="191"/>
-      <c r="L27" s="191"/>
-      <c r="M27" s="191"/>
-      <c r="N27" s="191"/>
-      <c r="O27" s="191"/>
-      <c r="P27" s="191"/>
-      <c r="Q27" s="191"/>
-      <c r="R27" s="191"/>
-      <c r="S27" s="191"/>
-      <c r="T27" s="191"/>
-      <c r="U27" s="191"/>
-      <c r="V27" s="191"/>
-      <c r="W27" s="191"/>
-      <c r="X27" s="191"/>
-      <c r="Y27" s="191"/>
-      <c r="Z27" s="191"/>
-      <c r="AA27" s="191"/>
-      <c r="AB27" s="191"/>
-      <c r="AC27" s="191"/>
-      <c r="AD27" s="191"/>
-      <c r="AE27" s="191"/>
-      <c r="AF27" s="191"/>
-      <c r="AG27" s="347"/>
+      <c r="I27" s="186"/>
+      <c r="J27" s="186"/>
+      <c r="K27" s="186"/>
+      <c r="L27" s="186"/>
+      <c r="M27" s="186"/>
+      <c r="N27" s="186"/>
+      <c r="O27" s="186"/>
+      <c r="P27" s="186"/>
+      <c r="Q27" s="186"/>
+      <c r="R27" s="186"/>
+      <c r="S27" s="186"/>
+      <c r="T27" s="186"/>
+      <c r="U27" s="186"/>
+      <c r="V27" s="186"/>
+      <c r="W27" s="186"/>
+      <c r="X27" s="186"/>
+      <c r="Y27" s="186"/>
+      <c r="Z27" s="186"/>
+      <c r="AA27" s="186"/>
+      <c r="AB27" s="186"/>
+      <c r="AC27" s="186"/>
+      <c r="AD27" s="186"/>
+      <c r="AE27" s="186"/>
+      <c r="AF27" s="186"/>
+      <c r="AG27" s="329"/>
     </row>
     <row r="28" s="4" customFormat="1" ht="13.5" spans="1:33">
       <c r="A28" s="87"/>
@@ -6559,31 +6579,31 @@
       <c r="F28" s="90"/>
       <c r="G28" s="91"/>
       <c r="H28" s="92"/>
-      <c r="I28" s="192"/>
-      <c r="J28" s="192"/>
-      <c r="K28" s="192"/>
-      <c r="L28" s="192"/>
-      <c r="M28" s="192"/>
-      <c r="N28" s="192"/>
-      <c r="O28" s="192"/>
-      <c r="P28" s="192"/>
-      <c r="Q28" s="192"/>
-      <c r="R28" s="192"/>
-      <c r="S28" s="192"/>
-      <c r="T28" s="192"/>
-      <c r="U28" s="192"/>
-      <c r="V28" s="192"/>
-      <c r="W28" s="192"/>
-      <c r="X28" s="192"/>
-      <c r="Y28" s="192"/>
-      <c r="Z28" s="192"/>
-      <c r="AA28" s="192"/>
-      <c r="AB28" s="192"/>
-      <c r="AC28" s="192"/>
-      <c r="AD28" s="192"/>
-      <c r="AE28" s="192"/>
-      <c r="AF28" s="192"/>
-      <c r="AG28" s="338"/>
+      <c r="I28" s="187"/>
+      <c r="J28" s="187"/>
+      <c r="K28" s="187"/>
+      <c r="L28" s="187"/>
+      <c r="M28" s="187"/>
+      <c r="N28" s="187"/>
+      <c r="O28" s="187"/>
+      <c r="P28" s="187"/>
+      <c r="Q28" s="187"/>
+      <c r="R28" s="187"/>
+      <c r="S28" s="187"/>
+      <c r="T28" s="187"/>
+      <c r="U28" s="187"/>
+      <c r="V28" s="187"/>
+      <c r="W28" s="187"/>
+      <c r="X28" s="187"/>
+      <c r="Y28" s="187"/>
+      <c r="Z28" s="187"/>
+      <c r="AA28" s="187"/>
+      <c r="AB28" s="187"/>
+      <c r="AC28" s="187"/>
+      <c r="AD28" s="187"/>
+      <c r="AE28" s="187"/>
+      <c r="AF28" s="187"/>
+      <c r="AG28" s="320"/>
     </row>
     <row r="29" s="4" customFormat="1" ht="54" customHeight="1" spans="1:33">
       <c r="A29" s="93" t="s">
@@ -6598,31 +6618,31 @@
       <c r="H29" s="96" t="s">
         <v>109</v>
       </c>
-      <c r="I29" s="193"/>
-      <c r="J29" s="193"/>
-      <c r="K29" s="193"/>
-      <c r="L29" s="193"/>
-      <c r="M29" s="193"/>
-      <c r="N29" s="193"/>
-      <c r="O29" s="193"/>
-      <c r="P29" s="193"/>
-      <c r="Q29" s="193"/>
-      <c r="R29" s="193"/>
-      <c r="S29" s="193"/>
-      <c r="T29" s="193"/>
-      <c r="U29" s="193"/>
-      <c r="V29" s="193"/>
-      <c r="W29" s="193"/>
-      <c r="X29" s="193"/>
-      <c r="Y29" s="193"/>
-      <c r="Z29" s="193"/>
-      <c r="AA29" s="193"/>
-      <c r="AB29" s="193"/>
-      <c r="AC29" s="193"/>
-      <c r="AD29" s="193"/>
-      <c r="AE29" s="193"/>
-      <c r="AF29" s="193"/>
-      <c r="AG29" s="348"/>
+      <c r="I29" s="188"/>
+      <c r="J29" s="188"/>
+      <c r="K29" s="188"/>
+      <c r="L29" s="188"/>
+      <c r="M29" s="188"/>
+      <c r="N29" s="188"/>
+      <c r="O29" s="188"/>
+      <c r="P29" s="188"/>
+      <c r="Q29" s="188"/>
+      <c r="R29" s="188"/>
+      <c r="S29" s="188"/>
+      <c r="T29" s="188"/>
+      <c r="U29" s="188"/>
+      <c r="V29" s="188"/>
+      <c r="W29" s="188"/>
+      <c r="X29" s="188"/>
+      <c r="Y29" s="188"/>
+      <c r="Z29" s="188"/>
+      <c r="AA29" s="188"/>
+      <c r="AB29" s="188"/>
+      <c r="AC29" s="188"/>
+      <c r="AD29" s="188"/>
+      <c r="AE29" s="188"/>
+      <c r="AF29" s="188"/>
+      <c r="AG29" s="330"/>
     </row>
     <row r="30" s="4" customFormat="1" ht="13.5"/>
     <row r="31" s="4" customFormat="1" spans="1:33">
@@ -6660,7 +6680,7 @@
       <c r="AD31" s="98"/>
       <c r="AE31" s="98"/>
       <c r="AF31" s="98"/>
-      <c r="AG31" s="349"/>
+      <c r="AG31" s="331"/>
     </row>
     <row r="32" s="4" customFormat="1" spans="1:33">
       <c r="A32" s="99" t="s">
@@ -6697,7 +6717,7 @@
       <c r="AD32" s="100"/>
       <c r="AE32" s="100"/>
       <c r="AF32" s="100"/>
-      <c r="AG32" s="350"/>
+      <c r="AG32" s="332"/>
     </row>
     <row r="33" s="5" customFormat="1" ht="14.55" customHeight="1" spans="1:33">
       <c r="A33" s="101" t="s">
@@ -6737,32 +6757,32 @@
       <c r="U33" s="103"/>
       <c r="V33" s="103"/>
       <c r="W33" s="104"/>
-      <c r="X33" s="253" t="s">
+      <c r="X33" s="240" t="s">
         <v>119</v>
       </c>
-      <c r="Y33" s="309"/>
-      <c r="Z33" s="310" t="s">
+      <c r="Y33" s="291"/>
+      <c r="Z33" s="292" t="s">
         <v>120</v>
       </c>
-      <c r="AA33" s="311" t="s">
+      <c r="AA33" s="293" t="s">
         <v>121</v>
       </c>
-      <c r="AB33" s="311" t="s">
+      <c r="AB33" s="293" t="s">
         <v>122</v>
       </c>
-      <c r="AC33" s="311" t="s">
+      <c r="AC33" s="293" t="s">
         <v>123</v>
       </c>
-      <c r="AD33" s="312" t="s">
+      <c r="AD33" s="294" t="s">
         <v>124</v>
       </c>
-      <c r="AE33" s="311" t="s">
+      <c r="AE33" s="293" t="s">
         <v>125</v>
       </c>
-      <c r="AF33" s="311" t="s">
+      <c r="AF33" s="293" t="s">
         <v>126</v>
       </c>
-      <c r="AG33" s="351" t="s">
+      <c r="AG33" s="333" t="s">
         <v>127</v>
       </c>
     </row>
@@ -6790,18 +6810,18 @@
       <c r="U34" s="110"/>
       <c r="V34" s="110"/>
       <c r="W34" s="111"/>
-      <c r="X34" s="254" t="s">
+      <c r="X34" s="241" t="s">
         <v>128</v>
       </c>
-      <c r="Y34" s="313"/>
-      <c r="Z34" s="314"/>
-      <c r="AA34" s="315"/>
-      <c r="AB34" s="315"/>
-      <c r="AC34" s="315"/>
-      <c r="AD34" s="315"/>
-      <c r="AE34" s="315"/>
-      <c r="AF34" s="315"/>
-      <c r="AG34" s="352"/>
+      <c r="Y34" s="295"/>
+      <c r="Z34" s="296"/>
+      <c r="AA34" s="297"/>
+      <c r="AB34" s="297"/>
+      <c r="AC34" s="297"/>
+      <c r="AD34" s="297"/>
+      <c r="AE34" s="297"/>
+      <c r="AF34" s="297"/>
+      <c r="AG34" s="334"/>
     </row>
     <row r="35" s="5" customFormat="1" ht="14.55" customHeight="1" spans="1:33">
       <c r="A35" s="108"/>
@@ -6827,16 +6847,16 @@
       <c r="U35" s="110"/>
       <c r="V35" s="110"/>
       <c r="W35" s="111"/>
-      <c r="X35" s="255"/>
-      <c r="Y35" s="316"/>
-      <c r="Z35" s="314"/>
-      <c r="AA35" s="315"/>
-      <c r="AB35" s="315"/>
-      <c r="AC35" s="315"/>
-      <c r="AD35" s="315"/>
-      <c r="AE35" s="315"/>
-      <c r="AF35" s="315"/>
-      <c r="AG35" s="352"/>
+      <c r="X35" s="242"/>
+      <c r="Y35" s="298"/>
+      <c r="Z35" s="296"/>
+      <c r="AA35" s="297"/>
+      <c r="AB35" s="297"/>
+      <c r="AC35" s="297"/>
+      <c r="AD35" s="297"/>
+      <c r="AE35" s="297"/>
+      <c r="AF35" s="297"/>
+      <c r="AG35" s="334"/>
     </row>
     <row r="36" s="5" customFormat="1" ht="14.55" customHeight="1" spans="1:33">
       <c r="A36" s="108"/>
@@ -6862,16 +6882,16 @@
       <c r="U36" s="110"/>
       <c r="V36" s="110"/>
       <c r="W36" s="111"/>
-      <c r="X36" s="255"/>
-      <c r="Y36" s="316"/>
-      <c r="Z36" s="314"/>
-      <c r="AA36" s="315"/>
-      <c r="AB36" s="315"/>
-      <c r="AC36" s="315"/>
-      <c r="AD36" s="315"/>
-      <c r="AE36" s="315"/>
-      <c r="AF36" s="315"/>
-      <c r="AG36" s="352"/>
+      <c r="X36" s="242"/>
+      <c r="Y36" s="298"/>
+      <c r="Z36" s="296"/>
+      <c r="AA36" s="297"/>
+      <c r="AB36" s="297"/>
+      <c r="AC36" s="297"/>
+      <c r="AD36" s="297"/>
+      <c r="AE36" s="297"/>
+      <c r="AF36" s="297"/>
+      <c r="AG36" s="334"/>
     </row>
     <row r="37" s="5" customFormat="1" ht="14.55" customHeight="1" spans="1:33">
       <c r="A37" s="115"/>
@@ -6897,16 +6917,16 @@
       <c r="U37" s="117"/>
       <c r="V37" s="117"/>
       <c r="W37" s="118"/>
-      <c r="X37" s="256"/>
-      <c r="Y37" s="317"/>
-      <c r="Z37" s="318"/>
-      <c r="AA37" s="319"/>
-      <c r="AB37" s="319"/>
-      <c r="AC37" s="319"/>
-      <c r="AD37" s="319"/>
-      <c r="AE37" s="319"/>
-      <c r="AF37" s="319"/>
-      <c r="AG37" s="353"/>
+      <c r="X37" s="243"/>
+      <c r="Y37" s="299"/>
+      <c r="Z37" s="300"/>
+      <c r="AA37" s="301"/>
+      <c r="AB37" s="301"/>
+      <c r="AC37" s="301"/>
+      <c r="AD37" s="301"/>
+      <c r="AE37" s="301"/>
+      <c r="AF37" s="301"/>
+      <c r="AG37" s="335"/>
     </row>
     <row r="38" s="5" customFormat="1" ht="12" spans="1:33">
       <c r="A38" s="122"/>
@@ -6932,8 +6952,8 @@
       <c r="U38" s="123"/>
       <c r="V38" s="123"/>
       <c r="W38" s="123"/>
-      <c r="X38" s="257"/>
-      <c r="Y38" s="257"/>
+      <c r="X38" s="244"/>
+      <c r="Y38" s="244"/>
       <c r="Z38" s="123"/>
       <c r="AA38" s="123"/>
       <c r="AB38" s="123"/>
@@ -6941,7 +6961,7 @@
       <c r="AD38" s="123"/>
       <c r="AE38" s="123"/>
       <c r="AF38" s="123"/>
-      <c r="AG38" s="354"/>
+      <c r="AG38" s="336"/>
     </row>
     <row r="39" s="6" customFormat="1" ht="12" spans="1:33">
       <c r="A39" s="126">
@@ -6965,47 +6985,47 @@
       <c r="H39" s="133" t="s">
         <v>130</v>
       </c>
-      <c r="I39" s="194"/>
-      <c r="J39" s="195"/>
-      <c r="K39" s="196" t="s">
+      <c r="I39" s="189"/>
+      <c r="J39" s="190"/>
+      <c r="K39" s="191" t="s">
         <v>131</v>
       </c>
-      <c r="L39" s="197"/>
-      <c r="M39" s="197"/>
-      <c r="N39" s="197"/>
-      <c r="O39" s="197"/>
-      <c r="P39" s="197"/>
-      <c r="Q39" s="258"/>
+      <c r="L39" s="192"/>
+      <c r="M39" s="192"/>
+      <c r="N39" s="192"/>
+      <c r="O39" s="192"/>
+      <c r="P39" s="192"/>
+      <c r="Q39" s="245"/>
       <c r="R39" s="133" t="s">
         <v>132</v>
       </c>
-      <c r="S39" s="194"/>
-      <c r="T39" s="195"/>
-      <c r="U39" s="259" t="s">
+      <c r="S39" s="189"/>
+      <c r="T39" s="190"/>
+      <c r="U39" s="246" t="s">
         <v>38</v>
       </c>
-      <c r="V39" s="260"/>
-      <c r="W39" s="261"/>
-      <c r="X39" s="262" t="s">
+      <c r="V39" s="247"/>
+      <c r="W39" s="248"/>
+      <c r="X39" s="249" t="s">
         <v>133</v>
       </c>
-      <c r="Y39" s="320"/>
-      <c r="Z39" s="321"/>
-      <c r="AA39" s="322"/>
-      <c r="AB39" s="322" t="s">
+      <c r="Y39" s="302"/>
+      <c r="Z39" s="303"/>
+      <c r="AA39" s="304"/>
+      <c r="AB39" s="304" t="s">
         <v>39</v>
       </c>
-      <c r="AC39" s="322" t="s">
+      <c r="AC39" s="304" t="s">
         <v>39</v>
       </c>
-      <c r="AD39" s="322" t="s">
+      <c r="AD39" s="304" t="s">
         <v>39</v>
       </c>
-      <c r="AE39" s="322" t="s">
+      <c r="AE39" s="304" t="s">
         <v>39</v>
       </c>
-      <c r="AF39" s="322"/>
-      <c r="AG39" s="355"/>
+      <c r="AF39" s="304"/>
+      <c r="AG39" s="337"/>
     </row>
     <row r="40" s="6" customFormat="1" ht="26" customHeight="1" spans="1:33">
       <c r="A40" s="126"/>
@@ -7020,37 +7040,37 @@
       <c r="H40" s="140" t="s">
         <v>135</v>
       </c>
-      <c r="I40" s="198"/>
-      <c r="J40" s="199"/>
-      <c r="K40" s="200" t="s">
+      <c r="I40" s="193"/>
+      <c r="J40" s="194"/>
+      <c r="K40" s="195" t="s">
         <v>136</v>
       </c>
-      <c r="L40" s="201"/>
-      <c r="M40" s="201"/>
-      <c r="N40" s="201"/>
-      <c r="O40" s="201"/>
-      <c r="P40" s="201"/>
-      <c r="Q40" s="263"/>
+      <c r="L40" s="196"/>
+      <c r="M40" s="196"/>
+      <c r="N40" s="196"/>
+      <c r="O40" s="196"/>
+      <c r="P40" s="196"/>
+      <c r="Q40" s="250"/>
       <c r="R40" s="140" t="s">
         <v>137</v>
       </c>
-      <c r="S40" s="198"/>
-      <c r="T40" s="199"/>
-      <c r="U40" s="264" t="s">
+      <c r="S40" s="193"/>
+      <c r="T40" s="194"/>
+      <c r="U40" s="251" t="s">
         <v>138</v>
       </c>
-      <c r="V40" s="265"/>
-      <c r="W40" s="266"/>
-      <c r="X40" s="267"/>
-      <c r="Y40" s="323"/>
-      <c r="Z40" s="324"/>
-      <c r="AA40" s="325"/>
-      <c r="AB40" s="325"/>
-      <c r="AC40" s="325"/>
-      <c r="AD40" s="325"/>
-      <c r="AE40" s="325"/>
-      <c r="AF40" s="325"/>
-      <c r="AG40" s="356"/>
+      <c r="V40" s="252"/>
+      <c r="W40" s="253"/>
+      <c r="X40" s="254"/>
+      <c r="Y40" s="305"/>
+      <c r="Z40" s="306"/>
+      <c r="AA40" s="307"/>
+      <c r="AB40" s="307"/>
+      <c r="AC40" s="307"/>
+      <c r="AD40" s="307"/>
+      <c r="AE40" s="307"/>
+      <c r="AF40" s="307"/>
+      <c r="AG40" s="338"/>
     </row>
     <row r="41" s="6" customFormat="1" ht="13.5" customHeight="1" spans="1:33">
       <c r="A41" s="126"/>
@@ -7065,37 +7085,37 @@
       <c r="H41" s="144" t="s">
         <v>139</v>
       </c>
-      <c r="I41" s="202"/>
-      <c r="J41" s="203"/>
-      <c r="K41" s="204" t="s">
+      <c r="I41" s="197"/>
+      <c r="J41" s="198"/>
+      <c r="K41" s="199" t="s">
         <v>140</v>
       </c>
-      <c r="L41" s="205"/>
-      <c r="M41" s="205"/>
-      <c r="N41" s="205"/>
-      <c r="O41" s="205"/>
-      <c r="P41" s="205"/>
-      <c r="Q41" s="268"/>
+      <c r="L41" s="200"/>
+      <c r="M41" s="200"/>
+      <c r="N41" s="200"/>
+      <c r="O41" s="200"/>
+      <c r="P41" s="200"/>
+      <c r="Q41" s="255"/>
       <c r="R41" s="140" t="s">
         <v>141</v>
       </c>
-      <c r="S41" s="198"/>
-      <c r="T41" s="199"/>
-      <c r="U41" s="269" t="s">
+      <c r="S41" s="193"/>
+      <c r="T41" s="194"/>
+      <c r="U41" s="256" t="s">
         <v>83</v>
       </c>
-      <c r="V41" s="265"/>
-      <c r="W41" s="266"/>
-      <c r="X41" s="270"/>
-      <c r="Y41" s="326"/>
-      <c r="Z41" s="324"/>
-      <c r="AA41" s="325"/>
-      <c r="AB41" s="325"/>
-      <c r="AC41" s="325"/>
-      <c r="AD41" s="325"/>
-      <c r="AE41" s="325"/>
-      <c r="AF41" s="325"/>
-      <c r="AG41" s="356"/>
+      <c r="V41" s="252"/>
+      <c r="W41" s="253"/>
+      <c r="X41" s="257"/>
+      <c r="Y41" s="308"/>
+      <c r="Z41" s="306"/>
+      <c r="AA41" s="307"/>
+      <c r="AB41" s="307"/>
+      <c r="AC41" s="307"/>
+      <c r="AD41" s="307"/>
+      <c r="AE41" s="307"/>
+      <c r="AF41" s="307"/>
+      <c r="AG41" s="338"/>
     </row>
     <row r="42" s="6" customFormat="1" ht="47" customHeight="1" spans="1:33">
       <c r="A42" s="126"/>
@@ -7106,39 +7126,39 @@
       <c r="F42" s="149"/>
       <c r="G42" s="150"/>
       <c r="H42" s="151"/>
-      <c r="I42" s="206"/>
-      <c r="J42" s="207"/>
-      <c r="K42" s="208"/>
-      <c r="L42" s="209"/>
-      <c r="M42" s="209"/>
-      <c r="N42" s="209"/>
-      <c r="O42" s="209"/>
-      <c r="P42" s="209"/>
-      <c r="Q42" s="271"/>
-      <c r="R42" s="272" t="s">
+      <c r="I42" s="201"/>
+      <c r="J42" s="202"/>
+      <c r="K42" s="203"/>
+      <c r="L42" s="204"/>
+      <c r="M42" s="204"/>
+      <c r="N42" s="204"/>
+      <c r="O42" s="204"/>
+      <c r="P42" s="204"/>
+      <c r="Q42" s="258"/>
+      <c r="R42" s="259" t="s">
         <v>142</v>
       </c>
-      <c r="S42" s="273"/>
-      <c r="T42" s="274"/>
-      <c r="U42" s="275" t="s">
+      <c r="S42" s="260"/>
+      <c r="T42" s="261"/>
+      <c r="U42" s="262" t="s">
         <v>143</v>
       </c>
-      <c r="V42" s="276"/>
-      <c r="W42" s="277"/>
-      <c r="X42" s="278"/>
-      <c r="Y42" s="327"/>
-      <c r="Z42" s="328"/>
-      <c r="AA42" s="329"/>
-      <c r="AB42" s="329"/>
-      <c r="AC42" s="329"/>
-      <c r="AD42" s="329"/>
-      <c r="AE42" s="329"/>
-      <c r="AF42" s="329"/>
-      <c r="AG42" s="357"/>
+      <c r="V42" s="263"/>
+      <c r="W42" s="264"/>
+      <c r="X42" s="265"/>
+      <c r="Y42" s="309"/>
+      <c r="Z42" s="310"/>
+      <c r="AA42" s="311"/>
+      <c r="AB42" s="311"/>
+      <c r="AC42" s="311"/>
+      <c r="AD42" s="311"/>
+      <c r="AE42" s="311"/>
+      <c r="AF42" s="311"/>
+      <c r="AG42" s="339"/>
     </row>
     <row r="43" s="6" customFormat="1" ht="12" spans="1:33">
       <c r="A43" s="152">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B43" s="153">
         <v>44470</v>
@@ -7158,43 +7178,43 @@
       <c r="H43" s="133" t="s">
         <v>130</v>
       </c>
-      <c r="I43" s="194"/>
-      <c r="J43" s="195"/>
-      <c r="K43" s="196" t="s">
+      <c r="I43" s="189"/>
+      <c r="J43" s="190"/>
+      <c r="K43" s="191" t="s">
         <v>131</v>
       </c>
-      <c r="L43" s="197"/>
-      <c r="M43" s="197"/>
-      <c r="N43" s="197"/>
-      <c r="O43" s="197"/>
-      <c r="P43" s="197"/>
-      <c r="Q43" s="258"/>
-      <c r="R43" s="279" t="s">
+      <c r="L43" s="192"/>
+      <c r="M43" s="192"/>
+      <c r="N43" s="192"/>
+      <c r="O43" s="192"/>
+      <c r="P43" s="192"/>
+      <c r="Q43" s="245"/>
+      <c r="R43" s="266" t="s">
         <v>132</v>
       </c>
-      <c r="S43" s="280"/>
-      <c r="T43" s="281"/>
-      <c r="U43" s="259" t="s">
+      <c r="S43" s="267"/>
+      <c r="T43" s="268"/>
+      <c r="U43" s="246" t="s">
         <v>38</v>
       </c>
-      <c r="V43" s="260"/>
-      <c r="W43" s="261"/>
-      <c r="X43" s="262" t="s">
+      <c r="V43" s="247"/>
+      <c r="W43" s="248"/>
+      <c r="X43" s="249" t="s">
         <v>144</v>
       </c>
-      <c r="Y43" s="320"/>
-      <c r="Z43" s="321"/>
-      <c r="AA43" s="330"/>
-      <c r="AB43" s="330"/>
-      <c r="AC43" s="330" t="s">
+      <c r="Y43" s="302"/>
+      <c r="Z43" s="303"/>
+      <c r="AA43" s="312"/>
+      <c r="AB43" s="312"/>
+      <c r="AC43" s="312" t="s">
         <v>39</v>
       </c>
-      <c r="AD43" s="330" t="s">
+      <c r="AD43" s="312" t="s">
         <v>39</v>
       </c>
-      <c r="AE43" s="330"/>
-      <c r="AF43" s="330"/>
-      <c r="AG43" s="355"/>
+      <c r="AE43" s="312"/>
+      <c r="AF43" s="312"/>
+      <c r="AG43" s="337"/>
     </row>
     <row r="44" s="6" customFormat="1" ht="22.05" customHeight="1" spans="1:33">
       <c r="A44" s="126"/>
@@ -7209,37 +7229,37 @@
       <c r="H44" s="140" t="s">
         <v>135</v>
       </c>
-      <c r="I44" s="198"/>
-      <c r="J44" s="199"/>
-      <c r="K44" s="200" t="s">
+      <c r="I44" s="193"/>
+      <c r="J44" s="194"/>
+      <c r="K44" s="195" t="s">
         <v>145</v>
       </c>
-      <c r="L44" s="201"/>
-      <c r="M44" s="201"/>
-      <c r="N44" s="201"/>
-      <c r="O44" s="201"/>
-      <c r="P44" s="201"/>
-      <c r="Q44" s="263"/>
+      <c r="L44" s="196"/>
+      <c r="M44" s="196"/>
+      <c r="N44" s="196"/>
+      <c r="O44" s="196"/>
+      <c r="P44" s="196"/>
+      <c r="Q44" s="250"/>
       <c r="R44" s="140" t="s">
         <v>137</v>
       </c>
-      <c r="S44" s="198"/>
-      <c r="T44" s="199"/>
-      <c r="U44" s="269" t="s">
+      <c r="S44" s="193"/>
+      <c r="T44" s="194"/>
+      <c r="U44" s="256" t="s">
         <v>146</v>
       </c>
-      <c r="V44" s="265"/>
-      <c r="W44" s="266"/>
-      <c r="X44" s="267"/>
-      <c r="Y44" s="323"/>
-      <c r="Z44" s="324"/>
-      <c r="AA44" s="330"/>
-      <c r="AB44" s="330"/>
-      <c r="AC44" s="330"/>
-      <c r="AD44" s="330"/>
-      <c r="AE44" s="330"/>
-      <c r="AF44" s="330"/>
-      <c r="AG44" s="356"/>
+      <c r="V44" s="252"/>
+      <c r="W44" s="253"/>
+      <c r="X44" s="254"/>
+      <c r="Y44" s="305"/>
+      <c r="Z44" s="306"/>
+      <c r="AA44" s="312"/>
+      <c r="AB44" s="312"/>
+      <c r="AC44" s="312"/>
+      <c r="AD44" s="312"/>
+      <c r="AE44" s="312"/>
+      <c r="AF44" s="312"/>
+      <c r="AG44" s="338"/>
     </row>
     <row r="45" s="6" customFormat="1" ht="13.5" customHeight="1" spans="1:33">
       <c r="A45" s="126"/>
@@ -7254,37 +7274,37 @@
       <c r="H45" s="144" t="s">
         <v>139</v>
       </c>
-      <c r="I45" s="202"/>
-      <c r="J45" s="203"/>
-      <c r="K45" s="204" t="s">
+      <c r="I45" s="197"/>
+      <c r="J45" s="198"/>
+      <c r="K45" s="199" t="s">
         <v>147</v>
       </c>
-      <c r="L45" s="205"/>
-      <c r="M45" s="205"/>
-      <c r="N45" s="205"/>
-      <c r="O45" s="205"/>
-      <c r="P45" s="205"/>
-      <c r="Q45" s="268"/>
+      <c r="L45" s="200"/>
+      <c r="M45" s="200"/>
+      <c r="N45" s="200"/>
+      <c r="O45" s="200"/>
+      <c r="P45" s="200"/>
+      <c r="Q45" s="255"/>
       <c r="R45" s="140" t="s">
         <v>141</v>
       </c>
-      <c r="S45" s="198"/>
-      <c r="T45" s="199"/>
-      <c r="U45" s="269" t="s">
+      <c r="S45" s="193"/>
+      <c r="T45" s="194"/>
+      <c r="U45" s="256" t="s">
         <v>83</v>
       </c>
-      <c r="V45" s="265"/>
-      <c r="W45" s="266"/>
-      <c r="X45" s="270"/>
-      <c r="Y45" s="326"/>
-      <c r="Z45" s="324"/>
-      <c r="AA45" s="330"/>
-      <c r="AB45" s="330"/>
-      <c r="AC45" s="330"/>
-      <c r="AD45" s="330"/>
-      <c r="AE45" s="330"/>
-      <c r="AF45" s="330"/>
-      <c r="AG45" s="356"/>
+      <c r="V45" s="252"/>
+      <c r="W45" s="253"/>
+      <c r="X45" s="257"/>
+      <c r="Y45" s="308"/>
+      <c r="Z45" s="306"/>
+      <c r="AA45" s="312"/>
+      <c r="AB45" s="312"/>
+      <c r="AC45" s="312"/>
+      <c r="AD45" s="312"/>
+      <c r="AE45" s="312"/>
+      <c r="AF45" s="312"/>
+      <c r="AG45" s="338"/>
     </row>
     <row r="46" s="6" customFormat="1" ht="13" customHeight="1" spans="1:33">
       <c r="A46" s="159"/>
@@ -7295,39 +7315,39 @@
       <c r="F46" s="149"/>
       <c r="G46" s="150"/>
       <c r="H46" s="151"/>
-      <c r="I46" s="206"/>
-      <c r="J46" s="207"/>
-      <c r="K46" s="208"/>
-      <c r="L46" s="209"/>
-      <c r="M46" s="209"/>
-      <c r="N46" s="209"/>
-      <c r="O46" s="209"/>
-      <c r="P46" s="209"/>
-      <c r="Q46" s="271"/>
-      <c r="R46" s="272" t="s">
+      <c r="I46" s="201"/>
+      <c r="J46" s="202"/>
+      <c r="K46" s="203"/>
+      <c r="L46" s="204"/>
+      <c r="M46" s="204"/>
+      <c r="N46" s="204"/>
+      <c r="O46" s="204"/>
+      <c r="P46" s="204"/>
+      <c r="Q46" s="258"/>
+      <c r="R46" s="259" t="s">
         <v>142</v>
       </c>
-      <c r="S46" s="273"/>
-      <c r="T46" s="274"/>
-      <c r="U46" s="275" t="s">
+      <c r="S46" s="260"/>
+      <c r="T46" s="261"/>
+      <c r="U46" s="262" t="s">
         <v>148</v>
       </c>
-      <c r="V46" s="276"/>
-      <c r="W46" s="277"/>
-      <c r="X46" s="278"/>
-      <c r="Y46" s="327"/>
-      <c r="Z46" s="328"/>
-      <c r="AA46" s="330"/>
-      <c r="AB46" s="330"/>
-      <c r="AC46" s="330"/>
-      <c r="AD46" s="330"/>
-      <c r="AE46" s="330"/>
-      <c r="AF46" s="330"/>
-      <c r="AG46" s="357"/>
+      <c r="V46" s="263"/>
+      <c r="W46" s="264"/>
+      <c r="X46" s="265"/>
+      <c r="Y46" s="309"/>
+      <c r="Z46" s="310"/>
+      <c r="AA46" s="312"/>
+      <c r="AB46" s="312"/>
+      <c r="AC46" s="312"/>
+      <c r="AD46" s="312"/>
+      <c r="AE46" s="312"/>
+      <c r="AF46" s="312"/>
+      <c r="AG46" s="339"/>
     </row>
     <row r="47" s="6" customFormat="1" customHeight="1" spans="1:33">
       <c r="A47" s="152">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B47" s="153">
         <v>44409</v>
@@ -7336,7 +7356,7 @@
       <c r="D47" s="155"/>
       <c r="E47" s="130">
         <f ca="1">IF(AND(B47&lt;&gt;"",B49&lt;&gt;""),DATEDIF(B47,B49,"M")+1,IF(AND(B47&lt;&gt;"",B49=""),DATEDIF(B47,TODAY(),"M")+1,""))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F47" s="131">
         <v>11</v>
@@ -7347,43 +7367,43 @@
       <c r="H47" s="133" t="s">
         <v>130</v>
       </c>
-      <c r="I47" s="194"/>
-      <c r="J47" s="195"/>
-      <c r="K47" s="196" t="s">
+      <c r="I47" s="189"/>
+      <c r="J47" s="190"/>
+      <c r="K47" s="191" t="s">
         <v>131</v>
       </c>
-      <c r="L47" s="197"/>
-      <c r="M47" s="197"/>
-      <c r="N47" s="197"/>
-      <c r="O47" s="197"/>
-      <c r="P47" s="197"/>
-      <c r="Q47" s="258"/>
-      <c r="R47" s="279" t="s">
+      <c r="L47" s="192"/>
+      <c r="M47" s="192"/>
+      <c r="N47" s="192"/>
+      <c r="O47" s="192"/>
+      <c r="P47" s="192"/>
+      <c r="Q47" s="245"/>
+      <c r="R47" s="266" t="s">
         <v>132</v>
       </c>
-      <c r="S47" s="280"/>
-      <c r="T47" s="281"/>
-      <c r="U47" s="259" t="s">
+      <c r="S47" s="267"/>
+      <c r="T47" s="268"/>
+      <c r="U47" s="246" t="s">
         <v>38</v>
       </c>
-      <c r="V47" s="260"/>
-      <c r="W47" s="261"/>
-      <c r="X47" s="262" t="s">
+      <c r="V47" s="247"/>
+      <c r="W47" s="248"/>
+      <c r="X47" s="249" t="s">
         <v>144</v>
       </c>
-      <c r="Y47" s="320"/>
-      <c r="Z47" s="321"/>
-      <c r="AA47" s="322"/>
-      <c r="AB47" s="330"/>
-      <c r="AC47" s="330" t="s">
+      <c r="Y47" s="302"/>
+      <c r="Z47" s="303"/>
+      <c r="AA47" s="304"/>
+      <c r="AB47" s="312"/>
+      <c r="AC47" s="312" t="s">
         <v>39</v>
       </c>
-      <c r="AD47" s="330" t="s">
+      <c r="AD47" s="312" t="s">
         <v>39</v>
       </c>
-      <c r="AE47" s="330"/>
-      <c r="AF47" s="330"/>
-      <c r="AG47" s="355"/>
+      <c r="AE47" s="312"/>
+      <c r="AF47" s="312"/>
+      <c r="AG47" s="337"/>
     </row>
     <row r="48" s="6" customFormat="1" ht="12" customHeight="1" spans="1:33">
       <c r="A48" s="126"/>
@@ -7398,42 +7418,42 @@
       <c r="H48" s="140" t="s">
         <v>135</v>
       </c>
-      <c r="I48" s="198"/>
-      <c r="J48" s="199"/>
-      <c r="K48" s="200" t="s">
+      <c r="I48" s="193"/>
+      <c r="J48" s="194"/>
+      <c r="K48" s="195" t="s">
         <v>149</v>
       </c>
-      <c r="L48" s="201"/>
-      <c r="M48" s="201"/>
-      <c r="N48" s="201"/>
-      <c r="O48" s="201"/>
-      <c r="P48" s="201"/>
-      <c r="Q48" s="263"/>
+      <c r="L48" s="196"/>
+      <c r="M48" s="196"/>
+      <c r="N48" s="196"/>
+      <c r="O48" s="196"/>
+      <c r="P48" s="196"/>
+      <c r="Q48" s="250"/>
       <c r="R48" s="140" t="s">
         <v>137</v>
       </c>
-      <c r="S48" s="198"/>
-      <c r="T48" s="199"/>
-      <c r="U48" s="269" t="s">
+      <c r="S48" s="193"/>
+      <c r="T48" s="194"/>
+      <c r="U48" s="256" t="s">
         <v>146</v>
       </c>
-      <c r="V48" s="265"/>
-      <c r="W48" s="266"/>
-      <c r="X48" s="267"/>
-      <c r="Y48" s="323"/>
-      <c r="Z48" s="324"/>
-      <c r="AA48" s="325"/>
-      <c r="AB48" s="330"/>
-      <c r="AC48" s="330"/>
-      <c r="AD48" s="330"/>
-      <c r="AE48" s="330"/>
-      <c r="AF48" s="330"/>
-      <c r="AG48" s="356"/>
+      <c r="V48" s="252"/>
+      <c r="W48" s="253"/>
+      <c r="X48" s="254"/>
+      <c r="Y48" s="305"/>
+      <c r="Z48" s="306"/>
+      <c r="AA48" s="307"/>
+      <c r="AB48" s="312"/>
+      <c r="AC48" s="312"/>
+      <c r="AD48" s="312"/>
+      <c r="AE48" s="312"/>
+      <c r="AF48" s="312"/>
+      <c r="AG48" s="338"/>
     </row>
     <row r="49" s="6" customFormat="1" ht="13.5" customHeight="1" spans="1:33">
       <c r="A49" s="126"/>
       <c r="B49" s="156">
-        <v>44470</v>
+        <v>44440</v>
       </c>
       <c r="C49" s="157"/>
       <c r="D49" s="158"/>
@@ -7443,37 +7463,37 @@
       <c r="H49" s="144" t="s">
         <v>139</v>
       </c>
-      <c r="I49" s="202"/>
-      <c r="J49" s="203"/>
-      <c r="K49" s="204" t="s">
+      <c r="I49" s="197"/>
+      <c r="J49" s="198"/>
+      <c r="K49" s="199" t="s">
         <v>150</v>
       </c>
-      <c r="L49" s="205"/>
-      <c r="M49" s="205"/>
-      <c r="N49" s="205"/>
-      <c r="O49" s="205"/>
-      <c r="P49" s="205"/>
-      <c r="Q49" s="268"/>
+      <c r="L49" s="200"/>
+      <c r="M49" s="200"/>
+      <c r="N49" s="200"/>
+      <c r="O49" s="200"/>
+      <c r="P49" s="200"/>
+      <c r="Q49" s="255"/>
       <c r="R49" s="140" t="s">
         <v>141</v>
       </c>
-      <c r="S49" s="198"/>
-      <c r="T49" s="199"/>
-      <c r="U49" s="269" t="s">
+      <c r="S49" s="193"/>
+      <c r="T49" s="194"/>
+      <c r="U49" s="256" t="s">
         <v>83</v>
       </c>
-      <c r="V49" s="265"/>
-      <c r="W49" s="266"/>
-      <c r="X49" s="270"/>
-      <c r="Y49" s="326"/>
-      <c r="Z49" s="324"/>
-      <c r="AA49" s="325"/>
-      <c r="AB49" s="330"/>
-      <c r="AC49" s="330"/>
-      <c r="AD49" s="330"/>
-      <c r="AE49" s="330"/>
-      <c r="AF49" s="330"/>
-      <c r="AG49" s="356"/>
+      <c r="V49" s="252"/>
+      <c r="W49" s="253"/>
+      <c r="X49" s="257"/>
+      <c r="Y49" s="308"/>
+      <c r="Z49" s="306"/>
+      <c r="AA49" s="307"/>
+      <c r="AB49" s="312"/>
+      <c r="AC49" s="312"/>
+      <c r="AD49" s="312"/>
+      <c r="AE49" s="312"/>
+      <c r="AF49" s="312"/>
+      <c r="AG49" s="338"/>
     </row>
     <row r="50" s="6" customFormat="1" ht="12" spans="1:33">
       <c r="A50" s="159"/>
@@ -7484,37 +7504,37 @@
       <c r="F50" s="149"/>
       <c r="G50" s="150"/>
       <c r="H50" s="151"/>
-      <c r="I50" s="206"/>
-      <c r="J50" s="207"/>
-      <c r="K50" s="208"/>
-      <c r="L50" s="209"/>
-      <c r="M50" s="209"/>
-      <c r="N50" s="209"/>
-      <c r="O50" s="209"/>
-      <c r="P50" s="209"/>
-      <c r="Q50" s="271"/>
-      <c r="R50" s="272" t="s">
+      <c r="I50" s="201"/>
+      <c r="J50" s="202"/>
+      <c r="K50" s="203"/>
+      <c r="L50" s="204"/>
+      <c r="M50" s="204"/>
+      <c r="N50" s="204"/>
+      <c r="O50" s="204"/>
+      <c r="P50" s="204"/>
+      <c r="Q50" s="258"/>
+      <c r="R50" s="259" t="s">
         <v>142</v>
       </c>
-      <c r="S50" s="273"/>
-      <c r="T50" s="274"/>
-      <c r="U50" s="275" t="s">
+      <c r="S50" s="260"/>
+      <c r="T50" s="261"/>
+      <c r="U50" s="262" t="s">
         <v>148</v>
       </c>
-      <c r="V50" s="276"/>
-      <c r="W50" s="277"/>
-      <c r="X50" s="278"/>
-      <c r="Y50" s="327"/>
-      <c r="Z50" s="328"/>
-      <c r="AA50" s="329"/>
-      <c r="AB50" s="330"/>
-      <c r="AC50" s="330"/>
-      <c r="AD50" s="330"/>
-      <c r="AE50" s="330"/>
-      <c r="AF50" s="330"/>
-      <c r="AG50" s="357"/>
-    </row>
-    <row r="51" s="6" customFormat="1" ht="12.5" customHeight="1" spans="1:33">
+      <c r="V50" s="263"/>
+      <c r="W50" s="264"/>
+      <c r="X50" s="265"/>
+      <c r="Y50" s="309"/>
+      <c r="Z50" s="310"/>
+      <c r="AA50" s="311"/>
+      <c r="AB50" s="312"/>
+      <c r="AC50" s="312"/>
+      <c r="AD50" s="312"/>
+      <c r="AE50" s="312"/>
+      <c r="AF50" s="312"/>
+      <c r="AG50" s="339"/>
+    </row>
+    <row r="51" s="6" customFormat="1" ht="12" spans="1:33">
       <c r="A51" s="152">
         <v>4</v>
       </c>
@@ -7536,47 +7556,47 @@
       <c r="H51" s="133" t="s">
         <v>130</v>
       </c>
-      <c r="I51" s="194"/>
-      <c r="J51" s="195"/>
-      <c r="K51" s="196" t="s">
+      <c r="I51" s="189"/>
+      <c r="J51" s="190"/>
+      <c r="K51" s="191" t="s">
         <v>33</v>
       </c>
-      <c r="L51" s="197"/>
-      <c r="M51" s="197"/>
-      <c r="N51" s="197"/>
-      <c r="O51" s="197"/>
-      <c r="P51" s="197"/>
-      <c r="Q51" s="258"/>
-      <c r="R51" s="279" t="s">
+      <c r="L51" s="192"/>
+      <c r="M51" s="192"/>
+      <c r="N51" s="192"/>
+      <c r="O51" s="192"/>
+      <c r="P51" s="192"/>
+      <c r="Q51" s="245"/>
+      <c r="R51" s="266" t="s">
         <v>132</v>
       </c>
-      <c r="S51" s="280"/>
-      <c r="T51" s="281"/>
-      <c r="U51" s="259" t="s">
+      <c r="S51" s="267"/>
+      <c r="T51" s="268"/>
+      <c r="U51" s="246" t="s">
         <v>38</v>
       </c>
-      <c r="V51" s="260"/>
-      <c r="W51" s="261"/>
-      <c r="X51" s="262" t="s">
+      <c r="V51" s="247"/>
+      <c r="W51" s="248"/>
+      <c r="X51" s="249" t="s">
         <v>144</v>
       </c>
-      <c r="Y51" s="320"/>
-      <c r="Z51" s="321"/>
-      <c r="AA51" s="330"/>
-      <c r="AB51" s="330"/>
-      <c r="AC51" s="330" t="s">
+      <c r="Y51" s="302"/>
+      <c r="Z51" s="303"/>
+      <c r="AA51" s="312"/>
+      <c r="AB51" s="312"/>
+      <c r="AC51" s="312" t="s">
         <v>39</v>
       </c>
-      <c r="AD51" s="330" t="s">
+      <c r="AD51" s="312" t="s">
         <v>39</v>
       </c>
-      <c r="AE51" s="330" t="s">
+      <c r="AE51" s="312" t="s">
         <v>39</v>
       </c>
-      <c r="AF51" s="330"/>
-      <c r="AG51" s="358"/>
-    </row>
-    <row r="52" s="6" customFormat="1" ht="12" customHeight="1" spans="1:33">
+      <c r="AF51" s="312"/>
+      <c r="AG51" s="340"/>
+    </row>
+    <row r="52" s="6" customFormat="1" ht="12" spans="1:33">
       <c r="A52" s="126"/>
       <c r="B52" s="134" t="s">
         <v>134</v>
@@ -7589,39 +7609,39 @@
       <c r="H52" s="140" t="s">
         <v>135</v>
       </c>
-      <c r="I52" s="198"/>
-      <c r="J52" s="199"/>
-      <c r="K52" s="200" t="s">
+      <c r="I52" s="193"/>
+      <c r="J52" s="194"/>
+      <c r="K52" s="195" t="s">
         <v>151</v>
       </c>
-      <c r="L52" s="201"/>
-      <c r="M52" s="201"/>
-      <c r="N52" s="201"/>
-      <c r="O52" s="201"/>
-      <c r="P52" s="201"/>
-      <c r="Q52" s="263"/>
+      <c r="L52" s="196"/>
+      <c r="M52" s="196"/>
+      <c r="N52" s="196"/>
+      <c r="O52" s="196"/>
+      <c r="P52" s="196"/>
+      <c r="Q52" s="250"/>
       <c r="R52" s="140" t="s">
         <v>137</v>
       </c>
-      <c r="S52" s="198"/>
-      <c r="T52" s="199"/>
-      <c r="U52" s="269" t="s">
+      <c r="S52" s="193"/>
+      <c r="T52" s="194"/>
+      <c r="U52" s="256" t="s">
         <v>146</v>
       </c>
-      <c r="V52" s="265"/>
-      <c r="W52" s="266"/>
-      <c r="X52" s="267"/>
-      <c r="Y52" s="323"/>
-      <c r="Z52" s="324"/>
-      <c r="AA52" s="330"/>
-      <c r="AB52" s="330"/>
-      <c r="AC52" s="330"/>
-      <c r="AD52" s="330"/>
-      <c r="AE52" s="330"/>
-      <c r="AF52" s="330"/>
-      <c r="AG52" s="358"/>
-    </row>
-    <row r="53" s="6" customFormat="1" ht="13.5" customHeight="1" spans="1:33">
+      <c r="V52" s="252"/>
+      <c r="W52" s="253"/>
+      <c r="X52" s="254"/>
+      <c r="Y52" s="305"/>
+      <c r="Z52" s="306"/>
+      <c r="AA52" s="312"/>
+      <c r="AB52" s="312"/>
+      <c r="AC52" s="312"/>
+      <c r="AD52" s="312"/>
+      <c r="AE52" s="312"/>
+      <c r="AF52" s="312"/>
+      <c r="AG52" s="340"/>
+    </row>
+    <row r="53" s="6" customFormat="1" ht="12" spans="1:33">
       <c r="A53" s="126"/>
       <c r="B53" s="156">
         <v>44385</v>
@@ -7634,39 +7654,39 @@
       <c r="H53" s="144" t="s">
         <v>139</v>
       </c>
-      <c r="I53" s="202"/>
-      <c r="J53" s="203"/>
-      <c r="K53" s="204" t="s">
+      <c r="I53" s="197"/>
+      <c r="J53" s="198"/>
+      <c r="K53" s="199" t="s">
         <v>152</v>
       </c>
-      <c r="L53" s="205"/>
-      <c r="M53" s="205"/>
-      <c r="N53" s="205"/>
-      <c r="O53" s="205"/>
-      <c r="P53" s="205"/>
-      <c r="Q53" s="268"/>
+      <c r="L53" s="200"/>
+      <c r="M53" s="200"/>
+      <c r="N53" s="200"/>
+      <c r="O53" s="200"/>
+      <c r="P53" s="200"/>
+      <c r="Q53" s="255"/>
       <c r="R53" s="140" t="s">
         <v>141</v>
       </c>
-      <c r="S53" s="198"/>
-      <c r="T53" s="199"/>
-      <c r="U53" s="269" t="s">
+      <c r="S53" s="193"/>
+      <c r="T53" s="194"/>
+      <c r="U53" s="256" t="s">
         <v>83</v>
       </c>
-      <c r="V53" s="265"/>
-      <c r="W53" s="266"/>
-      <c r="X53" s="270"/>
-      <c r="Y53" s="326"/>
-      <c r="Z53" s="324"/>
-      <c r="AA53" s="330"/>
-      <c r="AB53" s="330"/>
-      <c r="AC53" s="330"/>
-      <c r="AD53" s="330"/>
-      <c r="AE53" s="330"/>
-      <c r="AF53" s="330"/>
-      <c r="AG53" s="358"/>
-    </row>
-    <row r="54" s="6" customFormat="1" ht="56" customHeight="1" spans="1:33">
+      <c r="V53" s="252"/>
+      <c r="W53" s="253"/>
+      <c r="X53" s="257"/>
+      <c r="Y53" s="308"/>
+      <c r="Z53" s="306"/>
+      <c r="AA53" s="312"/>
+      <c r="AB53" s="312"/>
+      <c r="AC53" s="312"/>
+      <c r="AD53" s="312"/>
+      <c r="AE53" s="312"/>
+      <c r="AF53" s="312"/>
+      <c r="AG53" s="340"/>
+    </row>
+    <row r="54" s="6" customFormat="1" ht="12" spans="1:33">
       <c r="A54" s="159"/>
       <c r="B54" s="145"/>
       <c r="C54" s="146"/>
@@ -7675,51 +7695,51 @@
       <c r="F54" s="149"/>
       <c r="G54" s="150"/>
       <c r="H54" s="151"/>
-      <c r="I54" s="206"/>
-      <c r="J54" s="207"/>
-      <c r="K54" s="208"/>
-      <c r="L54" s="209"/>
-      <c r="M54" s="209"/>
-      <c r="N54" s="209"/>
-      <c r="O54" s="209"/>
-      <c r="P54" s="209"/>
-      <c r="Q54" s="271"/>
-      <c r="R54" s="272" t="s">
+      <c r="I54" s="201"/>
+      <c r="J54" s="202"/>
+      <c r="K54" s="203"/>
+      <c r="L54" s="204"/>
+      <c r="M54" s="204"/>
+      <c r="N54" s="204"/>
+      <c r="O54" s="204"/>
+      <c r="P54" s="204"/>
+      <c r="Q54" s="258"/>
+      <c r="R54" s="259" t="s">
         <v>142</v>
       </c>
-      <c r="S54" s="273"/>
-      <c r="T54" s="274"/>
-      <c r="U54" s="282" t="s">
+      <c r="S54" s="260"/>
+      <c r="T54" s="261"/>
+      <c r="U54" s="269" t="s">
         <v>153</v>
       </c>
-      <c r="V54" s="276"/>
-      <c r="W54" s="277"/>
-      <c r="X54" s="278"/>
-      <c r="Y54" s="327"/>
-      <c r="Z54" s="328"/>
-      <c r="AA54" s="330"/>
-      <c r="AB54" s="330"/>
-      <c r="AC54" s="330"/>
-      <c r="AD54" s="330"/>
-      <c r="AE54" s="330"/>
-      <c r="AF54" s="330"/>
-      <c r="AG54" s="358"/>
+      <c r="V54" s="263"/>
+      <c r="W54" s="264"/>
+      <c r="X54" s="265"/>
+      <c r="Y54" s="309"/>
+      <c r="Z54" s="310"/>
+      <c r="AA54" s="312"/>
+      <c r="AB54" s="312"/>
+      <c r="AC54" s="312"/>
+      <c r="AD54" s="312"/>
+      <c r="AE54" s="312"/>
+      <c r="AF54" s="312"/>
+      <c r="AG54" s="340"/>
     </row>
     <row r="55" s="6" customFormat="1" ht="12.5" customHeight="1" spans="1:33">
       <c r="A55" s="152">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B55" s="153">
-        <v>43770</v>
+        <v>43922</v>
       </c>
       <c r="C55" s="154"/>
       <c r="D55" s="155"/>
       <c r="E55" s="130">
         <f ca="1">IF(AND(B55&lt;&gt;"",B57&lt;&gt;""),DATEDIF(B55,B57,"M")+1,IF(AND(B55&lt;&gt;"",B57=""),DATEDIF(B55,TODAY(),"M")+1,""))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F55" s="131">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G55" s="132" t="s">
         <v>129</v>
@@ -7727,45 +7747,47 @@
       <c r="H55" s="133" t="s">
         <v>130</v>
       </c>
-      <c r="I55" s="194"/>
-      <c r="J55" s="195"/>
-      <c r="K55" s="196" t="s">
-        <v>154</v>
-      </c>
-      <c r="L55" s="197"/>
-      <c r="M55" s="197"/>
-      <c r="N55" s="197"/>
-      <c r="O55" s="197"/>
-      <c r="P55" s="197"/>
-      <c r="Q55" s="258"/>
-      <c r="R55" s="279" t="s">
+      <c r="I55" s="189"/>
+      <c r="J55" s="190"/>
+      <c r="K55" s="191" t="s">
+        <v>131</v>
+      </c>
+      <c r="L55" s="192"/>
+      <c r="M55" s="192"/>
+      <c r="N55" s="192"/>
+      <c r="O55" s="192"/>
+      <c r="P55" s="192"/>
+      <c r="Q55" s="245"/>
+      <c r="R55" s="266" t="s">
         <v>132</v>
       </c>
-      <c r="S55" s="280"/>
-      <c r="T55" s="281"/>
-      <c r="U55" s="259" t="s">
-        <v>155</v>
-      </c>
-      <c r="V55" s="260"/>
-      <c r="W55" s="261"/>
-      <c r="X55" s="262" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y55" s="320"/>
-      <c r="Z55" s="321"/>
-      <c r="AA55" s="330"/>
-      <c r="AB55" s="330"/>
-      <c r="AC55" s="330" t="s">
+      <c r="S55" s="267"/>
+      <c r="T55" s="268"/>
+      <c r="U55" s="246" t="s">
+        <v>38</v>
+      </c>
+      <c r="V55" s="247"/>
+      <c r="W55" s="248"/>
+      <c r="X55" s="249" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y55" s="302"/>
+      <c r="Z55" s="303"/>
+      <c r="AA55" s="312"/>
+      <c r="AB55" s="312" t="s">
         <v>39</v>
       </c>
-      <c r="AD55" s="330" t="s">
+      <c r="AC55" s="312" t="s">
         <v>39</v>
       </c>
-      <c r="AE55" s="330" t="s">
+      <c r="AD55" s="312" t="s">
         <v>39</v>
       </c>
-      <c r="AF55" s="330"/>
-      <c r="AG55" s="355"/>
+      <c r="AE55" s="312" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF55" s="312"/>
+      <c r="AG55" s="340"/>
     </row>
     <row r="56" s="6" customFormat="1" ht="12" customHeight="1" spans="1:33">
       <c r="A56" s="126"/>
@@ -7780,42 +7802,42 @@
       <c r="H56" s="140" t="s">
         <v>135</v>
       </c>
-      <c r="I56" s="198"/>
-      <c r="J56" s="199"/>
-      <c r="K56" s="200" t="s">
-        <v>156</v>
-      </c>
-      <c r="L56" s="201"/>
-      <c r="M56" s="201"/>
-      <c r="N56" s="201"/>
-      <c r="O56" s="201"/>
-      <c r="P56" s="201"/>
-      <c r="Q56" s="263"/>
+      <c r="I56" s="193"/>
+      <c r="J56" s="194"/>
+      <c r="K56" s="195" t="s">
+        <v>154</v>
+      </c>
+      <c r="L56" s="196"/>
+      <c r="M56" s="196"/>
+      <c r="N56" s="196"/>
+      <c r="O56" s="196"/>
+      <c r="P56" s="196"/>
+      <c r="Q56" s="250"/>
       <c r="R56" s="140" t="s">
         <v>137</v>
       </c>
-      <c r="S56" s="198"/>
-      <c r="T56" s="199"/>
-      <c r="U56" s="269" t="s">
-        <v>157</v>
-      </c>
-      <c r="V56" s="265"/>
-      <c r="W56" s="266"/>
-      <c r="X56" s="267"/>
-      <c r="Y56" s="323"/>
-      <c r="Z56" s="324"/>
-      <c r="AA56" s="330"/>
-      <c r="AB56" s="330"/>
-      <c r="AC56" s="330"/>
-      <c r="AD56" s="330"/>
-      <c r="AE56" s="330"/>
-      <c r="AF56" s="330"/>
-      <c r="AG56" s="356"/>
+      <c r="S56" s="193"/>
+      <c r="T56" s="194"/>
+      <c r="U56" s="256" t="s">
+        <v>146</v>
+      </c>
+      <c r="V56" s="252"/>
+      <c r="W56" s="253"/>
+      <c r="X56" s="254"/>
+      <c r="Y56" s="305"/>
+      <c r="Z56" s="306"/>
+      <c r="AA56" s="312"/>
+      <c r="AB56" s="312"/>
+      <c r="AC56" s="312"/>
+      <c r="AD56" s="312"/>
+      <c r="AE56" s="312"/>
+      <c r="AF56" s="312"/>
+      <c r="AG56" s="340"/>
     </row>
     <row r="57" s="6" customFormat="1" ht="13.5" customHeight="1" spans="1:33">
       <c r="A57" s="126"/>
       <c r="B57" s="156">
-        <v>43860</v>
+        <v>43981</v>
       </c>
       <c r="C57" s="157"/>
       <c r="D57" s="158"/>
@@ -7825,39 +7847,39 @@
       <c r="H57" s="144" t="s">
         <v>139</v>
       </c>
-      <c r="I57" s="202"/>
-      <c r="J57" s="203"/>
-      <c r="K57" s="204" t="s">
-        <v>158</v>
-      </c>
-      <c r="L57" s="205"/>
-      <c r="M57" s="205"/>
-      <c r="N57" s="205"/>
-      <c r="O57" s="205"/>
-      <c r="P57" s="205"/>
-      <c r="Q57" s="268"/>
+      <c r="I57" s="197"/>
+      <c r="J57" s="198"/>
+      <c r="K57" s="199" t="s">
+        <v>155</v>
+      </c>
+      <c r="L57" s="200"/>
+      <c r="M57" s="200"/>
+      <c r="N57" s="200"/>
+      <c r="O57" s="200"/>
+      <c r="P57" s="200"/>
+      <c r="Q57" s="255"/>
       <c r="R57" s="140" t="s">
         <v>141</v>
       </c>
-      <c r="S57" s="198"/>
-      <c r="T57" s="199"/>
-      <c r="U57" s="269" t="s">
+      <c r="S57" s="193"/>
+      <c r="T57" s="194"/>
+      <c r="U57" s="256" t="s">
         <v>83</v>
       </c>
-      <c r="V57" s="265"/>
-      <c r="W57" s="266"/>
-      <c r="X57" s="270"/>
-      <c r="Y57" s="326"/>
-      <c r="Z57" s="324"/>
-      <c r="AA57" s="330"/>
-      <c r="AB57" s="330"/>
-      <c r="AC57" s="330"/>
-      <c r="AD57" s="330"/>
-      <c r="AE57" s="330"/>
-      <c r="AF57" s="330"/>
-      <c r="AG57" s="356"/>
-    </row>
-    <row r="58" s="6" customFormat="1" ht="12" spans="1:33">
+      <c r="V57" s="252"/>
+      <c r="W57" s="253"/>
+      <c r="X57" s="257"/>
+      <c r="Y57" s="308"/>
+      <c r="Z57" s="306"/>
+      <c r="AA57" s="312"/>
+      <c r="AB57" s="312"/>
+      <c r="AC57" s="312"/>
+      <c r="AD57" s="312"/>
+      <c r="AE57" s="312"/>
+      <c r="AF57" s="312"/>
+      <c r="AG57" s="340"/>
+    </row>
+    <row r="58" s="6" customFormat="1" ht="47" customHeight="1" spans="1:33">
       <c r="A58" s="159"/>
       <c r="B58" s="145"/>
       <c r="C58" s="146"/>
@@ -7866,48 +7888,48 @@
       <c r="F58" s="149"/>
       <c r="G58" s="150"/>
       <c r="H58" s="151"/>
-      <c r="I58" s="206"/>
-      <c r="J58" s="207"/>
-      <c r="K58" s="208"/>
-      <c r="L58" s="209"/>
-      <c r="M58" s="209"/>
-      <c r="N58" s="209"/>
-      <c r="O58" s="209"/>
-      <c r="P58" s="209"/>
-      <c r="Q58" s="271"/>
-      <c r="R58" s="272" t="s">
+      <c r="I58" s="201"/>
+      <c r="J58" s="202"/>
+      <c r="K58" s="203"/>
+      <c r="L58" s="204"/>
+      <c r="M58" s="204"/>
+      <c r="N58" s="204"/>
+      <c r="O58" s="204"/>
+      <c r="P58" s="204"/>
+      <c r="Q58" s="258"/>
+      <c r="R58" s="259" t="s">
         <v>142</v>
       </c>
-      <c r="S58" s="273"/>
-      <c r="T58" s="274"/>
-      <c r="U58" s="275" t="s">
-        <v>159</v>
-      </c>
-      <c r="V58" s="276"/>
-      <c r="W58" s="277"/>
-      <c r="X58" s="278"/>
-      <c r="Y58" s="327"/>
-      <c r="Z58" s="328"/>
-      <c r="AA58" s="330"/>
-      <c r="AB58" s="330"/>
-      <c r="AC58" s="330"/>
-      <c r="AD58" s="330"/>
-      <c r="AE58" s="330"/>
-      <c r="AF58" s="330"/>
-      <c r="AG58" s="357"/>
+      <c r="S58" s="260"/>
+      <c r="T58" s="261"/>
+      <c r="U58" s="269" t="s">
+        <v>156</v>
+      </c>
+      <c r="V58" s="263"/>
+      <c r="W58" s="264"/>
+      <c r="X58" s="265"/>
+      <c r="Y58" s="309"/>
+      <c r="Z58" s="310"/>
+      <c r="AA58" s="312"/>
+      <c r="AB58" s="312"/>
+      <c r="AC58" s="312"/>
+      <c r="AD58" s="312"/>
+      <c r="AE58" s="312"/>
+      <c r="AF58" s="312"/>
+      <c r="AG58" s="340"/>
     </row>
     <row r="59" s="6" customFormat="1" ht="12.5" customHeight="1" spans="1:33">
       <c r="A59" s="152">
-        <v>6</v>
-      </c>
-      <c r="B59" s="160">
-        <v>43723</v>
-      </c>
-      <c r="C59" s="161"/>
-      <c r="D59" s="162"/>
+        <v>5</v>
+      </c>
+      <c r="B59" s="153">
+        <v>43770</v>
+      </c>
+      <c r="C59" s="154"/>
+      <c r="D59" s="155"/>
       <c r="E59" s="130">
         <f ca="1">IF(AND(B59&lt;&gt;"",B61&lt;&gt;""),DATEDIF(B59,B61,"M")+1,IF(AND(B59&lt;&gt;"",B61=""),DATEDIF(B59,TODAY(),"M")+1,""))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F59" s="131">
         <v>6</v>
@@ -7915,188 +7937,190 @@
       <c r="G59" s="132" t="s">
         <v>129</v>
       </c>
-      <c r="H59" s="163" t="s">
+      <c r="H59" s="133" t="s">
         <v>130</v>
       </c>
-      <c r="I59" s="210"/>
-      <c r="J59" s="211"/>
-      <c r="K59" s="212" t="s">
-        <v>154</v>
-      </c>
-      <c r="L59" s="213"/>
-      <c r="M59" s="213"/>
-      <c r="N59" s="213"/>
-      <c r="O59" s="213"/>
-      <c r="P59" s="213"/>
-      <c r="Q59" s="283"/>
-      <c r="R59" s="284" t="s">
+      <c r="I59" s="189"/>
+      <c r="J59" s="190"/>
+      <c r="K59" s="191" t="s">
+        <v>157</v>
+      </c>
+      <c r="L59" s="192"/>
+      <c r="M59" s="192"/>
+      <c r="N59" s="192"/>
+      <c r="O59" s="192"/>
+      <c r="P59" s="192"/>
+      <c r="Q59" s="245"/>
+      <c r="R59" s="266" t="s">
         <v>132</v>
       </c>
-      <c r="S59" s="285"/>
-      <c r="T59" s="286"/>
-      <c r="U59" s="259" t="s">
-        <v>38</v>
-      </c>
-      <c r="V59" s="260"/>
-      <c r="W59" s="261"/>
-      <c r="X59" s="262" t="s">
+      <c r="S59" s="267"/>
+      <c r="T59" s="268"/>
+      <c r="U59" s="246" t="s">
+        <v>158</v>
+      </c>
+      <c r="V59" s="247"/>
+      <c r="W59" s="248"/>
+      <c r="X59" s="249" t="s">
         <v>144</v>
       </c>
-      <c r="Y59" s="320"/>
-      <c r="Z59" s="321"/>
-      <c r="AA59" s="330"/>
-      <c r="AB59" s="330"/>
-      <c r="AC59" s="330" t="s">
+      <c r="Y59" s="302"/>
+      <c r="Z59" s="303"/>
+      <c r="AA59" s="312"/>
+      <c r="AB59" s="312"/>
+      <c r="AC59" s="312" t="s">
         <v>39</v>
       </c>
-      <c r="AD59" s="330" t="s">
+      <c r="AD59" s="312" t="s">
         <v>39</v>
       </c>
-      <c r="AE59" s="330" t="s">
+      <c r="AE59" s="312" t="s">
         <v>39</v>
       </c>
-      <c r="AF59" s="322"/>
-      <c r="AG59" s="355"/>
-    </row>
-    <row r="60" s="6" customFormat="1" ht="12" spans="1:33">
+      <c r="AF59" s="312"/>
+      <c r="AG59" s="337"/>
+    </row>
+    <row r="60" s="6" customFormat="1" ht="12" customHeight="1" spans="1:33">
       <c r="A60" s="126"/>
-      <c r="B60" s="164" t="s">
+      <c r="B60" s="134" t="s">
         <v>134</v>
       </c>
-      <c r="C60" s="165"/>
-      <c r="D60" s="166"/>
+      <c r="C60" s="135"/>
+      <c r="D60" s="136"/>
       <c r="E60" s="137"/>
       <c r="F60" s="138"/>
       <c r="G60" s="139"/>
-      <c r="H60" s="167" t="s">
+      <c r="H60" s="140" t="s">
         <v>135</v>
       </c>
-      <c r="I60" s="214"/>
-      <c r="J60" s="215"/>
-      <c r="K60" s="216" t="s">
+      <c r="I60" s="193"/>
+      <c r="J60" s="194"/>
+      <c r="K60" s="195" t="s">
+        <v>159</v>
+      </c>
+      <c r="L60" s="196"/>
+      <c r="M60" s="196"/>
+      <c r="N60" s="196"/>
+      <c r="O60" s="196"/>
+      <c r="P60" s="196"/>
+      <c r="Q60" s="250"/>
+      <c r="R60" s="140" t="s">
+        <v>137</v>
+      </c>
+      <c r="S60" s="193"/>
+      <c r="T60" s="194"/>
+      <c r="U60" s="256" t="s">
         <v>160</v>
       </c>
-      <c r="L60" s="217"/>
-      <c r="M60" s="217"/>
-      <c r="N60" s="217"/>
-      <c r="O60" s="217"/>
-      <c r="P60" s="217"/>
-      <c r="Q60" s="287"/>
-      <c r="R60" s="167" t="s">
-        <v>137</v>
-      </c>
-      <c r="S60" s="214"/>
-      <c r="T60" s="215"/>
-      <c r="U60" s="269" t="s">
-        <v>161</v>
-      </c>
-      <c r="V60" s="265"/>
-      <c r="W60" s="266"/>
-      <c r="X60" s="267"/>
-      <c r="Y60" s="323"/>
-      <c r="Z60" s="324"/>
-      <c r="AA60" s="330"/>
-      <c r="AB60" s="330"/>
-      <c r="AC60" s="330"/>
-      <c r="AD60" s="330"/>
-      <c r="AE60" s="330"/>
-      <c r="AF60" s="325"/>
-      <c r="AG60" s="356"/>
+      <c r="V60" s="252"/>
+      <c r="W60" s="253"/>
+      <c r="X60" s="254"/>
+      <c r="Y60" s="305"/>
+      <c r="Z60" s="306"/>
+      <c r="AA60" s="312"/>
+      <c r="AB60" s="312"/>
+      <c r="AC60" s="312"/>
+      <c r="AD60" s="312"/>
+      <c r="AE60" s="312"/>
+      <c r="AF60" s="312"/>
+      <c r="AG60" s="338"/>
     </row>
     <row r="61" s="6" customFormat="1" ht="13.5" customHeight="1" spans="1:33">
       <c r="A61" s="126"/>
       <c r="B61" s="156">
-        <v>43753</v>
+        <v>43860</v>
       </c>
       <c r="C61" s="157"/>
       <c r="D61" s="158"/>
       <c r="E61" s="137"/>
       <c r="F61" s="138"/>
       <c r="G61" s="139"/>
-      <c r="H61" s="168" t="s">
+      <c r="H61" s="144" t="s">
         <v>139</v>
       </c>
-      <c r="I61" s="218"/>
-      <c r="J61" s="219"/>
-      <c r="K61" s="220" t="s">
-        <v>162</v>
-      </c>
-      <c r="L61" s="221"/>
-      <c r="M61" s="221"/>
-      <c r="N61" s="221"/>
-      <c r="O61" s="221"/>
-      <c r="P61" s="221"/>
-      <c r="Q61" s="288"/>
-      <c r="R61" s="167" t="s">
+      <c r="I61" s="197"/>
+      <c r="J61" s="198"/>
+      <c r="K61" s="199" t="s">
+        <v>161</v>
+      </c>
+      <c r="L61" s="200"/>
+      <c r="M61" s="200"/>
+      <c r="N61" s="200"/>
+      <c r="O61" s="200"/>
+      <c r="P61" s="200"/>
+      <c r="Q61" s="255"/>
+      <c r="R61" s="140" t="s">
         <v>141</v>
       </c>
-      <c r="S61" s="214"/>
-      <c r="T61" s="215"/>
-      <c r="U61" s="269"/>
-      <c r="V61" s="265"/>
-      <c r="W61" s="266"/>
-      <c r="X61" s="270"/>
-      <c r="Y61" s="326"/>
-      <c r="Z61" s="324"/>
-      <c r="AA61" s="330"/>
-      <c r="AB61" s="330"/>
-      <c r="AC61" s="330"/>
-      <c r="AD61" s="330"/>
-      <c r="AE61" s="330"/>
-      <c r="AF61" s="325"/>
-      <c r="AG61" s="356"/>
-    </row>
-    <row r="62" s="6" customFormat="1" ht="22.05" customHeight="1" spans="1:33">
+      <c r="S61" s="193"/>
+      <c r="T61" s="194"/>
+      <c r="U61" s="256" t="s">
+        <v>83</v>
+      </c>
+      <c r="V61" s="252"/>
+      <c r="W61" s="253"/>
+      <c r="X61" s="257"/>
+      <c r="Y61" s="308"/>
+      <c r="Z61" s="306"/>
+      <c r="AA61" s="312"/>
+      <c r="AB61" s="312"/>
+      <c r="AC61" s="312"/>
+      <c r="AD61" s="312"/>
+      <c r="AE61" s="312"/>
+      <c r="AF61" s="312"/>
+      <c r="AG61" s="338"/>
+    </row>
+    <row r="62" s="6" customFormat="1" ht="12" spans="1:33">
       <c r="A62" s="159"/>
-      <c r="B62" s="169"/>
-      <c r="C62" s="170"/>
-      <c r="D62" s="171"/>
+      <c r="B62" s="145"/>
+      <c r="C62" s="146"/>
+      <c r="D62" s="147"/>
       <c r="E62" s="148"/>
       <c r="F62" s="149"/>
       <c r="G62" s="150"/>
-      <c r="H62" s="172"/>
-      <c r="I62" s="222"/>
-      <c r="J62" s="223"/>
-      <c r="K62" s="224"/>
-      <c r="L62" s="225"/>
-      <c r="M62" s="225"/>
-      <c r="N62" s="225"/>
-      <c r="O62" s="225"/>
-      <c r="P62" s="225"/>
-      <c r="Q62" s="289"/>
-      <c r="R62" s="290" t="s">
+      <c r="H62" s="151"/>
+      <c r="I62" s="201"/>
+      <c r="J62" s="202"/>
+      <c r="K62" s="203"/>
+      <c r="L62" s="204"/>
+      <c r="M62" s="204"/>
+      <c r="N62" s="204"/>
+      <c r="O62" s="204"/>
+      <c r="P62" s="204"/>
+      <c r="Q62" s="258"/>
+      <c r="R62" s="259" t="s">
         <v>142</v>
       </c>
-      <c r="S62" s="291"/>
-      <c r="T62" s="292"/>
-      <c r="U62" s="275" t="s">
-        <v>94</v>
-      </c>
-      <c r="V62" s="276"/>
-      <c r="W62" s="277"/>
-      <c r="X62" s="278"/>
-      <c r="Y62" s="327"/>
-      <c r="Z62" s="328"/>
-      <c r="AA62" s="330"/>
-      <c r="AB62" s="330"/>
-      <c r="AC62" s="330"/>
-      <c r="AD62" s="330"/>
-      <c r="AE62" s="330"/>
-      <c r="AF62" s="329"/>
-      <c r="AG62" s="357"/>
+      <c r="S62" s="260"/>
+      <c r="T62" s="261"/>
+      <c r="U62" s="262" t="s">
+        <v>162</v>
+      </c>
+      <c r="V62" s="263"/>
+      <c r="W62" s="264"/>
+      <c r="X62" s="265"/>
+      <c r="Y62" s="309"/>
+      <c r="Z62" s="310"/>
+      <c r="AA62" s="312"/>
+      <c r="AB62" s="312"/>
+      <c r="AC62" s="312"/>
+      <c r="AD62" s="312"/>
+      <c r="AE62" s="312"/>
+      <c r="AF62" s="312"/>
+      <c r="AG62" s="339"/>
     </row>
     <row r="63" s="6" customFormat="1" ht="12.5" customHeight="1" spans="1:33">
       <c r="A63" s="152">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B63" s="160">
-        <v>43678</v>
+        <v>43723</v>
       </c>
       <c r="C63" s="161"/>
       <c r="D63" s="162"/>
       <c r="E63" s="130">
         <f ca="1">IF(AND(B63&lt;&gt;"",B65&lt;&gt;""),DATEDIF(B63,B65,"M")+1,IF(AND(B63&lt;&gt;"",B65=""),DATEDIF(B63,TODAY(),"M")+1,""))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F63" s="131">
         <v>6</v>
@@ -8107,45 +8131,45 @@
       <c r="H63" s="163" t="s">
         <v>130</v>
       </c>
-      <c r="I63" s="210"/>
-      <c r="J63" s="211"/>
-      <c r="K63" s="212" t="s">
-        <v>154</v>
-      </c>
-      <c r="L63" s="213"/>
-      <c r="M63" s="213"/>
-      <c r="N63" s="213"/>
-      <c r="O63" s="213"/>
-      <c r="P63" s="213"/>
-      <c r="Q63" s="283"/>
-      <c r="R63" s="284" t="s">
+      <c r="I63" s="205"/>
+      <c r="J63" s="206"/>
+      <c r="K63" s="207" t="s">
+        <v>157</v>
+      </c>
+      <c r="L63" s="208"/>
+      <c r="M63" s="208"/>
+      <c r="N63" s="208"/>
+      <c r="O63" s="208"/>
+      <c r="P63" s="208"/>
+      <c r="Q63" s="270"/>
+      <c r="R63" s="271" t="s">
         <v>132</v>
       </c>
-      <c r="S63" s="285"/>
-      <c r="T63" s="286"/>
-      <c r="U63" s="259" t="s">
+      <c r="S63" s="272"/>
+      <c r="T63" s="273"/>
+      <c r="U63" s="246" t="s">
         <v>38</v>
       </c>
-      <c r="V63" s="260"/>
-      <c r="W63" s="261"/>
-      <c r="X63" s="262" t="s">
+      <c r="V63" s="247"/>
+      <c r="W63" s="248"/>
+      <c r="X63" s="249" t="s">
         <v>144</v>
       </c>
-      <c r="Y63" s="320"/>
-      <c r="Z63" s="321"/>
-      <c r="AA63" s="330"/>
-      <c r="AB63" s="322"/>
-      <c r="AC63" s="322" t="s">
+      <c r="Y63" s="302"/>
+      <c r="Z63" s="303"/>
+      <c r="AA63" s="312"/>
+      <c r="AB63" s="312"/>
+      <c r="AC63" s="312" t="s">
         <v>39</v>
       </c>
-      <c r="AD63" s="322" t="s">
+      <c r="AD63" s="312" t="s">
         <v>39</v>
       </c>
-      <c r="AE63" s="322" t="s">
+      <c r="AE63" s="312" t="s">
         <v>39</v>
       </c>
-      <c r="AF63" s="322"/>
-      <c r="AG63" s="355"/>
+      <c r="AF63" s="304"/>
+      <c r="AG63" s="337"/>
     </row>
     <row r="64" s="6" customFormat="1" ht="12" spans="1:33">
       <c r="A64" s="126"/>
@@ -8160,137 +8184,135 @@
       <c r="H64" s="167" t="s">
         <v>135</v>
       </c>
-      <c r="I64" s="214"/>
-      <c r="J64" s="215"/>
-      <c r="K64" s="216" t="s">
+      <c r="I64" s="209"/>
+      <c r="J64" s="210"/>
+      <c r="K64" s="211" t="s">
         <v>163</v>
       </c>
-      <c r="L64" s="217"/>
-      <c r="M64" s="217"/>
-      <c r="N64" s="217"/>
-      <c r="O64" s="217"/>
-      <c r="P64" s="217"/>
-      <c r="Q64" s="287"/>
+      <c r="L64" s="212"/>
+      <c r="M64" s="212"/>
+      <c r="N64" s="212"/>
+      <c r="O64" s="212"/>
+      <c r="P64" s="212"/>
+      <c r="Q64" s="274"/>
       <c r="R64" s="167" t="s">
         <v>137</v>
       </c>
-      <c r="S64" s="214"/>
-      <c r="T64" s="215"/>
-      <c r="U64" s="269" t="s">
+      <c r="S64" s="209"/>
+      <c r="T64" s="210"/>
+      <c r="U64" s="256" t="s">
         <v>164</v>
       </c>
-      <c r="V64" s="265"/>
-      <c r="W64" s="266"/>
-      <c r="X64" s="267"/>
-      <c r="Y64" s="323"/>
-      <c r="Z64" s="324"/>
-      <c r="AA64" s="330"/>
-      <c r="AB64" s="325"/>
-      <c r="AC64" s="325"/>
-      <c r="AD64" s="325"/>
-      <c r="AE64" s="325"/>
-      <c r="AF64" s="325"/>
-      <c r="AG64" s="356"/>
+      <c r="V64" s="252"/>
+      <c r="W64" s="253"/>
+      <c r="X64" s="254"/>
+      <c r="Y64" s="305"/>
+      <c r="Z64" s="306"/>
+      <c r="AA64" s="312"/>
+      <c r="AB64" s="312"/>
+      <c r="AC64" s="312"/>
+      <c r="AD64" s="312"/>
+      <c r="AE64" s="312"/>
+      <c r="AF64" s="307"/>
+      <c r="AG64" s="338"/>
     </row>
     <row r="65" s="6" customFormat="1" ht="13.5" customHeight="1" spans="1:33">
       <c r="A65" s="126"/>
       <c r="B65" s="156">
-        <v>43738</v>
+        <v>43784</v>
       </c>
       <c r="C65" s="157"/>
       <c r="D65" s="158"/>
       <c r="E65" s="137"/>
       <c r="F65" s="138"/>
       <c r="G65" s="139"/>
-      <c r="H65" s="168" t="s">
+      <c r="H65" s="341" t="s">
         <v>139</v>
       </c>
-      <c r="I65" s="218"/>
-      <c r="J65" s="219"/>
-      <c r="K65" s="220" t="s">
+      <c r="I65" s="352"/>
+      <c r="J65" s="353"/>
+      <c r="K65" s="354" t="s">
         <v>165</v>
       </c>
-      <c r="L65" s="221"/>
-      <c r="M65" s="221"/>
-      <c r="N65" s="221"/>
-      <c r="O65" s="221"/>
-      <c r="P65" s="221"/>
-      <c r="Q65" s="288"/>
+      <c r="L65" s="355"/>
+      <c r="M65" s="355"/>
+      <c r="N65" s="355"/>
+      <c r="O65" s="355"/>
+      <c r="P65" s="355"/>
+      <c r="Q65" s="360"/>
       <c r="R65" s="167" t="s">
         <v>141</v>
       </c>
-      <c r="S65" s="214"/>
-      <c r="T65" s="215"/>
-      <c r="U65" s="269" t="s">
-        <v>83</v>
-      </c>
-      <c r="V65" s="265"/>
-      <c r="W65" s="266"/>
-      <c r="X65" s="270"/>
-      <c r="Y65" s="326"/>
-      <c r="Z65" s="324"/>
-      <c r="AA65" s="330"/>
-      <c r="AB65" s="325"/>
-      <c r="AC65" s="325"/>
-      <c r="AD65" s="325"/>
-      <c r="AE65" s="325"/>
-      <c r="AF65" s="325"/>
-      <c r="AG65" s="356"/>
-    </row>
-    <row r="66" s="6" customFormat="1" ht="56" customHeight="1" spans="1:33">
+      <c r="S65" s="209"/>
+      <c r="T65" s="210"/>
+      <c r="U65" s="256"/>
+      <c r="V65" s="252"/>
+      <c r="W65" s="253"/>
+      <c r="X65" s="257"/>
+      <c r="Y65" s="308"/>
+      <c r="Z65" s="306"/>
+      <c r="AA65" s="312"/>
+      <c r="AB65" s="312"/>
+      <c r="AC65" s="312"/>
+      <c r="AD65" s="312"/>
+      <c r="AE65" s="312"/>
+      <c r="AF65" s="307"/>
+      <c r="AG65" s="338"/>
+    </row>
+    <row r="66" s="6" customFormat="1" ht="22.05" customHeight="1" spans="1:33">
       <c r="A66" s="159"/>
-      <c r="B66" s="169"/>
-      <c r="C66" s="170"/>
-      <c r="D66" s="171"/>
+      <c r="B66" s="342"/>
+      <c r="C66" s="343"/>
+      <c r="D66" s="344"/>
       <c r="E66" s="148"/>
       <c r="F66" s="149"/>
       <c r="G66" s="150"/>
-      <c r="H66" s="172"/>
-      <c r="I66" s="222"/>
-      <c r="J66" s="223"/>
-      <c r="K66" s="224"/>
-      <c r="L66" s="225"/>
-      <c r="M66" s="225"/>
-      <c r="N66" s="225"/>
-      <c r="O66" s="225"/>
-      <c r="P66" s="225"/>
-      <c r="Q66" s="289"/>
-      <c r="R66" s="290" t="s">
+      <c r="H66" s="345"/>
+      <c r="I66" s="356"/>
+      <c r="J66" s="357"/>
+      <c r="K66" s="358"/>
+      <c r="L66" s="359"/>
+      <c r="M66" s="359"/>
+      <c r="N66" s="359"/>
+      <c r="O66" s="359"/>
+      <c r="P66" s="359"/>
+      <c r="Q66" s="361"/>
+      <c r="R66" s="362" t="s">
         <v>142</v>
       </c>
-      <c r="S66" s="291"/>
-      <c r="T66" s="292"/>
-      <c r="U66" s="275" t="s">
-        <v>166</v>
-      </c>
-      <c r="V66" s="276"/>
-      <c r="W66" s="277"/>
-      <c r="X66" s="278"/>
-      <c r="Y66" s="327"/>
-      <c r="Z66" s="328"/>
-      <c r="AA66" s="330"/>
-      <c r="AB66" s="329"/>
-      <c r="AC66" s="329"/>
-      <c r="AD66" s="329"/>
-      <c r="AE66" s="329"/>
-      <c r="AF66" s="329"/>
-      <c r="AG66" s="357"/>
+      <c r="S66" s="363"/>
+      <c r="T66" s="364"/>
+      <c r="U66" s="262" t="s">
+        <v>94</v>
+      </c>
+      <c r="V66" s="263"/>
+      <c r="W66" s="264"/>
+      <c r="X66" s="265"/>
+      <c r="Y66" s="309"/>
+      <c r="Z66" s="310"/>
+      <c r="AA66" s="312"/>
+      <c r="AB66" s="312"/>
+      <c r="AC66" s="312"/>
+      <c r="AD66" s="312"/>
+      <c r="AE66" s="312"/>
+      <c r="AF66" s="311"/>
+      <c r="AG66" s="339"/>
     </row>
     <row r="67" s="6" customFormat="1" ht="12.5" customHeight="1" spans="1:33">
       <c r="A67" s="152">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B67" s="160">
-        <v>43282</v>
+        <v>43678</v>
       </c>
       <c r="C67" s="161"/>
       <c r="D67" s="162"/>
       <c r="E67" s="130">
         <f ca="1">IF(AND(B67&lt;&gt;"",B69&lt;&gt;""),DATEDIF(B67,B69,"M")+1,IF(AND(B67&lt;&gt;"",B69=""),DATEDIF(B67,TODAY(),"M")+1,""))</f>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F67" s="131">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G67" s="132" t="s">
         <v>129</v>
@@ -8298,45 +8320,45 @@
       <c r="H67" s="163" t="s">
         <v>130</v>
       </c>
-      <c r="I67" s="210"/>
-      <c r="J67" s="211"/>
-      <c r="K67" s="212" t="s">
-        <v>154</v>
-      </c>
-      <c r="L67" s="213"/>
-      <c r="M67" s="213"/>
-      <c r="N67" s="213"/>
-      <c r="O67" s="213"/>
-      <c r="P67" s="213"/>
-      <c r="Q67" s="283"/>
-      <c r="R67" s="284" t="s">
+      <c r="I67" s="205"/>
+      <c r="J67" s="206"/>
+      <c r="K67" s="207" t="s">
+        <v>157</v>
+      </c>
+      <c r="L67" s="208"/>
+      <c r="M67" s="208"/>
+      <c r="N67" s="208"/>
+      <c r="O67" s="208"/>
+      <c r="P67" s="208"/>
+      <c r="Q67" s="270"/>
+      <c r="R67" s="271" t="s">
         <v>132</v>
       </c>
-      <c r="S67" s="285"/>
-      <c r="T67" s="286"/>
-      <c r="U67" s="365" t="s">
+      <c r="S67" s="272"/>
+      <c r="T67" s="273"/>
+      <c r="U67" s="246" t="s">
         <v>38</v>
       </c>
-      <c r="V67" s="366"/>
-      <c r="W67" s="367"/>
-      <c r="X67" s="368" t="s">
+      <c r="V67" s="247"/>
+      <c r="W67" s="248"/>
+      <c r="X67" s="249" t="s">
         <v>144</v>
       </c>
-      <c r="Y67" s="379"/>
-      <c r="Z67" s="324"/>
-      <c r="AA67" s="330"/>
-      <c r="AB67" s="322"/>
-      <c r="AC67" s="322" t="s">
+      <c r="Y67" s="302"/>
+      <c r="Z67" s="303"/>
+      <c r="AA67" s="312"/>
+      <c r="AB67" s="304"/>
+      <c r="AC67" s="304" t="s">
         <v>39</v>
       </c>
-      <c r="AD67" s="322" t="s">
+      <c r="AD67" s="304" t="s">
         <v>39</v>
       </c>
-      <c r="AE67" s="322" t="s">
+      <c r="AE67" s="304" t="s">
         <v>39</v>
       </c>
-      <c r="AF67" s="325"/>
-      <c r="AG67" s="356"/>
+      <c r="AF67" s="304"/>
+      <c r="AG67" s="337"/>
     </row>
     <row r="68" s="6" customFormat="1" ht="12" spans="1:33">
       <c r="A68" s="126"/>
@@ -8351,187 +8373,185 @@
       <c r="H68" s="167" t="s">
         <v>135</v>
       </c>
-      <c r="I68" s="214"/>
-      <c r="J68" s="215"/>
-      <c r="K68" s="216" t="s">
-        <v>167</v>
-      </c>
-      <c r="L68" s="217"/>
-      <c r="M68" s="217"/>
-      <c r="N68" s="217"/>
-      <c r="O68" s="217"/>
-      <c r="P68" s="217"/>
-      <c r="Q68" s="287"/>
+      <c r="I68" s="209"/>
+      <c r="J68" s="210"/>
+      <c r="K68" s="211" t="s">
+        <v>166</v>
+      </c>
+      <c r="L68" s="212"/>
+      <c r="M68" s="212"/>
+      <c r="N68" s="212"/>
+      <c r="O68" s="212"/>
+      <c r="P68" s="212"/>
+      <c r="Q68" s="274"/>
       <c r="R68" s="167" t="s">
         <v>137</v>
       </c>
-      <c r="S68" s="214"/>
-      <c r="T68" s="215"/>
-      <c r="U68" s="269" t="s">
-        <v>146</v>
-      </c>
-      <c r="V68" s="265"/>
-      <c r="W68" s="266"/>
-      <c r="X68" s="267"/>
-      <c r="Y68" s="323"/>
-      <c r="Z68" s="324"/>
-      <c r="AA68" s="330"/>
-      <c r="AB68" s="325"/>
-      <c r="AC68" s="325"/>
-      <c r="AD68" s="325"/>
-      <c r="AE68" s="325"/>
-      <c r="AF68" s="325"/>
-      <c r="AG68" s="356"/>
+      <c r="S68" s="209"/>
+      <c r="T68" s="210"/>
+      <c r="U68" s="256" t="s">
+        <v>167</v>
+      </c>
+      <c r="V68" s="252"/>
+      <c r="W68" s="253"/>
+      <c r="X68" s="254"/>
+      <c r="Y68" s="305"/>
+      <c r="Z68" s="306"/>
+      <c r="AA68" s="312"/>
+      <c r="AB68" s="307"/>
+      <c r="AC68" s="307"/>
+      <c r="AD68" s="307"/>
+      <c r="AE68" s="307"/>
+      <c r="AF68" s="307"/>
+      <c r="AG68" s="338"/>
     </row>
     <row r="69" s="6" customFormat="1" ht="13.5" customHeight="1" spans="1:33">
       <c r="A69" s="126"/>
-      <c r="B69" s="359">
-        <v>43646</v>
-      </c>
-      <c r="C69" s="360"/>
-      <c r="D69" s="361"/>
+      <c r="B69" s="156">
+        <v>43768</v>
+      </c>
+      <c r="C69" s="157"/>
+      <c r="D69" s="158"/>
       <c r="E69" s="137"/>
       <c r="F69" s="138"/>
       <c r="G69" s="139"/>
-      <c r="H69" s="168" t="s">
+      <c r="H69" s="341" t="s">
         <v>139</v>
       </c>
-      <c r="I69" s="218"/>
-      <c r="J69" s="219"/>
-      <c r="K69" s="220" t="s">
+      <c r="I69" s="352"/>
+      <c r="J69" s="353"/>
+      <c r="K69" s="354" t="s">
         <v>168</v>
       </c>
-      <c r="L69" s="221"/>
-      <c r="M69" s="221"/>
-      <c r="N69" s="221"/>
-      <c r="O69" s="221"/>
-      <c r="P69" s="221"/>
-      <c r="Q69" s="288"/>
+      <c r="L69" s="355"/>
+      <c r="M69" s="355"/>
+      <c r="N69" s="355"/>
+      <c r="O69" s="355"/>
+      <c r="P69" s="355"/>
+      <c r="Q69" s="360"/>
       <c r="R69" s="167" t="s">
         <v>141</v>
       </c>
-      <c r="S69" s="214"/>
-      <c r="T69" s="215"/>
-      <c r="U69" s="269" t="s">
+      <c r="S69" s="209"/>
+      <c r="T69" s="210"/>
+      <c r="U69" s="256" t="s">
         <v>83</v>
       </c>
-      <c r="V69" s="265"/>
-      <c r="W69" s="266"/>
-      <c r="X69" s="270"/>
-      <c r="Y69" s="326"/>
-      <c r="Z69" s="324"/>
-      <c r="AA69" s="330"/>
-      <c r="AB69" s="325"/>
-      <c r="AC69" s="325"/>
-      <c r="AD69" s="325"/>
-      <c r="AE69" s="325"/>
-      <c r="AF69" s="325"/>
-      <c r="AG69" s="356"/>
-    </row>
-    <row r="70" s="6" customFormat="1" ht="30" customHeight="1" spans="1:33">
+      <c r="V69" s="252"/>
+      <c r="W69" s="253"/>
+      <c r="X69" s="257"/>
+      <c r="Y69" s="308"/>
+      <c r="Z69" s="306"/>
+      <c r="AA69" s="312"/>
+      <c r="AB69" s="307"/>
+      <c r="AC69" s="307"/>
+      <c r="AD69" s="307"/>
+      <c r="AE69" s="307"/>
+      <c r="AF69" s="307"/>
+      <c r="AG69" s="338"/>
+    </row>
+    <row r="70" s="6" customFormat="1" ht="56" customHeight="1" spans="1:33">
       <c r="A70" s="159"/>
-      <c r="B70" s="169"/>
-      <c r="C70" s="170"/>
-      <c r="D70" s="171"/>
+      <c r="B70" s="342"/>
+      <c r="C70" s="343"/>
+      <c r="D70" s="344"/>
       <c r="E70" s="148"/>
       <c r="F70" s="149"/>
       <c r="G70" s="150"/>
-      <c r="H70" s="172"/>
-      <c r="I70" s="222"/>
-      <c r="J70" s="223"/>
-      <c r="K70" s="224"/>
-      <c r="L70" s="225"/>
-      <c r="M70" s="225"/>
-      <c r="N70" s="225"/>
-      <c r="O70" s="225"/>
-      <c r="P70" s="225"/>
-      <c r="Q70" s="289"/>
-      <c r="R70" s="290" t="s">
+      <c r="H70" s="345"/>
+      <c r="I70" s="356"/>
+      <c r="J70" s="357"/>
+      <c r="K70" s="358"/>
+      <c r="L70" s="359"/>
+      <c r="M70" s="359"/>
+      <c r="N70" s="359"/>
+      <c r="O70" s="359"/>
+      <c r="P70" s="359"/>
+      <c r="Q70" s="361"/>
+      <c r="R70" s="362" t="s">
         <v>142</v>
       </c>
-      <c r="S70" s="291"/>
-      <c r="T70" s="292"/>
-      <c r="U70" s="275" t="s">
+      <c r="S70" s="363"/>
+      <c r="T70" s="364"/>
+      <c r="U70" s="262" t="s">
         <v>169</v>
       </c>
-      <c r="V70" s="276"/>
-      <c r="W70" s="277"/>
-      <c r="X70" s="278"/>
-      <c r="Y70" s="327"/>
-      <c r="Z70" s="328"/>
-      <c r="AA70" s="330"/>
-      <c r="AB70" s="329"/>
-      <c r="AC70" s="329"/>
-      <c r="AD70" s="329"/>
-      <c r="AE70" s="329"/>
-      <c r="AF70" s="329"/>
-      <c r="AG70" s="357"/>
+      <c r="V70" s="263"/>
+      <c r="W70" s="264"/>
+      <c r="X70" s="265"/>
+      <c r="Y70" s="309"/>
+      <c r="Z70" s="310"/>
+      <c r="AA70" s="312"/>
+      <c r="AB70" s="311"/>
+      <c r="AC70" s="311"/>
+      <c r="AD70" s="311"/>
+      <c r="AE70" s="311"/>
+      <c r="AF70" s="311"/>
+      <c r="AG70" s="339"/>
     </row>
     <row r="71" s="6" customFormat="1" ht="12.5" customHeight="1" spans="1:33">
       <c r="A71" s="152">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B71" s="160">
-        <v>43174</v>
+        <v>43617</v>
       </c>
       <c r="C71" s="161"/>
       <c r="D71" s="162"/>
       <c r="E71" s="130">
         <f ca="1">IF(AND(B71&lt;&gt;"",B73&lt;&gt;""),DATEDIF(B71,B73,"M")+1,IF(AND(B71&lt;&gt;"",B73=""),DATEDIF(B71,TODAY(),"M")+1,""))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F71" s="131">
-        <v>8</v>
-      </c>
-      <c r="G71" s="362" t="s">
+        <v>6</v>
+      </c>
+      <c r="G71" s="132" t="s">
         <v>129</v>
       </c>
       <c r="H71" s="163" t="s">
         <v>130</v>
       </c>
-      <c r="I71" s="210"/>
-      <c r="J71" s="211"/>
-      <c r="K71" s="212" t="s">
+      <c r="I71" s="205"/>
+      <c r="J71" s="206"/>
+      <c r="K71" s="207" t="s">
+        <v>33</v>
+      </c>
+      <c r="L71" s="208"/>
+      <c r="M71" s="208"/>
+      <c r="N71" s="208"/>
+      <c r="O71" s="208"/>
+      <c r="P71" s="208"/>
+      <c r="Q71" s="270"/>
+      <c r="R71" s="271" t="s">
+        <v>132</v>
+      </c>
+      <c r="S71" s="272"/>
+      <c r="T71" s="273"/>
+      <c r="U71" s="246" t="s">
         <v>170</v>
       </c>
-      <c r="L71" s="213"/>
-      <c r="M71" s="213"/>
-      <c r="N71" s="213"/>
-      <c r="O71" s="213"/>
-      <c r="P71" s="213"/>
-      <c r="Q71" s="283"/>
-      <c r="R71" s="284" t="s">
-        <v>132</v>
-      </c>
-      <c r="S71" s="285"/>
-      <c r="T71" s="286"/>
-      <c r="U71" s="365" t="s">
-        <v>38</v>
-      </c>
-      <c r="V71" s="366"/>
-      <c r="W71" s="367"/>
-      <c r="X71" s="369" t="s">
-        <v>171</v>
-      </c>
-      <c r="Y71" s="380"/>
-      <c r="Z71" s="381"/>
-      <c r="AA71" s="382"/>
-      <c r="AB71" s="322" t="s">
+      <c r="V71" s="247"/>
+      <c r="W71" s="248"/>
+      <c r="X71" s="249" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y71" s="302"/>
+      <c r="Z71" s="303"/>
+      <c r="AA71" s="312"/>
+      <c r="AB71" s="304"/>
+      <c r="AC71" s="304" t="s">
         <v>39</v>
       </c>
-      <c r="AC71" s="322" t="s">
+      <c r="AD71" s="304" t="s">
         <v>39</v>
       </c>
-      <c r="AD71" s="322" t="s">
+      <c r="AE71" s="304" t="s">
         <v>39</v>
       </c>
-      <c r="AE71" s="322" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF71" s="382"/>
-      <c r="AG71" s="390"/>
-    </row>
-    <row r="72" s="6" customFormat="1" ht="24" customHeight="1" spans="1:33">
+      <c r="AF71" s="304"/>
+      <c r="AG71" s="337"/>
+    </row>
+    <row r="72" s="6" customFormat="1" ht="21" customHeight="1" spans="1:33">
       <c r="A72" s="126"/>
       <c r="B72" s="164" t="s">
         <v>134</v>
@@ -8540,134 +8560,132 @@
       <c r="D72" s="166"/>
       <c r="E72" s="137"/>
       <c r="F72" s="138"/>
-      <c r="G72" s="363"/>
+      <c r="G72" s="139"/>
       <c r="H72" s="167" t="s">
         <v>135</v>
       </c>
-      <c r="I72" s="214"/>
-      <c r="J72" s="215"/>
-      <c r="K72" s="216" t="s">
-        <v>172</v>
-      </c>
-      <c r="L72" s="217"/>
-      <c r="M72" s="217"/>
-      <c r="N72" s="217"/>
-      <c r="O72" s="217"/>
-      <c r="P72" s="217"/>
-      <c r="Q72" s="287"/>
+      <c r="I72" s="209"/>
+      <c r="J72" s="210"/>
+      <c r="K72" s="211" t="s">
+        <v>171</v>
+      </c>
+      <c r="L72" s="212"/>
+      <c r="M72" s="212"/>
+      <c r="N72" s="212"/>
+      <c r="O72" s="212"/>
+      <c r="P72" s="212"/>
+      <c r="Q72" s="274"/>
       <c r="R72" s="167" t="s">
         <v>137</v>
       </c>
-      <c r="S72" s="214"/>
-      <c r="T72" s="215"/>
-      <c r="U72" s="269" t="s">
-        <v>146</v>
-      </c>
-      <c r="V72" s="265"/>
-      <c r="W72" s="266"/>
-      <c r="X72" s="370"/>
-      <c r="Y72" s="383"/>
-      <c r="Z72" s="384"/>
-      <c r="AA72" s="385"/>
-      <c r="AB72" s="325"/>
-      <c r="AC72" s="325"/>
-      <c r="AD72" s="325"/>
-      <c r="AE72" s="325"/>
-      <c r="AF72" s="385"/>
-      <c r="AG72" s="391"/>
-    </row>
-    <row r="73" s="6" customFormat="1" ht="13.5" customHeight="1" spans="1:33">
+      <c r="S72" s="209"/>
+      <c r="T72" s="210"/>
+      <c r="U72" s="256" t="s">
+        <v>172</v>
+      </c>
+      <c r="V72" s="252"/>
+      <c r="W72" s="253"/>
+      <c r="X72" s="254"/>
+      <c r="Y72" s="305"/>
+      <c r="Z72" s="306"/>
+      <c r="AA72" s="312"/>
+      <c r="AB72" s="307"/>
+      <c r="AC72" s="307"/>
+      <c r="AD72" s="307"/>
+      <c r="AE72" s="307"/>
+      <c r="AF72" s="307"/>
+      <c r="AG72" s="338"/>
+    </row>
+    <row r="73" s="6" customFormat="1" ht="12.5" customHeight="1" spans="1:33">
       <c r="A73" s="126"/>
-      <c r="B73" s="359">
-        <v>43252</v>
-      </c>
-      <c r="C73" s="360"/>
-      <c r="D73" s="361"/>
+      <c r="B73" s="156">
+        <v>43676</v>
+      </c>
+      <c r="C73" s="157"/>
+      <c r="D73" s="158"/>
       <c r="E73" s="137"/>
       <c r="F73" s="138"/>
-      <c r="G73" s="363"/>
-      <c r="H73" s="168" t="s">
+      <c r="G73" s="139"/>
+      <c r="H73" s="341" t="s">
         <v>139</v>
       </c>
-      <c r="I73" s="218"/>
-      <c r="J73" s="219"/>
-      <c r="K73" s="220" t="s">
+      <c r="I73" s="352"/>
+      <c r="J73" s="353"/>
+      <c r="K73" s="354" t="s">
         <v>173</v>
       </c>
-      <c r="L73" s="221"/>
-      <c r="M73" s="221"/>
-      <c r="N73" s="221"/>
-      <c r="O73" s="221"/>
-      <c r="P73" s="221"/>
-      <c r="Q73" s="288"/>
+      <c r="L73" s="355"/>
+      <c r="M73" s="355"/>
+      <c r="N73" s="355"/>
+      <c r="O73" s="355"/>
+      <c r="P73" s="355"/>
+      <c r="Q73" s="360"/>
       <c r="R73" s="167" t="s">
         <v>141</v>
       </c>
-      <c r="S73" s="214"/>
-      <c r="T73" s="215"/>
-      <c r="U73" s="269" t="s">
+      <c r="S73" s="209"/>
+      <c r="T73" s="210"/>
+      <c r="U73" s="256" t="s">
         <v>83</v>
       </c>
-      <c r="V73" s="265"/>
-      <c r="W73" s="266"/>
-      <c r="X73" s="371">
-        <v>2</v>
-      </c>
-      <c r="Y73" s="386"/>
-      <c r="Z73" s="384"/>
-      <c r="AA73" s="385"/>
-      <c r="AB73" s="325"/>
-      <c r="AC73" s="325"/>
-      <c r="AD73" s="325"/>
-      <c r="AE73" s="325"/>
-      <c r="AF73" s="385"/>
-      <c r="AG73" s="391"/>
-    </row>
-    <row r="74" s="6" customFormat="1" ht="22.05" customHeight="1" spans="1:33">
+      <c r="V73" s="252"/>
+      <c r="W73" s="253"/>
+      <c r="X73" s="257"/>
+      <c r="Y73" s="308"/>
+      <c r="Z73" s="306"/>
+      <c r="AA73" s="312"/>
+      <c r="AB73" s="307"/>
+      <c r="AC73" s="307"/>
+      <c r="AD73" s="307"/>
+      <c r="AE73" s="307"/>
+      <c r="AF73" s="307"/>
+      <c r="AG73" s="338"/>
+    </row>
+    <row r="74" s="6" customFormat="1" ht="37" customHeight="1" spans="1:33">
       <c r="A74" s="159"/>
-      <c r="B74" s="169"/>
-      <c r="C74" s="170"/>
-      <c r="D74" s="171"/>
+      <c r="B74" s="342"/>
+      <c r="C74" s="343"/>
+      <c r="D74" s="344"/>
       <c r="E74" s="148"/>
       <c r="F74" s="149"/>
-      <c r="G74" s="364"/>
-      <c r="H74" s="172"/>
-      <c r="I74" s="222"/>
-      <c r="J74" s="223"/>
-      <c r="K74" s="224"/>
-      <c r="L74" s="225"/>
-      <c r="M74" s="225"/>
-      <c r="N74" s="225"/>
-      <c r="O74" s="225"/>
-      <c r="P74" s="225"/>
-      <c r="Q74" s="289"/>
-      <c r="R74" s="290" t="s">
+      <c r="G74" s="150"/>
+      <c r="H74" s="345"/>
+      <c r="I74" s="356"/>
+      <c r="J74" s="357"/>
+      <c r="K74" s="358"/>
+      <c r="L74" s="359"/>
+      <c r="M74" s="359"/>
+      <c r="N74" s="359"/>
+      <c r="O74" s="359"/>
+      <c r="P74" s="359"/>
+      <c r="Q74" s="361"/>
+      <c r="R74" s="362" t="s">
         <v>142</v>
       </c>
-      <c r="S74" s="291"/>
-      <c r="T74" s="292"/>
-      <c r="U74" s="275" t="s">
-        <v>169</v>
-      </c>
-      <c r="V74" s="276"/>
-      <c r="W74" s="277"/>
-      <c r="X74" s="372"/>
-      <c r="Y74" s="387"/>
-      <c r="Z74" s="388"/>
-      <c r="AA74" s="389"/>
-      <c r="AB74" s="329"/>
-      <c r="AC74" s="329"/>
-      <c r="AD74" s="329"/>
-      <c r="AE74" s="329"/>
-      <c r="AF74" s="389"/>
-      <c r="AG74" s="392"/>
+      <c r="S74" s="363"/>
+      <c r="T74" s="364"/>
+      <c r="U74" s="269" t="s">
+        <v>174</v>
+      </c>
+      <c r="V74" s="263"/>
+      <c r="W74" s="264"/>
+      <c r="X74" s="265"/>
+      <c r="Y74" s="309"/>
+      <c r="Z74" s="310"/>
+      <c r="AA74" s="312"/>
+      <c r="AB74" s="311"/>
+      <c r="AC74" s="311"/>
+      <c r="AD74" s="311"/>
+      <c r="AE74" s="311"/>
+      <c r="AF74" s="311"/>
+      <c r="AG74" s="339"/>
     </row>
     <row r="75" s="6" customFormat="1" ht="12.5" customHeight="1" spans="1:33">
       <c r="A75" s="152">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B75" s="160">
-        <v>43115</v>
+        <v>43617</v>
       </c>
       <c r="C75" s="161"/>
       <c r="D75" s="162"/>
@@ -8676,55 +8694,55 @@
         <v>2</v>
       </c>
       <c r="F75" s="131">
-        <v>4</v>
-      </c>
-      <c r="G75" s="362" t="s">
+        <v>6</v>
+      </c>
+      <c r="G75" s="132" t="s">
         <v>129</v>
       </c>
       <c r="H75" s="163" t="s">
         <v>130</v>
       </c>
-      <c r="I75" s="210"/>
-      <c r="J75" s="211"/>
-      <c r="K75" s="212" t="s">
+      <c r="I75" s="205"/>
+      <c r="J75" s="206"/>
+      <c r="K75" s="207" t="s">
+        <v>33</v>
+      </c>
+      <c r="L75" s="208"/>
+      <c r="M75" s="208"/>
+      <c r="N75" s="208"/>
+      <c r="O75" s="208"/>
+      <c r="P75" s="208"/>
+      <c r="Q75" s="270"/>
+      <c r="R75" s="271" t="s">
+        <v>132</v>
+      </c>
+      <c r="S75" s="272"/>
+      <c r="T75" s="273"/>
+      <c r="U75" s="246" t="s">
         <v>170</v>
       </c>
-      <c r="L75" s="213"/>
-      <c r="M75" s="213"/>
-      <c r="N75" s="213"/>
-      <c r="O75" s="213"/>
-      <c r="P75" s="213"/>
-      <c r="Q75" s="283"/>
-      <c r="R75" s="284" t="s">
-        <v>132</v>
-      </c>
-      <c r="S75" s="285"/>
-      <c r="T75" s="286"/>
-      <c r="U75" s="365" t="s">
-        <v>38</v>
-      </c>
-      <c r="V75" s="366"/>
-      <c r="W75" s="367"/>
-      <c r="X75" s="369" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y75" s="380"/>
-      <c r="Z75" s="381"/>
-      <c r="AA75" s="382"/>
-      <c r="AB75" s="322"/>
-      <c r="AC75" s="322" t="s">
+      <c r="V75" s="247"/>
+      <c r="W75" s="248"/>
+      <c r="X75" s="249" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y75" s="302"/>
+      <c r="Z75" s="303"/>
+      <c r="AA75" s="312"/>
+      <c r="AB75" s="304"/>
+      <c r="AC75" s="304" t="s">
         <v>39</v>
       </c>
-      <c r="AD75" s="322" t="s">
+      <c r="AD75" s="304" t="s">
         <v>39</v>
       </c>
-      <c r="AE75" s="322" t="s">
+      <c r="AE75" s="304" t="s">
         <v>39</v>
       </c>
-      <c r="AF75" s="382"/>
-      <c r="AG75" s="390"/>
-    </row>
-    <row r="76" s="6" customFormat="1" ht="24" customHeight="1" spans="1:33">
+      <c r="AF75" s="304"/>
+      <c r="AG75" s="337"/>
+    </row>
+    <row r="76" s="6" customFormat="1" ht="12.5" customHeight="1" spans="1:33">
       <c r="A76" s="126"/>
       <c r="B76" s="164" t="s">
         <v>134</v>
@@ -8733,191 +8751,189 @@
       <c r="D76" s="166"/>
       <c r="E76" s="137"/>
       <c r="F76" s="138"/>
-      <c r="G76" s="363"/>
+      <c r="G76" s="139"/>
       <c r="H76" s="167" t="s">
         <v>135</v>
       </c>
-      <c r="I76" s="214"/>
-      <c r="J76" s="215"/>
-      <c r="K76" s="216" t="s">
-        <v>174</v>
-      </c>
-      <c r="L76" s="217"/>
-      <c r="M76" s="217"/>
-      <c r="N76" s="217"/>
-      <c r="O76" s="217"/>
-      <c r="P76" s="217"/>
-      <c r="Q76" s="287"/>
+      <c r="I76" s="209"/>
+      <c r="J76" s="210"/>
+      <c r="K76" s="211" t="s">
+        <v>171</v>
+      </c>
+      <c r="L76" s="212"/>
+      <c r="M76" s="212"/>
+      <c r="N76" s="212"/>
+      <c r="O76" s="212"/>
+      <c r="P76" s="212"/>
+      <c r="Q76" s="274"/>
       <c r="R76" s="167" t="s">
         <v>137</v>
       </c>
-      <c r="S76" s="214"/>
-      <c r="T76" s="215"/>
-      <c r="U76" s="373" t="s">
-        <v>146</v>
-      </c>
-      <c r="V76" s="374"/>
-      <c r="W76" s="375"/>
-      <c r="X76" s="370"/>
-      <c r="Y76" s="383"/>
-      <c r="Z76" s="384"/>
-      <c r="AA76" s="385"/>
-      <c r="AB76" s="325"/>
-      <c r="AC76" s="325"/>
-      <c r="AD76" s="325"/>
-      <c r="AE76" s="325"/>
-      <c r="AF76" s="385"/>
-      <c r="AG76" s="391"/>
-    </row>
-    <row r="77" s="6" customFormat="1" ht="13.5" customHeight="1" spans="1:33">
+      <c r="S76" s="209"/>
+      <c r="T76" s="210"/>
+      <c r="U76" s="256" t="s">
+        <v>172</v>
+      </c>
+      <c r="V76" s="252"/>
+      <c r="W76" s="253"/>
+      <c r="X76" s="254"/>
+      <c r="Y76" s="305"/>
+      <c r="Z76" s="306"/>
+      <c r="AA76" s="312"/>
+      <c r="AB76" s="307"/>
+      <c r="AC76" s="307"/>
+      <c r="AD76" s="307"/>
+      <c r="AE76" s="307"/>
+      <c r="AF76" s="307"/>
+      <c r="AG76" s="338"/>
+    </row>
+    <row r="77" s="6" customFormat="1" ht="12.5" customHeight="1" spans="1:33">
       <c r="A77" s="126"/>
-      <c r="B77" s="359">
-        <v>43146</v>
-      </c>
-      <c r="C77" s="360"/>
-      <c r="D77" s="361"/>
+      <c r="B77" s="156">
+        <v>43676</v>
+      </c>
+      <c r="C77" s="157"/>
+      <c r="D77" s="158"/>
       <c r="E77" s="137"/>
       <c r="F77" s="138"/>
-      <c r="G77" s="363"/>
-      <c r="H77" s="168" t="s">
+      <c r="G77" s="139"/>
+      <c r="H77" s="341" t="s">
         <v>139</v>
       </c>
-      <c r="I77" s="218"/>
-      <c r="J77" s="219"/>
-      <c r="K77" s="220" t="s">
-        <v>175</v>
-      </c>
-      <c r="L77" s="221"/>
-      <c r="M77" s="221"/>
-      <c r="N77" s="221"/>
-      <c r="O77" s="221"/>
-      <c r="P77" s="221"/>
-      <c r="Q77" s="288"/>
+      <c r="I77" s="352"/>
+      <c r="J77" s="353"/>
+      <c r="K77" s="354" t="s">
+        <v>173</v>
+      </c>
+      <c r="L77" s="355"/>
+      <c r="M77" s="355"/>
+      <c r="N77" s="355"/>
+      <c r="O77" s="355"/>
+      <c r="P77" s="355"/>
+      <c r="Q77" s="360"/>
       <c r="R77" s="167" t="s">
         <v>141</v>
       </c>
-      <c r="S77" s="214"/>
-      <c r="T77" s="215"/>
-      <c r="U77" s="269" t="s">
+      <c r="S77" s="209"/>
+      <c r="T77" s="210"/>
+      <c r="U77" s="256" t="s">
         <v>83</v>
       </c>
-      <c r="V77" s="265"/>
-      <c r="W77" s="266"/>
-      <c r="X77" s="371"/>
-      <c r="Y77" s="386"/>
-      <c r="Z77" s="384"/>
-      <c r="AA77" s="385"/>
-      <c r="AB77" s="325"/>
-      <c r="AC77" s="325"/>
-      <c r="AD77" s="325"/>
-      <c r="AE77" s="325"/>
-      <c r="AF77" s="385"/>
-      <c r="AG77" s="391"/>
-    </row>
-    <row r="78" s="6" customFormat="1" ht="13.5" customHeight="1" spans="1:33">
+      <c r="V77" s="252"/>
+      <c r="W77" s="253"/>
+      <c r="X77" s="257"/>
+      <c r="Y77" s="308"/>
+      <c r="Z77" s="306"/>
+      <c r="AA77" s="312"/>
+      <c r="AB77" s="307"/>
+      <c r="AC77" s="307"/>
+      <c r="AD77" s="307"/>
+      <c r="AE77" s="307"/>
+      <c r="AF77" s="307"/>
+      <c r="AG77" s="338"/>
+    </row>
+    <row r="78" s="6" customFormat="1" ht="12.5" customHeight="1" spans="1:33">
       <c r="A78" s="159"/>
-      <c r="B78" s="169"/>
-      <c r="C78" s="170"/>
-      <c r="D78" s="171"/>
+      <c r="B78" s="342"/>
+      <c r="C78" s="343"/>
+      <c r="D78" s="344"/>
       <c r="E78" s="148"/>
       <c r="F78" s="149"/>
-      <c r="G78" s="364"/>
-      <c r="H78" s="172"/>
-      <c r="I78" s="222"/>
-      <c r="J78" s="223"/>
-      <c r="K78" s="224"/>
-      <c r="L78" s="225"/>
-      <c r="M78" s="225"/>
-      <c r="N78" s="225"/>
-      <c r="O78" s="225"/>
-      <c r="P78" s="225"/>
-      <c r="Q78" s="289"/>
-      <c r="R78" s="290" t="s">
+      <c r="G78" s="150"/>
+      <c r="H78" s="345"/>
+      <c r="I78" s="356"/>
+      <c r="J78" s="357"/>
+      <c r="K78" s="358"/>
+      <c r="L78" s="359"/>
+      <c r="M78" s="359"/>
+      <c r="N78" s="359"/>
+      <c r="O78" s="359"/>
+      <c r="P78" s="359"/>
+      <c r="Q78" s="361"/>
+      <c r="R78" s="362" t="s">
         <v>142</v>
       </c>
-      <c r="S78" s="291"/>
-      <c r="T78" s="292"/>
-      <c r="U78" s="275" t="s">
-        <v>169</v>
-      </c>
-      <c r="V78" s="276"/>
-      <c r="W78" s="277"/>
-      <c r="X78" s="372"/>
-      <c r="Y78" s="387"/>
-      <c r="Z78" s="388"/>
-      <c r="AA78" s="389"/>
-      <c r="AB78" s="329"/>
-      <c r="AC78" s="329"/>
-      <c r="AD78" s="329"/>
-      <c r="AE78" s="329"/>
-      <c r="AF78" s="389"/>
-      <c r="AG78" s="392"/>
+      <c r="S78" s="363"/>
+      <c r="T78" s="364"/>
+      <c r="U78" s="269" t="s">
+        <v>174</v>
+      </c>
+      <c r="V78" s="263"/>
+      <c r="W78" s="264"/>
+      <c r="X78" s="265"/>
+      <c r="Y78" s="309"/>
+      <c r="Z78" s="310"/>
+      <c r="AA78" s="312"/>
+      <c r="AB78" s="311"/>
+      <c r="AC78" s="311"/>
+      <c r="AD78" s="311"/>
+      <c r="AE78" s="311"/>
+      <c r="AF78" s="311"/>
+      <c r="AG78" s="339"/>
     </row>
     <row r="79" s="6" customFormat="1" ht="12.5" customHeight="1" spans="1:33">
       <c r="A79" s="152">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B79" s="160">
-        <v>42931</v>
+        <v>43282</v>
       </c>
       <c r="C79" s="161"/>
       <c r="D79" s="162"/>
       <c r="E79" s="130">
         <f ca="1">IF(AND(B79&lt;&gt;"",B81&lt;&gt;""),DATEDIF(B79,B81,"M")+1,IF(AND(B79&lt;&gt;"",B81=""),DATEDIF(B79,TODAY(),"M")+1,""))</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F79" s="131">
-        <v>6</v>
-      </c>
-      <c r="G79" s="362" t="s">
+        <v>15</v>
+      </c>
+      <c r="G79" s="132" t="s">
         <v>129</v>
       </c>
       <c r="H79" s="163" t="s">
         <v>130</v>
       </c>
-      <c r="I79" s="210"/>
-      <c r="J79" s="211"/>
-      <c r="K79" s="212" t="s">
-        <v>170</v>
-      </c>
-      <c r="L79" s="213"/>
-      <c r="M79" s="213"/>
-      <c r="N79" s="213"/>
-      <c r="O79" s="213"/>
-      <c r="P79" s="213"/>
-      <c r="Q79" s="283"/>
-      <c r="R79" s="284" t="s">
+      <c r="I79" s="205"/>
+      <c r="J79" s="206"/>
+      <c r="K79" s="207" t="s">
+        <v>157</v>
+      </c>
+      <c r="L79" s="208"/>
+      <c r="M79" s="208"/>
+      <c r="N79" s="208"/>
+      <c r="O79" s="208"/>
+      <c r="P79" s="208"/>
+      <c r="Q79" s="270"/>
+      <c r="R79" s="271" t="s">
         <v>132</v>
       </c>
-      <c r="S79" s="285"/>
-      <c r="T79" s="286"/>
+      <c r="S79" s="272"/>
+      <c r="T79" s="273"/>
       <c r="U79" s="365" t="s">
         <v>38</v>
       </c>
       <c r="V79" s="366"/>
       <c r="W79" s="367"/>
-      <c r="X79" s="369" t="s">
-        <v>171</v>
-      </c>
-      <c r="Y79" s="380"/>
-      <c r="Z79" s="381"/>
-      <c r="AA79" s="382"/>
-      <c r="AB79" s="322" t="s">
+      <c r="X79" s="368" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y79" s="379"/>
+      <c r="Z79" s="306"/>
+      <c r="AA79" s="312"/>
+      <c r="AB79" s="304"/>
+      <c r="AC79" s="304" t="s">
         <v>39</v>
       </c>
-      <c r="AC79" s="322" t="s">
+      <c r="AD79" s="304" t="s">
         <v>39</v>
       </c>
-      <c r="AD79" s="322" t="s">
+      <c r="AE79" s="304" t="s">
         <v>39</v>
       </c>
-      <c r="AE79" s="322" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF79" s="382"/>
-      <c r="AG79" s="390"/>
-    </row>
-    <row r="80" s="6" customFormat="1" ht="26" customHeight="1" spans="1:33">
+      <c r="AF79" s="307"/>
+      <c r="AG79" s="338"/>
+    </row>
+    <row r="80" s="6" customFormat="1" ht="12" spans="1:33">
       <c r="A80" s="126"/>
       <c r="B80" s="164" t="s">
         <v>134</v>
@@ -8926,193 +8942,191 @@
       <c r="D80" s="166"/>
       <c r="E80" s="137"/>
       <c r="F80" s="138"/>
-      <c r="G80" s="363"/>
+      <c r="G80" s="139"/>
       <c r="H80" s="167" t="s">
         <v>135</v>
       </c>
-      <c r="I80" s="214"/>
-      <c r="J80" s="215"/>
-      <c r="K80" s="216" t="s">
-        <v>176</v>
-      </c>
-      <c r="L80" s="217"/>
-      <c r="M80" s="217"/>
-      <c r="N80" s="217"/>
-      <c r="O80" s="217"/>
-      <c r="P80" s="217"/>
-      <c r="Q80" s="287"/>
+      <c r="I80" s="209"/>
+      <c r="J80" s="210"/>
+      <c r="K80" s="211" t="s">
+        <v>175</v>
+      </c>
+      <c r="L80" s="212"/>
+      <c r="M80" s="212"/>
+      <c r="N80" s="212"/>
+      <c r="O80" s="212"/>
+      <c r="P80" s="212"/>
+      <c r="Q80" s="274"/>
       <c r="R80" s="167" t="s">
         <v>137</v>
       </c>
-      <c r="S80" s="214"/>
-      <c r="T80" s="215"/>
-      <c r="U80" s="373" t="s">
+      <c r="S80" s="209"/>
+      <c r="T80" s="210"/>
+      <c r="U80" s="256" t="s">
         <v>146</v>
       </c>
-      <c r="V80" s="374"/>
-      <c r="W80" s="375"/>
-      <c r="X80" s="370"/>
-      <c r="Y80" s="383"/>
-      <c r="Z80" s="384"/>
-      <c r="AA80" s="385"/>
-      <c r="AB80" s="325"/>
-      <c r="AC80" s="325"/>
-      <c r="AD80" s="325"/>
-      <c r="AE80" s="325"/>
-      <c r="AF80" s="385"/>
-      <c r="AG80" s="391"/>
+      <c r="V80" s="252"/>
+      <c r="W80" s="253"/>
+      <c r="X80" s="254"/>
+      <c r="Y80" s="305"/>
+      <c r="Z80" s="306"/>
+      <c r="AA80" s="312"/>
+      <c r="AB80" s="307"/>
+      <c r="AC80" s="307"/>
+      <c r="AD80" s="307"/>
+      <c r="AE80" s="307"/>
+      <c r="AF80" s="307"/>
+      <c r="AG80" s="338"/>
     </row>
     <row r="81" s="6" customFormat="1" ht="13.5" customHeight="1" spans="1:33">
       <c r="A81" s="126"/>
-      <c r="B81" s="359">
-        <v>43099</v>
-      </c>
-      <c r="C81" s="360"/>
-      <c r="D81" s="361"/>
+      <c r="B81" s="346">
+        <v>43646</v>
+      </c>
+      <c r="C81" s="347"/>
+      <c r="D81" s="348"/>
       <c r="E81" s="137"/>
       <c r="F81" s="138"/>
-      <c r="G81" s="363"/>
-      <c r="H81" s="168" t="s">
+      <c r="G81" s="139"/>
+      <c r="H81" s="341" t="s">
         <v>139</v>
       </c>
-      <c r="I81" s="218"/>
-      <c r="J81" s="219"/>
-      <c r="K81" s="220" t="s">
-        <v>177</v>
-      </c>
-      <c r="L81" s="221"/>
-      <c r="M81" s="221"/>
-      <c r="N81" s="221"/>
-      <c r="O81" s="221"/>
-      <c r="P81" s="221"/>
-      <c r="Q81" s="288"/>
+      <c r="I81" s="352"/>
+      <c r="J81" s="353"/>
+      <c r="K81" s="354" t="s">
+        <v>176</v>
+      </c>
+      <c r="L81" s="355"/>
+      <c r="M81" s="355"/>
+      <c r="N81" s="355"/>
+      <c r="O81" s="355"/>
+      <c r="P81" s="355"/>
+      <c r="Q81" s="360"/>
       <c r="R81" s="167" t="s">
         <v>141</v>
       </c>
-      <c r="S81" s="214"/>
-      <c r="T81" s="215"/>
-      <c r="U81" s="269" t="s">
+      <c r="S81" s="209"/>
+      <c r="T81" s="210"/>
+      <c r="U81" s="256" t="s">
         <v>83</v>
       </c>
-      <c r="V81" s="265"/>
-      <c r="W81" s="266"/>
-      <c r="X81" s="371">
-        <v>1</v>
-      </c>
-      <c r="Y81" s="386"/>
-      <c r="Z81" s="384"/>
-      <c r="AA81" s="385"/>
-      <c r="AB81" s="325"/>
-      <c r="AC81" s="325"/>
-      <c r="AD81" s="325"/>
-      <c r="AE81" s="325"/>
-      <c r="AF81" s="385"/>
-      <c r="AG81" s="391"/>
-    </row>
-    <row r="82" s="6" customFormat="1" ht="22.05" customHeight="1" spans="1:33">
+      <c r="V81" s="252"/>
+      <c r="W81" s="253"/>
+      <c r="X81" s="257"/>
+      <c r="Y81" s="308"/>
+      <c r="Z81" s="306"/>
+      <c r="AA81" s="312"/>
+      <c r="AB81" s="307"/>
+      <c r="AC81" s="307"/>
+      <c r="AD81" s="307"/>
+      <c r="AE81" s="307"/>
+      <c r="AF81" s="307"/>
+      <c r="AG81" s="338"/>
+    </row>
+    <row r="82" s="6" customFormat="1" ht="30" customHeight="1" spans="1:33">
       <c r="A82" s="159"/>
-      <c r="B82" s="169"/>
-      <c r="C82" s="170"/>
-      <c r="D82" s="171"/>
+      <c r="B82" s="342"/>
+      <c r="C82" s="343"/>
+      <c r="D82" s="344"/>
       <c r="E82" s="148"/>
       <c r="F82" s="149"/>
-      <c r="G82" s="364"/>
-      <c r="H82" s="172"/>
-      <c r="I82" s="222"/>
-      <c r="J82" s="223"/>
-      <c r="K82" s="224"/>
-      <c r="L82" s="225"/>
-      <c r="M82" s="225"/>
-      <c r="N82" s="225"/>
-      <c r="O82" s="225"/>
-      <c r="P82" s="225"/>
-      <c r="Q82" s="289"/>
-      <c r="R82" s="290" t="s">
+      <c r="G82" s="150"/>
+      <c r="H82" s="345"/>
+      <c r="I82" s="356"/>
+      <c r="J82" s="357"/>
+      <c r="K82" s="358"/>
+      <c r="L82" s="359"/>
+      <c r="M82" s="359"/>
+      <c r="N82" s="359"/>
+      <c r="O82" s="359"/>
+      <c r="P82" s="359"/>
+      <c r="Q82" s="361"/>
+      <c r="R82" s="362" t="s">
         <v>142</v>
       </c>
-      <c r="S82" s="291"/>
-      <c r="T82" s="292"/>
-      <c r="U82" s="275" t="s">
-        <v>169</v>
-      </c>
-      <c r="V82" s="276"/>
-      <c r="W82" s="277"/>
-      <c r="X82" s="372"/>
-      <c r="Y82" s="387"/>
-      <c r="Z82" s="388"/>
-      <c r="AA82" s="389"/>
-      <c r="AB82" s="329"/>
-      <c r="AC82" s="329"/>
-      <c r="AD82" s="329"/>
-      <c r="AE82" s="329"/>
-      <c r="AF82" s="389"/>
-      <c r="AG82" s="392"/>
+      <c r="S82" s="363"/>
+      <c r="T82" s="364"/>
+      <c r="U82" s="262" t="s">
+        <v>177</v>
+      </c>
+      <c r="V82" s="263"/>
+      <c r="W82" s="264"/>
+      <c r="X82" s="265"/>
+      <c r="Y82" s="309"/>
+      <c r="Z82" s="310"/>
+      <c r="AA82" s="312"/>
+      <c r="AB82" s="311"/>
+      <c r="AC82" s="311"/>
+      <c r="AD82" s="311"/>
+      <c r="AE82" s="311"/>
+      <c r="AF82" s="311"/>
+      <c r="AG82" s="339"/>
     </row>
     <row r="83" s="6" customFormat="1" ht="12.5" customHeight="1" spans="1:33">
       <c r="A83" s="152">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B83" s="160">
-        <v>42491</v>
+        <v>43174</v>
       </c>
       <c r="C83" s="161"/>
       <c r="D83" s="162"/>
       <c r="E83" s="130">
         <f ca="1">IF(AND(B83&lt;&gt;"",B85&lt;&gt;""),DATEDIF(B83,B85,"M")+1,IF(AND(B83&lt;&gt;"",B85=""),DATEDIF(B83,TODAY(),"M")+1,""))</f>
-        <v>14</v>
-      </c>
-      <c r="F83" s="130">
-        <v>10</v>
-      </c>
-      <c r="G83" s="362" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="131">
+        <v>8</v>
+      </c>
+      <c r="G83" s="349" t="s">
         <v>129</v>
       </c>
       <c r="H83" s="163" t="s">
         <v>130</v>
       </c>
-      <c r="I83" s="210"/>
-      <c r="J83" s="211"/>
-      <c r="K83" s="212" t="s">
-        <v>170</v>
-      </c>
-      <c r="L83" s="213"/>
-      <c r="M83" s="213"/>
-      <c r="N83" s="213"/>
-      <c r="O83" s="213"/>
-      <c r="P83" s="213"/>
-      <c r="Q83" s="283"/>
-      <c r="R83" s="284" t="s">
+      <c r="I83" s="205"/>
+      <c r="J83" s="206"/>
+      <c r="K83" s="207" t="s">
+        <v>178</v>
+      </c>
+      <c r="L83" s="208"/>
+      <c r="M83" s="208"/>
+      <c r="N83" s="208"/>
+      <c r="O83" s="208"/>
+      <c r="P83" s="208"/>
+      <c r="Q83" s="270"/>
+      <c r="R83" s="271" t="s">
         <v>132</v>
       </c>
-      <c r="S83" s="285"/>
-      <c r="T83" s="286"/>
+      <c r="S83" s="272"/>
+      <c r="T83" s="273"/>
       <c r="U83" s="365" t="s">
         <v>38</v>
       </c>
       <c r="V83" s="366"/>
       <c r="W83" s="367"/>
       <c r="X83" s="369" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="Y83" s="380"/>
       <c r="Z83" s="381"/>
       <c r="AA83" s="382"/>
-      <c r="AB83" s="322" t="s">
+      <c r="AB83" s="304" t="s">
         <v>39</v>
       </c>
-      <c r="AC83" s="322" t="s">
+      <c r="AC83" s="304" t="s">
         <v>39</v>
       </c>
-      <c r="AD83" s="322" t="s">
+      <c r="AD83" s="304" t="s">
         <v>39</v>
       </c>
-      <c r="AE83" s="322" t="s">
+      <c r="AE83" s="304" t="s">
         <v>39</v>
       </c>
       <c r="AF83" s="382"/>
       <c r="AG83" s="390"/>
     </row>
-    <row r="84" s="6" customFormat="1" ht="23" customHeight="1" spans="1:33">
+    <row r="84" s="6" customFormat="1" ht="24" customHeight="1" spans="1:33">
       <c r="A84" s="126"/>
       <c r="B84" s="164" t="s">
         <v>134</v>
@@ -9120,192 +9134,192 @@
       <c r="C84" s="165"/>
       <c r="D84" s="166"/>
       <c r="E84" s="137"/>
-      <c r="F84" s="137"/>
-      <c r="G84" s="363"/>
+      <c r="F84" s="138"/>
+      <c r="G84" s="350"/>
       <c r="H84" s="167" t="s">
         <v>135</v>
       </c>
-      <c r="I84" s="214"/>
-      <c r="J84" s="215"/>
-      <c r="K84" s="216" t="s">
-        <v>178</v>
-      </c>
-      <c r="L84" s="217"/>
-      <c r="M84" s="217"/>
-      <c r="N84" s="217"/>
-      <c r="O84" s="217"/>
-      <c r="P84" s="217"/>
-      <c r="Q84" s="287"/>
+      <c r="I84" s="209"/>
+      <c r="J84" s="210"/>
+      <c r="K84" s="211" t="s">
+        <v>180</v>
+      </c>
+      <c r="L84" s="212"/>
+      <c r="M84" s="212"/>
+      <c r="N84" s="212"/>
+      <c r="O84" s="212"/>
+      <c r="P84" s="212"/>
+      <c r="Q84" s="274"/>
       <c r="R84" s="167" t="s">
         <v>137</v>
       </c>
-      <c r="S84" s="214"/>
-      <c r="T84" s="215"/>
-      <c r="U84" s="373" t="s">
+      <c r="S84" s="209"/>
+      <c r="T84" s="210"/>
+      <c r="U84" s="256" t="s">
         <v>146</v>
       </c>
-      <c r="V84" s="374"/>
-      <c r="W84" s="375"/>
+      <c r="V84" s="252"/>
+      <c r="W84" s="253"/>
       <c r="X84" s="370"/>
       <c r="Y84" s="383"/>
       <c r="Z84" s="384"/>
       <c r="AA84" s="385"/>
-      <c r="AB84" s="325"/>
-      <c r="AC84" s="325"/>
-      <c r="AD84" s="325"/>
-      <c r="AE84" s="325"/>
+      <c r="AB84" s="307"/>
+      <c r="AC84" s="307"/>
+      <c r="AD84" s="307"/>
+      <c r="AE84" s="307"/>
       <c r="AF84" s="385"/>
       <c r="AG84" s="391"/>
     </row>
     <row r="85" s="6" customFormat="1" ht="13.5" customHeight="1" spans="1:33">
       <c r="A85" s="126"/>
-      <c r="B85" s="359">
-        <v>42887</v>
-      </c>
-      <c r="C85" s="360"/>
-      <c r="D85" s="361"/>
+      <c r="B85" s="346">
+        <v>43252</v>
+      </c>
+      <c r="C85" s="347"/>
+      <c r="D85" s="348"/>
       <c r="E85" s="137"/>
-      <c r="F85" s="137"/>
-      <c r="G85" s="363"/>
-      <c r="H85" s="168" t="s">
+      <c r="F85" s="138"/>
+      <c r="G85" s="350"/>
+      <c r="H85" s="341" t="s">
         <v>139</v>
       </c>
-      <c r="I85" s="218"/>
-      <c r="J85" s="219"/>
-      <c r="K85" s="220" t="s">
-        <v>179</v>
-      </c>
-      <c r="L85" s="221"/>
-      <c r="M85" s="221"/>
-      <c r="N85" s="221"/>
-      <c r="O85" s="221"/>
-      <c r="P85" s="221"/>
-      <c r="Q85" s="288"/>
+      <c r="I85" s="352"/>
+      <c r="J85" s="353"/>
+      <c r="K85" s="354" t="s">
+        <v>181</v>
+      </c>
+      <c r="L85" s="355"/>
+      <c r="M85" s="355"/>
+      <c r="N85" s="355"/>
+      <c r="O85" s="355"/>
+      <c r="P85" s="355"/>
+      <c r="Q85" s="360"/>
       <c r="R85" s="167" t="s">
         <v>141</v>
       </c>
-      <c r="S85" s="214"/>
-      <c r="T85" s="215"/>
-      <c r="U85" s="269" t="s">
+      <c r="S85" s="209"/>
+      <c r="T85" s="210"/>
+      <c r="U85" s="256" t="s">
         <v>83</v>
       </c>
-      <c r="V85" s="265"/>
-      <c r="W85" s="266"/>
-      <c r="X85" s="371"/>
+      <c r="V85" s="252"/>
+      <c r="W85" s="253"/>
+      <c r="X85" s="371">
+        <v>2</v>
+      </c>
       <c r="Y85" s="386"/>
       <c r="Z85" s="384"/>
       <c r="AA85" s="385"/>
-      <c r="AB85" s="325"/>
-      <c r="AC85" s="325"/>
-      <c r="AD85" s="325"/>
-      <c r="AE85" s="325"/>
+      <c r="AB85" s="307"/>
+      <c r="AC85" s="307"/>
+      <c r="AD85" s="307"/>
+      <c r="AE85" s="307"/>
       <c r="AF85" s="385"/>
       <c r="AG85" s="391"/>
     </row>
-    <row r="86" s="6" customFormat="1" ht="44" customHeight="1" spans="1:33">
+    <row r="86" s="6" customFormat="1" ht="22.05" customHeight="1" spans="1:33">
       <c r="A86" s="159"/>
-      <c r="B86" s="169"/>
-      <c r="C86" s="170"/>
-      <c r="D86" s="171"/>
+      <c r="B86" s="342"/>
+      <c r="C86" s="343"/>
+      <c r="D86" s="344"/>
       <c r="E86" s="148"/>
-      <c r="F86" s="148"/>
-      <c r="G86" s="364"/>
-      <c r="H86" s="172"/>
-      <c r="I86" s="222"/>
-      <c r="J86" s="223"/>
-      <c r="K86" s="224"/>
-      <c r="L86" s="225"/>
-      <c r="M86" s="225"/>
-      <c r="N86" s="225"/>
-      <c r="O86" s="225"/>
-      <c r="P86" s="225"/>
-      <c r="Q86" s="289"/>
-      <c r="R86" s="290" t="s">
+      <c r="F86" s="149"/>
+      <c r="G86" s="351"/>
+      <c r="H86" s="345"/>
+      <c r="I86" s="356"/>
+      <c r="J86" s="357"/>
+      <c r="K86" s="358"/>
+      <c r="L86" s="359"/>
+      <c r="M86" s="359"/>
+      <c r="N86" s="359"/>
+      <c r="O86" s="359"/>
+      <c r="P86" s="359"/>
+      <c r="Q86" s="361"/>
+      <c r="R86" s="362" t="s">
         <v>142</v>
       </c>
-      <c r="S86" s="291"/>
-      <c r="T86" s="292"/>
-      <c r="U86" s="275" t="s">
-        <v>180</v>
-      </c>
-      <c r="V86" s="276"/>
-      <c r="W86" s="277"/>
+      <c r="S86" s="363"/>
+      <c r="T86" s="364"/>
+      <c r="U86" s="262" t="s">
+        <v>177</v>
+      </c>
+      <c r="V86" s="263"/>
+      <c r="W86" s="264"/>
       <c r="X86" s="372"/>
       <c r="Y86" s="387"/>
       <c r="Z86" s="388"/>
       <c r="AA86" s="389"/>
-      <c r="AB86" s="329"/>
-      <c r="AC86" s="329"/>
-      <c r="AD86" s="329"/>
-      <c r="AE86" s="329"/>
+      <c r="AB86" s="311"/>
+      <c r="AC86" s="311"/>
+      <c r="AD86" s="311"/>
+      <c r="AE86" s="311"/>
       <c r="AF86" s="389"/>
       <c r="AG86" s="392"/>
     </row>
     <row r="87" s="6" customFormat="1" ht="12.5" customHeight="1" spans="1:33">
       <c r="A87" s="152">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B87" s="160">
-        <v>41883</v>
+        <v>43115</v>
       </c>
       <c r="C87" s="161"/>
       <c r="D87" s="162"/>
       <c r="E87" s="130">
         <f ca="1">IF(AND(B87&lt;&gt;"",B89&lt;&gt;""),DATEDIF(B87,B89,"M")+1,IF(AND(B87&lt;&gt;"",B89=""),DATEDIF(B87,TODAY(),"M")+1,""))</f>
-        <v>19</v>
-      </c>
-      <c r="F87" s="130">
-        <v>15</v>
-      </c>
-      <c r="G87" s="362" t="s">
+        <v>2</v>
+      </c>
+      <c r="F87" s="131">
+        <v>4</v>
+      </c>
+      <c r="G87" s="349" t="s">
         <v>129</v>
       </c>
       <c r="H87" s="163" t="s">
         <v>130</v>
       </c>
-      <c r="I87" s="210"/>
-      <c r="J87" s="211"/>
-      <c r="K87" s="212" t="s">
-        <v>154</v>
-      </c>
-      <c r="L87" s="213"/>
-      <c r="M87" s="213"/>
-      <c r="N87" s="213"/>
-      <c r="O87" s="213"/>
-      <c r="P87" s="213"/>
-      <c r="Q87" s="283"/>
-      <c r="R87" s="284" t="s">
+      <c r="I87" s="205"/>
+      <c r="J87" s="206"/>
+      <c r="K87" s="207" t="s">
+        <v>178</v>
+      </c>
+      <c r="L87" s="208"/>
+      <c r="M87" s="208"/>
+      <c r="N87" s="208"/>
+      <c r="O87" s="208"/>
+      <c r="P87" s="208"/>
+      <c r="Q87" s="270"/>
+      <c r="R87" s="271" t="s">
         <v>132</v>
       </c>
-      <c r="S87" s="285"/>
-      <c r="T87" s="286"/>
+      <c r="S87" s="272"/>
+      <c r="T87" s="273"/>
       <c r="U87" s="365" t="s">
         <v>38</v>
       </c>
       <c r="V87" s="366"/>
       <c r="W87" s="367"/>
       <c r="X87" s="369" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="Y87" s="380"/>
       <c r="Z87" s="381"/>
       <c r="AA87" s="382"/>
-      <c r="AB87" s="322" t="s">
+      <c r="AB87" s="304"/>
+      <c r="AC87" s="304" t="s">
         <v>39</v>
       </c>
-      <c r="AC87" s="322" t="s">
+      <c r="AD87" s="304" t="s">
         <v>39</v>
       </c>
-      <c r="AD87" s="322" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE87" s="322" t="s">
+      <c r="AE87" s="304" t="s">
         <v>39</v>
       </c>
       <c r="AF87" s="382"/>
       <c r="AG87" s="390"/>
     </row>
-    <row r="88" s="6" customFormat="1" ht="23" customHeight="1" spans="1:33">
+    <row r="88" s="6" customFormat="1" ht="24" customHeight="1" spans="1:33">
       <c r="A88" s="126"/>
       <c r="B88" s="164" t="s">
         <v>134</v>
@@ -9313,188 +9327,192 @@
       <c r="C88" s="165"/>
       <c r="D88" s="166"/>
       <c r="E88" s="137"/>
-      <c r="F88" s="137"/>
-      <c r="G88" s="363"/>
+      <c r="F88" s="138"/>
+      <c r="G88" s="350"/>
       <c r="H88" s="167" t="s">
         <v>135</v>
       </c>
-      <c r="I88" s="214"/>
-      <c r="J88" s="215"/>
-      <c r="K88" s="216" t="s">
-        <v>181</v>
-      </c>
-      <c r="L88" s="217"/>
-      <c r="M88" s="217"/>
-      <c r="N88" s="217"/>
-      <c r="O88" s="217"/>
-      <c r="P88" s="217"/>
-      <c r="Q88" s="287"/>
+      <c r="I88" s="209"/>
+      <c r="J88" s="210"/>
+      <c r="K88" s="211" t="s">
+        <v>182</v>
+      </c>
+      <c r="L88" s="212"/>
+      <c r="M88" s="212"/>
+      <c r="N88" s="212"/>
+      <c r="O88" s="212"/>
+      <c r="P88" s="212"/>
+      <c r="Q88" s="274"/>
       <c r="R88" s="167" t="s">
         <v>137</v>
       </c>
-      <c r="S88" s="214"/>
-      <c r="T88" s="215"/>
-      <c r="U88" s="269" t="s">
+      <c r="S88" s="209"/>
+      <c r="T88" s="210"/>
+      <c r="U88" s="373" t="s">
         <v>146</v>
       </c>
-      <c r="V88" s="265"/>
-      <c r="W88" s="266"/>
+      <c r="V88" s="374"/>
+      <c r="W88" s="375"/>
       <c r="X88" s="370"/>
       <c r="Y88" s="383"/>
       <c r="Z88" s="384"/>
       <c r="AA88" s="385"/>
-      <c r="AB88" s="325"/>
-      <c r="AC88" s="325"/>
-      <c r="AD88" s="325"/>
-      <c r="AE88" s="325"/>
+      <c r="AB88" s="307"/>
+      <c r="AC88" s="307"/>
+      <c r="AD88" s="307"/>
+      <c r="AE88" s="307"/>
       <c r="AF88" s="385"/>
       <c r="AG88" s="391"/>
     </row>
     <row r="89" s="6" customFormat="1" ht="13.5" customHeight="1" spans="1:33">
       <c r="A89" s="126"/>
-      <c r="B89" s="359">
-        <v>42430</v>
-      </c>
-      <c r="C89" s="360"/>
-      <c r="D89" s="361"/>
+      <c r="B89" s="346">
+        <v>43146</v>
+      </c>
+      <c r="C89" s="347"/>
+      <c r="D89" s="348"/>
       <c r="E89" s="137"/>
-      <c r="F89" s="137"/>
-      <c r="G89" s="363"/>
-      <c r="H89" s="168" t="s">
+      <c r="F89" s="138"/>
+      <c r="G89" s="350"/>
+      <c r="H89" s="341" t="s">
         <v>139</v>
       </c>
-      <c r="I89" s="218"/>
-      <c r="J89" s="219"/>
-      <c r="K89" s="220" t="s">
-        <v>182</v>
-      </c>
-      <c r="L89" s="221"/>
-      <c r="M89" s="221"/>
-      <c r="N89" s="221"/>
-      <c r="O89" s="221"/>
-      <c r="P89" s="221"/>
-      <c r="Q89" s="288"/>
+      <c r="I89" s="352"/>
+      <c r="J89" s="353"/>
+      <c r="K89" s="354" t="s">
+        <v>183</v>
+      </c>
+      <c r="L89" s="355"/>
+      <c r="M89" s="355"/>
+      <c r="N89" s="355"/>
+      <c r="O89" s="355"/>
+      <c r="P89" s="355"/>
+      <c r="Q89" s="360"/>
       <c r="R89" s="167" t="s">
         <v>141</v>
       </c>
-      <c r="S89" s="214"/>
-      <c r="T89" s="215"/>
-      <c r="U89" s="269" t="s">
+      <c r="S89" s="209"/>
+      <c r="T89" s="210"/>
+      <c r="U89" s="256" t="s">
         <v>83</v>
       </c>
-      <c r="V89" s="265"/>
-      <c r="W89" s="266"/>
+      <c r="V89" s="252"/>
+      <c r="W89" s="253"/>
       <c r="X89" s="371"/>
       <c r="Y89" s="386"/>
       <c r="Z89" s="384"/>
       <c r="AA89" s="385"/>
-      <c r="AB89" s="325"/>
-      <c r="AC89" s="325"/>
-      <c r="AD89" s="325"/>
-      <c r="AE89" s="325"/>
+      <c r="AB89" s="307"/>
+      <c r="AC89" s="307"/>
+      <c r="AD89" s="307"/>
+      <c r="AE89" s="307"/>
       <c r="AF89" s="385"/>
       <c r="AG89" s="391"/>
     </row>
-    <row r="90" s="6" customFormat="1" ht="56" customHeight="1" spans="1:33">
+    <row r="90" s="6" customFormat="1" ht="13.5" customHeight="1" spans="1:33">
       <c r="A90" s="159"/>
-      <c r="B90" s="169"/>
-      <c r="C90" s="170"/>
-      <c r="D90" s="171"/>
+      <c r="B90" s="342"/>
+      <c r="C90" s="343"/>
+      <c r="D90" s="344"/>
       <c r="E90" s="148"/>
-      <c r="F90" s="148"/>
-      <c r="G90" s="364"/>
-      <c r="H90" s="172"/>
-      <c r="I90" s="222"/>
-      <c r="J90" s="223"/>
-      <c r="K90" s="224"/>
-      <c r="L90" s="225"/>
-      <c r="M90" s="225"/>
-      <c r="N90" s="225"/>
-      <c r="O90" s="225"/>
-      <c r="P90" s="225"/>
-      <c r="Q90" s="289"/>
-      <c r="R90" s="290" t="s">
+      <c r="F90" s="149"/>
+      <c r="G90" s="351"/>
+      <c r="H90" s="345"/>
+      <c r="I90" s="356"/>
+      <c r="J90" s="357"/>
+      <c r="K90" s="358"/>
+      <c r="L90" s="359"/>
+      <c r="M90" s="359"/>
+      <c r="N90" s="359"/>
+      <c r="O90" s="359"/>
+      <c r="P90" s="359"/>
+      <c r="Q90" s="361"/>
+      <c r="R90" s="362" t="s">
         <v>142</v>
       </c>
-      <c r="S90" s="291"/>
-      <c r="T90" s="292"/>
-      <c r="U90" s="275" t="s">
-        <v>183</v>
-      </c>
-      <c r="V90" s="276"/>
-      <c r="W90" s="277"/>
+      <c r="S90" s="363"/>
+      <c r="T90" s="364"/>
+      <c r="U90" s="262" t="s">
+        <v>177</v>
+      </c>
+      <c r="V90" s="263"/>
+      <c r="W90" s="264"/>
       <c r="X90" s="372"/>
       <c r="Y90" s="387"/>
       <c r="Z90" s="388"/>
       <c r="AA90" s="389"/>
-      <c r="AB90" s="329"/>
-      <c r="AC90" s="329"/>
-      <c r="AD90" s="329"/>
-      <c r="AE90" s="329"/>
+      <c r="AB90" s="311"/>
+      <c r="AC90" s="311"/>
+      <c r="AD90" s="311"/>
+      <c r="AE90" s="311"/>
       <c r="AF90" s="389"/>
       <c r="AG90" s="392"/>
     </row>
     <row r="91" s="6" customFormat="1" ht="12.5" customHeight="1" spans="1:33">
       <c r="A91" s="152">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B91" s="160">
-        <v>41640</v>
+        <v>42931</v>
       </c>
       <c r="C91" s="161"/>
       <c r="D91" s="162"/>
       <c r="E91" s="130">
         <f ca="1">IF(AND(B91&lt;&gt;"",B93&lt;&gt;""),DATEDIF(B91,B93,"M")+1,IF(AND(B91&lt;&gt;"",B93=""),DATEDIF(B91,TODAY(),"M")+1,""))</f>
-        <v>4</v>
-      </c>
-      <c r="F91" s="130">
-        <v>10</v>
-      </c>
-      <c r="G91" s="362" t="s">
+        <v>6</v>
+      </c>
+      <c r="F91" s="131">
+        <v>6</v>
+      </c>
+      <c r="G91" s="349" t="s">
         <v>129</v>
       </c>
       <c r="H91" s="163" t="s">
         <v>130</v>
       </c>
-      <c r="I91" s="210"/>
-      <c r="J91" s="211"/>
-      <c r="K91" s="212" t="s">
-        <v>184</v>
-      </c>
-      <c r="L91" s="213"/>
-      <c r="M91" s="213"/>
-      <c r="N91" s="213"/>
-      <c r="O91" s="213"/>
-      <c r="P91" s="213"/>
-      <c r="Q91" s="283"/>
-      <c r="R91" s="284" t="s">
+      <c r="I91" s="205"/>
+      <c r="J91" s="206"/>
+      <c r="K91" s="207" t="s">
+        <v>178</v>
+      </c>
+      <c r="L91" s="208"/>
+      <c r="M91" s="208"/>
+      <c r="N91" s="208"/>
+      <c r="O91" s="208"/>
+      <c r="P91" s="208"/>
+      <c r="Q91" s="270"/>
+      <c r="R91" s="271" t="s">
         <v>132</v>
       </c>
-      <c r="S91" s="285"/>
-      <c r="T91" s="286"/>
+      <c r="S91" s="272"/>
+      <c r="T91" s="273"/>
       <c r="U91" s="365" t="s">
         <v>38</v>
       </c>
       <c r="V91" s="366"/>
       <c r="W91" s="367"/>
       <c r="X91" s="369" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c r="Y91" s="380"/>
       <c r="Z91" s="381"/>
       <c r="AA91" s="382"/>
-      <c r="AB91" s="382"/>
-      <c r="AC91" s="322" t="s">
+      <c r="AB91" s="304" t="s">
         <v>39</v>
       </c>
-      <c r="AD91" s="322" t="s">
+      <c r="AC91" s="304" t="s">
         <v>39</v>
       </c>
-      <c r="AE91" s="382"/>
+      <c r="AD91" s="304" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE91" s="304" t="s">
+        <v>39</v>
+      </c>
       <c r="AF91" s="382"/>
       <c r="AG91" s="390"/>
     </row>
-    <row r="92" s="6" customFormat="1" ht="12" spans="1:33">
+    <row r="92" s="6" customFormat="1" ht="26" customHeight="1" spans="1:33">
       <c r="A92" s="126"/>
       <c r="B92" s="164" t="s">
         <v>134</v>
@@ -9502,29 +9520,29 @@
       <c r="C92" s="165"/>
       <c r="D92" s="166"/>
       <c r="E92" s="137"/>
-      <c r="F92" s="137"/>
-      <c r="G92" s="363"/>
+      <c r="F92" s="138"/>
+      <c r="G92" s="350"/>
       <c r="H92" s="167" t="s">
         <v>135</v>
       </c>
-      <c r="I92" s="214"/>
-      <c r="J92" s="215"/>
-      <c r="K92" s="216" t="s">
-        <v>185</v>
-      </c>
-      <c r="L92" s="217"/>
-      <c r="M92" s="217"/>
-      <c r="N92" s="217"/>
-      <c r="O92" s="217"/>
-      <c r="P92" s="217"/>
-      <c r="Q92" s="287"/>
+      <c r="I92" s="209"/>
+      <c r="J92" s="210"/>
+      <c r="K92" s="211" t="s">
+        <v>184</v>
+      </c>
+      <c r="L92" s="212"/>
+      <c r="M92" s="212"/>
+      <c r="N92" s="212"/>
+      <c r="O92" s="212"/>
+      <c r="P92" s="212"/>
+      <c r="Q92" s="274"/>
       <c r="R92" s="167" t="s">
         <v>137</v>
       </c>
-      <c r="S92" s="214"/>
-      <c r="T92" s="215"/>
+      <c r="S92" s="209"/>
+      <c r="T92" s="210"/>
       <c r="U92" s="373" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="V92" s="374"/>
       <c r="W92" s="375"/>
@@ -9532,158 +9550,164 @@
       <c r="Y92" s="383"/>
       <c r="Z92" s="384"/>
       <c r="AA92" s="385"/>
-      <c r="AB92" s="385"/>
-      <c r="AC92" s="325"/>
-      <c r="AD92" s="325"/>
-      <c r="AE92" s="385"/>
+      <c r="AB92" s="307"/>
+      <c r="AC92" s="307"/>
+      <c r="AD92" s="307"/>
+      <c r="AE92" s="307"/>
       <c r="AF92" s="385"/>
       <c r="AG92" s="391"/>
     </row>
     <row r="93" s="6" customFormat="1" ht="13.5" customHeight="1" spans="1:33">
       <c r="A93" s="126"/>
-      <c r="B93" s="359">
-        <v>41730</v>
-      </c>
-      <c r="C93" s="360"/>
-      <c r="D93" s="361"/>
+      <c r="B93" s="346">
+        <v>43099</v>
+      </c>
+      <c r="C93" s="347"/>
+      <c r="D93" s="348"/>
       <c r="E93" s="137"/>
-      <c r="F93" s="137"/>
-      <c r="G93" s="363"/>
-      <c r="H93" s="168" t="s">
+      <c r="F93" s="138"/>
+      <c r="G93" s="350"/>
+      <c r="H93" s="341" t="s">
         <v>139</v>
       </c>
-      <c r="I93" s="218"/>
-      <c r="J93" s="219"/>
-      <c r="K93" s="220" t="s">
-        <v>187</v>
-      </c>
-      <c r="L93" s="221"/>
-      <c r="M93" s="221"/>
-      <c r="N93" s="221"/>
-      <c r="O93" s="221"/>
-      <c r="P93" s="221"/>
-      <c r="Q93" s="288"/>
+      <c r="I93" s="352"/>
+      <c r="J93" s="353"/>
+      <c r="K93" s="354" t="s">
+        <v>185</v>
+      </c>
+      <c r="L93" s="355"/>
+      <c r="M93" s="355"/>
+      <c r="N93" s="355"/>
+      <c r="O93" s="355"/>
+      <c r="P93" s="355"/>
+      <c r="Q93" s="360"/>
       <c r="R93" s="167" t="s">
         <v>141</v>
       </c>
-      <c r="S93" s="214"/>
-      <c r="T93" s="215"/>
-      <c r="U93" s="269" t="s">
+      <c r="S93" s="209"/>
+      <c r="T93" s="210"/>
+      <c r="U93" s="256" t="s">
         <v>83</v>
       </c>
-      <c r="V93" s="265"/>
-      <c r="W93" s="266"/>
-      <c r="X93" s="371"/>
+      <c r="V93" s="252"/>
+      <c r="W93" s="253"/>
+      <c r="X93" s="371">
+        <v>1</v>
+      </c>
       <c r="Y93" s="386"/>
       <c r="Z93" s="384"/>
       <c r="AA93" s="385"/>
-      <c r="AB93" s="385"/>
-      <c r="AC93" s="325"/>
-      <c r="AD93" s="325"/>
-      <c r="AE93" s="385"/>
+      <c r="AB93" s="307"/>
+      <c r="AC93" s="307"/>
+      <c r="AD93" s="307"/>
+      <c r="AE93" s="307"/>
       <c r="AF93" s="385"/>
       <c r="AG93" s="391"/>
     </row>
-    <row r="94" s="6" customFormat="1" ht="22" customHeight="1" spans="1:33">
+    <row r="94" s="6" customFormat="1" ht="22.05" customHeight="1" spans="1:33">
       <c r="A94" s="159"/>
-      <c r="B94" s="169"/>
-      <c r="C94" s="170"/>
-      <c r="D94" s="171"/>
+      <c r="B94" s="342"/>
+      <c r="C94" s="343"/>
+      <c r="D94" s="344"/>
       <c r="E94" s="148"/>
-      <c r="F94" s="148"/>
-      <c r="G94" s="364"/>
-      <c r="H94" s="172"/>
-      <c r="I94" s="222"/>
-      <c r="J94" s="223"/>
-      <c r="K94" s="224"/>
-      <c r="L94" s="225"/>
-      <c r="M94" s="225"/>
-      <c r="N94" s="225"/>
-      <c r="O94" s="225"/>
-      <c r="P94" s="225"/>
-      <c r="Q94" s="289"/>
-      <c r="R94" s="290" t="s">
+      <c r="F94" s="149"/>
+      <c r="G94" s="351"/>
+      <c r="H94" s="345"/>
+      <c r="I94" s="356"/>
+      <c r="J94" s="357"/>
+      <c r="K94" s="358"/>
+      <c r="L94" s="359"/>
+      <c r="M94" s="359"/>
+      <c r="N94" s="359"/>
+      <c r="O94" s="359"/>
+      <c r="P94" s="359"/>
+      <c r="Q94" s="361"/>
+      <c r="R94" s="362" t="s">
         <v>142</v>
       </c>
-      <c r="S94" s="291"/>
-      <c r="T94" s="292"/>
-      <c r="U94" s="376" t="s">
-        <v>188</v>
-      </c>
-      <c r="V94" s="377"/>
-      <c r="W94" s="378"/>
+      <c r="S94" s="363"/>
+      <c r="T94" s="364"/>
+      <c r="U94" s="262" t="s">
+        <v>177</v>
+      </c>
+      <c r="V94" s="263"/>
+      <c r="W94" s="264"/>
       <c r="X94" s="372"/>
       <c r="Y94" s="387"/>
       <c r="Z94" s="388"/>
       <c r="AA94" s="389"/>
-      <c r="AB94" s="389"/>
-      <c r="AC94" s="329"/>
-      <c r="AD94" s="329"/>
-      <c r="AE94" s="389"/>
+      <c r="AB94" s="311"/>
+      <c r="AC94" s="311"/>
+      <c r="AD94" s="311"/>
+      <c r="AE94" s="311"/>
       <c r="AF94" s="389"/>
       <c r="AG94" s="392"/>
     </row>
-    <row r="95" customFormat="1" ht="14" customHeight="1" spans="1:33">
+    <row r="95" s="6" customFormat="1" ht="12.5" customHeight="1" spans="1:33">
       <c r="A95" s="152">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B95" s="160">
-        <v>41518</v>
+        <v>42583</v>
       </c>
       <c r="C95" s="161"/>
       <c r="D95" s="162"/>
       <c r="E95" s="130">
         <f ca="1">IF(AND(B95&lt;&gt;"",B97&lt;&gt;""),DATEDIF(B95,B97,"M")+1,IF(AND(B95&lt;&gt;"",B97=""),DATEDIF(B95,TODAY(),"M")+1,""))</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F95" s="130">
-        <v>5</v>
-      </c>
-      <c r="G95" s="362" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="349" t="s">
         <v>129</v>
       </c>
       <c r="H95" s="163" t="s">
         <v>130</v>
       </c>
-      <c r="I95" s="210"/>
-      <c r="J95" s="211"/>
-      <c r="K95" s="212" t="s">
-        <v>33</v>
-      </c>
-      <c r="L95" s="213"/>
-      <c r="M95" s="213"/>
-      <c r="N95" s="213"/>
-      <c r="O95" s="213"/>
-      <c r="P95" s="213"/>
-      <c r="Q95" s="283"/>
-      <c r="R95" s="284" t="s">
+      <c r="I95" s="205"/>
+      <c r="J95" s="206"/>
+      <c r="K95" s="207" t="s">
+        <v>178</v>
+      </c>
+      <c r="L95" s="208"/>
+      <c r="M95" s="208"/>
+      <c r="N95" s="208"/>
+      <c r="O95" s="208"/>
+      <c r="P95" s="208"/>
+      <c r="Q95" s="270"/>
+      <c r="R95" s="271" t="s">
         <v>132</v>
       </c>
-      <c r="S95" s="285"/>
-      <c r="T95" s="286"/>
+      <c r="S95" s="272"/>
+      <c r="T95" s="273"/>
       <c r="U95" s="365" t="s">
         <v>38</v>
       </c>
       <c r="V95" s="366"/>
       <c r="W95" s="367"/>
       <c r="X95" s="369" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="Y95" s="380"/>
       <c r="Z95" s="381"/>
       <c r="AA95" s="382"/>
-      <c r="AB95" s="382"/>
-      <c r="AC95" s="322" t="s">
+      <c r="AB95" s="304" t="s">
         <v>39</v>
       </c>
-      <c r="AD95" s="322" t="s">
+      <c r="AC95" s="304" t="s">
         <v>39</v>
       </c>
-      <c r="AE95" s="382"/>
+      <c r="AD95" s="304" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE95" s="304" t="s">
+        <v>39</v>
+      </c>
       <c r="AF95" s="382"/>
       <c r="AG95" s="390"/>
     </row>
-    <row r="96" customFormat="1" ht="13.5" spans="1:33">
+    <row r="96" s="6" customFormat="1" ht="23" customHeight="1" spans="1:33">
       <c r="A96" s="126"/>
       <c r="B96" s="164" t="s">
         <v>134</v>
@@ -9692,28 +9716,28 @@
       <c r="D96" s="166"/>
       <c r="E96" s="137"/>
       <c r="F96" s="137"/>
-      <c r="G96" s="363"/>
+      <c r="G96" s="350"/>
       <c r="H96" s="167" t="s">
         <v>135</v>
       </c>
-      <c r="I96" s="214"/>
-      <c r="J96" s="215"/>
-      <c r="K96" s="216" t="s">
-        <v>189</v>
-      </c>
-      <c r="L96" s="217"/>
-      <c r="M96" s="217"/>
-      <c r="N96" s="217"/>
-      <c r="O96" s="217"/>
-      <c r="P96" s="217"/>
-      <c r="Q96" s="287"/>
+      <c r="I96" s="209"/>
+      <c r="J96" s="210"/>
+      <c r="K96" s="211" t="s">
+        <v>186</v>
+      </c>
+      <c r="L96" s="212"/>
+      <c r="M96" s="212"/>
+      <c r="N96" s="212"/>
+      <c r="O96" s="212"/>
+      <c r="P96" s="212"/>
+      <c r="Q96" s="274"/>
       <c r="R96" s="167" t="s">
         <v>137</v>
       </c>
-      <c r="S96" s="214"/>
-      <c r="T96" s="215"/>
+      <c r="S96" s="209"/>
+      <c r="T96" s="210"/>
       <c r="U96" s="373" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="V96" s="374"/>
       <c r="W96" s="375"/>
@@ -9721,158 +9745,162 @@
       <c r="Y96" s="383"/>
       <c r="Z96" s="384"/>
       <c r="AA96" s="385"/>
-      <c r="AB96" s="385"/>
-      <c r="AC96" s="325"/>
-      <c r="AD96" s="325"/>
-      <c r="AE96" s="385"/>
+      <c r="AB96" s="307"/>
+      <c r="AC96" s="307"/>
+      <c r="AD96" s="307"/>
+      <c r="AE96" s="307"/>
       <c r="AF96" s="385"/>
       <c r="AG96" s="391"/>
     </row>
-    <row r="97" customFormat="1" ht="13.5" spans="1:33">
+    <row r="97" s="6" customFormat="1" ht="13.5" customHeight="1" spans="1:33">
       <c r="A97" s="126"/>
-      <c r="B97" s="359">
-        <v>41579</v>
-      </c>
-      <c r="C97" s="360"/>
-      <c r="D97" s="361"/>
+      <c r="B97" s="346">
+        <v>42887</v>
+      </c>
+      <c r="C97" s="347"/>
+      <c r="D97" s="348"/>
       <c r="E97" s="137"/>
       <c r="F97" s="137"/>
-      <c r="G97" s="363"/>
-      <c r="H97" s="168" t="s">
+      <c r="G97" s="350"/>
+      <c r="H97" s="341" t="s">
         <v>139</v>
       </c>
-      <c r="I97" s="218"/>
-      <c r="J97" s="219"/>
-      <c r="K97" s="220" t="s">
+      <c r="I97" s="352"/>
+      <c r="J97" s="353"/>
+      <c r="K97" s="354" t="s">
         <v>187</v>
       </c>
-      <c r="L97" s="221"/>
-      <c r="M97" s="221"/>
-      <c r="N97" s="221"/>
-      <c r="O97" s="221"/>
-      <c r="P97" s="221"/>
-      <c r="Q97" s="288"/>
+      <c r="L97" s="355"/>
+      <c r="M97" s="355"/>
+      <c r="N97" s="355"/>
+      <c r="O97" s="355"/>
+      <c r="P97" s="355"/>
+      <c r="Q97" s="360"/>
       <c r="R97" s="167" t="s">
         <v>141</v>
       </c>
-      <c r="S97" s="214"/>
-      <c r="T97" s="215"/>
-      <c r="U97" s="269" t="s">
+      <c r="S97" s="209"/>
+      <c r="T97" s="210"/>
+      <c r="U97" s="256" t="s">
         <v>83</v>
       </c>
-      <c r="V97" s="265"/>
-      <c r="W97" s="266"/>
+      <c r="V97" s="252"/>
+      <c r="W97" s="253"/>
       <c r="X97" s="371"/>
       <c r="Y97" s="386"/>
       <c r="Z97" s="384"/>
       <c r="AA97" s="385"/>
-      <c r="AB97" s="385"/>
-      <c r="AC97" s="325"/>
-      <c r="AD97" s="325"/>
-      <c r="AE97" s="385"/>
+      <c r="AB97" s="307"/>
+      <c r="AC97" s="307"/>
+      <c r="AD97" s="307"/>
+      <c r="AE97" s="307"/>
       <c r="AF97" s="385"/>
       <c r="AG97" s="391"/>
     </row>
-    <row r="98" customFormat="1" ht="21" customHeight="1" spans="1:33">
+    <row r="98" s="6" customFormat="1" ht="44" customHeight="1" spans="1:33">
       <c r="A98" s="159"/>
-      <c r="B98" s="169"/>
-      <c r="C98" s="170"/>
-      <c r="D98" s="171"/>
+      <c r="B98" s="342"/>
+      <c r="C98" s="343"/>
+      <c r="D98" s="344"/>
       <c r="E98" s="148"/>
       <c r="F98" s="148"/>
-      <c r="G98" s="364"/>
-      <c r="H98" s="172"/>
-      <c r="I98" s="222"/>
-      <c r="J98" s="223"/>
-      <c r="K98" s="224"/>
-      <c r="L98" s="225"/>
-      <c r="M98" s="225"/>
-      <c r="N98" s="225"/>
-      <c r="O98" s="225"/>
-      <c r="P98" s="225"/>
-      <c r="Q98" s="289"/>
-      <c r="R98" s="290" t="s">
+      <c r="G98" s="351"/>
+      <c r="H98" s="345"/>
+      <c r="I98" s="356"/>
+      <c r="J98" s="357"/>
+      <c r="K98" s="358"/>
+      <c r="L98" s="359"/>
+      <c r="M98" s="359"/>
+      <c r="N98" s="359"/>
+      <c r="O98" s="359"/>
+      <c r="P98" s="359"/>
+      <c r="Q98" s="361"/>
+      <c r="R98" s="362" t="s">
         <v>142</v>
       </c>
-      <c r="S98" s="291"/>
-      <c r="T98" s="292"/>
-      <c r="U98" s="376" t="s">
+      <c r="S98" s="363"/>
+      <c r="T98" s="364"/>
+      <c r="U98" s="262" t="s">
         <v>188</v>
       </c>
-      <c r="V98" s="377"/>
-      <c r="W98" s="378"/>
+      <c r="V98" s="263"/>
+      <c r="W98" s="264"/>
       <c r="X98" s="372"/>
       <c r="Y98" s="387"/>
       <c r="Z98" s="388"/>
       <c r="AA98" s="389"/>
-      <c r="AB98" s="389"/>
-      <c r="AC98" s="329"/>
-      <c r="AD98" s="329"/>
-      <c r="AE98" s="389"/>
+      <c r="AB98" s="311"/>
+      <c r="AC98" s="311"/>
+      <c r="AD98" s="311"/>
+      <c r="AE98" s="311"/>
       <c r="AF98" s="389"/>
       <c r="AG98" s="392"/>
     </row>
-    <row r="99" s="4" customFormat="1" ht="15" customHeight="1" spans="1:33">
+    <row r="99" s="6" customFormat="1" ht="12.5" customHeight="1" spans="1:33">
       <c r="A99" s="152">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B99" s="160">
-        <v>41395</v>
+        <v>41671</v>
       </c>
       <c r="C99" s="161"/>
       <c r="D99" s="162"/>
       <c r="E99" s="130">
         <f ca="1">IF(AND(B99&lt;&gt;"",B101&lt;&gt;""),DATEDIF(B99,B101,"M")+1,IF(AND(B99&lt;&gt;"",B101=""),DATEDIF(B99,TODAY(),"M")+1,""))</f>
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="F99" s="130">
-        <v>5</v>
-      </c>
-      <c r="G99" s="362" t="s">
+        <v>15</v>
+      </c>
+      <c r="G99" s="349" t="s">
         <v>129</v>
       </c>
       <c r="H99" s="163" t="s">
         <v>130</v>
       </c>
-      <c r="I99" s="210"/>
-      <c r="J99" s="211"/>
-      <c r="K99" s="212" t="s">
-        <v>33</v>
-      </c>
-      <c r="L99" s="213"/>
-      <c r="M99" s="213"/>
-      <c r="N99" s="213"/>
-      <c r="O99" s="213"/>
-      <c r="P99" s="213"/>
-      <c r="Q99" s="283"/>
-      <c r="R99" s="284" t="s">
+      <c r="I99" s="205"/>
+      <c r="J99" s="206"/>
+      <c r="K99" s="207" t="s">
+        <v>157</v>
+      </c>
+      <c r="L99" s="208"/>
+      <c r="M99" s="208"/>
+      <c r="N99" s="208"/>
+      <c r="O99" s="208"/>
+      <c r="P99" s="208"/>
+      <c r="Q99" s="270"/>
+      <c r="R99" s="271" t="s">
         <v>132</v>
       </c>
-      <c r="S99" s="285"/>
-      <c r="T99" s="286"/>
+      <c r="S99" s="272"/>
+      <c r="T99" s="273"/>
       <c r="U99" s="365" t="s">
         <v>38</v>
       </c>
       <c r="V99" s="366"/>
       <c r="W99" s="367"/>
       <c r="X99" s="369" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="Y99" s="380"/>
       <c r="Z99" s="381"/>
       <c r="AA99" s="382"/>
-      <c r="AB99" s="382"/>
-      <c r="AC99" s="322" t="s">
+      <c r="AB99" s="304" t="s">
         <v>39</v>
       </c>
-      <c r="AD99" s="322" t="s">
+      <c r="AC99" s="304" t="s">
         <v>39</v>
       </c>
-      <c r="AE99" s="382"/>
+      <c r="AD99" s="304" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE99" s="304" t="s">
+        <v>39</v>
+      </c>
       <c r="AF99" s="382"/>
       <c r="AG99" s="390"/>
     </row>
-    <row r="100" s="4" customFormat="1" ht="27" customHeight="1" spans="1:33">
+    <row r="100" s="6" customFormat="1" ht="23" customHeight="1" spans="1:33">
       <c r="A100" s="126"/>
       <c r="B100" s="164" t="s">
         <v>134</v>
@@ -9881,164 +9909,164 @@
       <c r="D100" s="166"/>
       <c r="E100" s="137"/>
       <c r="F100" s="137"/>
-      <c r="G100" s="363"/>
+      <c r="G100" s="350"/>
       <c r="H100" s="167" t="s">
         <v>135</v>
       </c>
-      <c r="I100" s="214"/>
-      <c r="J100" s="215"/>
-      <c r="K100" s="216" t="s">
-        <v>190</v>
-      </c>
-      <c r="L100" s="217"/>
-      <c r="M100" s="217"/>
-      <c r="N100" s="217"/>
-      <c r="O100" s="217"/>
-      <c r="P100" s="217"/>
-      <c r="Q100" s="287"/>
+      <c r="I100" s="209"/>
+      <c r="J100" s="210"/>
+      <c r="K100" s="211" t="s">
+        <v>189</v>
+      </c>
+      <c r="L100" s="212"/>
+      <c r="M100" s="212"/>
+      <c r="N100" s="212"/>
+      <c r="O100" s="212"/>
+      <c r="P100" s="212"/>
+      <c r="Q100" s="274"/>
       <c r="R100" s="167" t="s">
         <v>137</v>
       </c>
-      <c r="S100" s="214"/>
-      <c r="T100" s="215"/>
-      <c r="U100" s="373" t="s">
-        <v>186</v>
-      </c>
-      <c r="V100" s="374"/>
-      <c r="W100" s="375"/>
+      <c r="S100" s="209"/>
+      <c r="T100" s="210"/>
+      <c r="U100" s="256" t="s">
+        <v>146</v>
+      </c>
+      <c r="V100" s="252"/>
+      <c r="W100" s="253"/>
       <c r="X100" s="370"/>
       <c r="Y100" s="383"/>
       <c r="Z100" s="384"/>
       <c r="AA100" s="385"/>
-      <c r="AB100" s="385"/>
-      <c r="AC100" s="325"/>
-      <c r="AD100" s="325"/>
-      <c r="AE100" s="385"/>
+      <c r="AB100" s="307"/>
+      <c r="AC100" s="307"/>
+      <c r="AD100" s="307"/>
+      <c r="AE100" s="307"/>
       <c r="AF100" s="385"/>
       <c r="AG100" s="391"/>
     </row>
-    <row r="101" s="4" customFormat="1" ht="15" customHeight="1" spans="1:33">
+    <row r="101" s="6" customFormat="1" ht="13.5" customHeight="1" spans="1:33">
       <c r="A101" s="126"/>
-      <c r="B101" s="359">
-        <v>41485</v>
-      </c>
-      <c r="C101" s="360"/>
-      <c r="D101" s="361"/>
+      <c r="B101" s="346">
+        <v>42522</v>
+      </c>
+      <c r="C101" s="347"/>
+      <c r="D101" s="348"/>
       <c r="E101" s="137"/>
       <c r="F101" s="137"/>
-      <c r="G101" s="363"/>
-      <c r="H101" s="168" t="s">
+      <c r="G101" s="350"/>
+      <c r="H101" s="341" t="s">
         <v>139</v>
       </c>
-      <c r="I101" s="218"/>
-      <c r="J101" s="219"/>
-      <c r="K101" s="220" t="s">
-        <v>187</v>
-      </c>
-      <c r="L101" s="221"/>
-      <c r="M101" s="221"/>
-      <c r="N101" s="221"/>
-      <c r="O101" s="221"/>
-      <c r="P101" s="221"/>
-      <c r="Q101" s="288"/>
+      <c r="I101" s="352"/>
+      <c r="J101" s="353"/>
+      <c r="K101" s="354" t="s">
+        <v>190</v>
+      </c>
+      <c r="L101" s="355"/>
+      <c r="M101" s="355"/>
+      <c r="N101" s="355"/>
+      <c r="O101" s="355"/>
+      <c r="P101" s="355"/>
+      <c r="Q101" s="360"/>
       <c r="R101" s="167" t="s">
         <v>141</v>
       </c>
-      <c r="S101" s="214"/>
-      <c r="T101" s="215"/>
-      <c r="U101" s="269" t="s">
+      <c r="S101" s="209"/>
+      <c r="T101" s="210"/>
+      <c r="U101" s="256" t="s">
         <v>83</v>
       </c>
-      <c r="V101" s="265"/>
-      <c r="W101" s="266"/>
+      <c r="V101" s="252"/>
+      <c r="W101" s="253"/>
       <c r="X101" s="371"/>
       <c r="Y101" s="386"/>
       <c r="Z101" s="384"/>
       <c r="AA101" s="385"/>
-      <c r="AB101" s="385"/>
-      <c r="AC101" s="325"/>
-      <c r="AD101" s="325"/>
-      <c r="AE101" s="385"/>
+      <c r="AB101" s="307"/>
+      <c r="AC101" s="307"/>
+      <c r="AD101" s="307"/>
+      <c r="AE101" s="307"/>
       <c r="AF101" s="385"/>
       <c r="AG101" s="391"/>
     </row>
-    <row r="102" s="4" customFormat="1" ht="21" customHeight="1" spans="1:33">
+    <row r="102" s="6" customFormat="1" ht="56" customHeight="1" spans="1:33">
       <c r="A102" s="159"/>
-      <c r="B102" s="169"/>
-      <c r="C102" s="170"/>
-      <c r="D102" s="171"/>
+      <c r="B102" s="342"/>
+      <c r="C102" s="343"/>
+      <c r="D102" s="344"/>
       <c r="E102" s="148"/>
       <c r="F102" s="148"/>
-      <c r="G102" s="364"/>
-      <c r="H102" s="172"/>
-      <c r="I102" s="222"/>
-      <c r="J102" s="223"/>
-      <c r="K102" s="224"/>
-      <c r="L102" s="225"/>
-      <c r="M102" s="225"/>
-      <c r="N102" s="225"/>
-      <c r="O102" s="225"/>
-      <c r="P102" s="225"/>
-      <c r="Q102" s="289"/>
-      <c r="R102" s="290" t="s">
+      <c r="G102" s="351"/>
+      <c r="H102" s="345"/>
+      <c r="I102" s="356"/>
+      <c r="J102" s="357"/>
+      <c r="K102" s="358"/>
+      <c r="L102" s="359"/>
+      <c r="M102" s="359"/>
+      <c r="N102" s="359"/>
+      <c r="O102" s="359"/>
+      <c r="P102" s="359"/>
+      <c r="Q102" s="361"/>
+      <c r="R102" s="362" t="s">
         <v>142</v>
       </c>
-      <c r="S102" s="291"/>
-      <c r="T102" s="292"/>
-      <c r="U102" s="376" t="s">
-        <v>94</v>
-      </c>
-      <c r="V102" s="377"/>
-      <c r="W102" s="378"/>
+      <c r="S102" s="363"/>
+      <c r="T102" s="364"/>
+      <c r="U102" s="262" t="s">
+        <v>191</v>
+      </c>
+      <c r="V102" s="263"/>
+      <c r="W102" s="264"/>
       <c r="X102" s="372"/>
       <c r="Y102" s="387"/>
       <c r="Z102" s="388"/>
       <c r="AA102" s="389"/>
-      <c r="AB102" s="389"/>
-      <c r="AC102" s="329"/>
-      <c r="AD102" s="329"/>
-      <c r="AE102" s="389"/>
+      <c r="AB102" s="311"/>
+      <c r="AC102" s="311"/>
+      <c r="AD102" s="311"/>
+      <c r="AE102" s="311"/>
       <c r="AF102" s="389"/>
       <c r="AG102" s="392"/>
     </row>
-    <row r="103" s="4" customFormat="1" spans="1:33">
+    <row r="103" s="6" customFormat="1" ht="12.5" customHeight="1" spans="1:33">
       <c r="A103" s="152">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B103" s="160">
-        <v>41030</v>
+        <v>41579</v>
       </c>
       <c r="C103" s="161"/>
       <c r="D103" s="162"/>
       <c r="E103" s="130">
         <f ca="1">IF(AND(B103&lt;&gt;"",B105&lt;&gt;""),DATEDIF(B103,B105,"M")+1,IF(AND(B103&lt;&gt;"",B105=""),DATEDIF(B103,TODAY(),"M")+1,""))</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F103" s="130">
-        <v>5</v>
-      </c>
-      <c r="G103" s="362" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="349" t="s">
         <v>129</v>
       </c>
       <c r="H103" s="163" t="s">
         <v>130</v>
       </c>
-      <c r="I103" s="210"/>
-      <c r="J103" s="211"/>
-      <c r="K103" s="212" t="s">
-        <v>33</v>
-      </c>
-      <c r="L103" s="213"/>
-      <c r="M103" s="213"/>
-      <c r="N103" s="213"/>
-      <c r="O103" s="213"/>
-      <c r="P103" s="213"/>
-      <c r="Q103" s="283"/>
-      <c r="R103" s="284" t="s">
+      <c r="I103" s="205"/>
+      <c r="J103" s="206"/>
+      <c r="K103" s="207" t="s">
+        <v>192</v>
+      </c>
+      <c r="L103" s="208"/>
+      <c r="M103" s="208"/>
+      <c r="N103" s="208"/>
+      <c r="O103" s="208"/>
+      <c r="P103" s="208"/>
+      <c r="Q103" s="270"/>
+      <c r="R103" s="271" t="s">
         <v>132</v>
       </c>
-      <c r="S103" s="285"/>
-      <c r="T103" s="286"/>
+      <c r="S103" s="272"/>
+      <c r="T103" s="273"/>
       <c r="U103" s="365" t="s">
         <v>38</v>
       </c>
@@ -10051,17 +10079,17 @@
       <c r="Z103" s="381"/>
       <c r="AA103" s="382"/>
       <c r="AB103" s="382"/>
-      <c r="AC103" s="322" t="s">
+      <c r="AC103" s="304" t="s">
         <v>39</v>
       </c>
-      <c r="AD103" s="322" t="s">
+      <c r="AD103" s="304" t="s">
         <v>39</v>
       </c>
       <c r="AE103" s="382"/>
       <c r="AF103" s="382"/>
       <c r="AG103" s="390"/>
     </row>
-    <row r="104" s="4" customFormat="1" ht="24" customHeight="1" spans="1:33">
+    <row r="104" s="6" customFormat="1" ht="12" spans="1:33">
       <c r="A104" s="126"/>
       <c r="B104" s="164" t="s">
         <v>134</v>
@@ -10070,28 +10098,28 @@
       <c r="D104" s="166"/>
       <c r="E104" s="137"/>
       <c r="F104" s="137"/>
-      <c r="G104" s="363"/>
+      <c r="G104" s="350"/>
       <c r="H104" s="167" t="s">
         <v>135</v>
       </c>
-      <c r="I104" s="214"/>
-      <c r="J104" s="215"/>
-      <c r="K104" s="216" t="s">
-        <v>191</v>
-      </c>
-      <c r="L104" s="217"/>
-      <c r="M104" s="217"/>
-      <c r="N104" s="217"/>
-      <c r="O104" s="217"/>
-      <c r="P104" s="217"/>
-      <c r="Q104" s="287"/>
+      <c r="I104" s="209"/>
+      <c r="J104" s="210"/>
+      <c r="K104" s="211" t="s">
+        <v>193</v>
+      </c>
+      <c r="L104" s="212"/>
+      <c r="M104" s="212"/>
+      <c r="N104" s="212"/>
+      <c r="O104" s="212"/>
+      <c r="P104" s="212"/>
+      <c r="Q104" s="274"/>
       <c r="R104" s="167" t="s">
         <v>137</v>
       </c>
-      <c r="S104" s="214"/>
-      <c r="T104" s="215"/>
+      <c r="S104" s="209"/>
+      <c r="T104" s="210"/>
       <c r="U104" s="373" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="V104" s="374"/>
       <c r="W104" s="375"/>
@@ -10100,82 +10128,82 @@
       <c r="Z104" s="384"/>
       <c r="AA104" s="385"/>
       <c r="AB104" s="385"/>
-      <c r="AC104" s="325"/>
-      <c r="AD104" s="325"/>
+      <c r="AC104" s="307"/>
+      <c r="AD104" s="307"/>
       <c r="AE104" s="385"/>
       <c r="AF104" s="385"/>
       <c r="AG104" s="391"/>
     </row>
-    <row r="105" s="4" customFormat="1" spans="1:33">
+    <row r="105" s="6" customFormat="1" ht="13.5" customHeight="1" spans="1:33">
       <c r="A105" s="126"/>
-      <c r="B105" s="359">
-        <v>41273</v>
-      </c>
-      <c r="C105" s="360"/>
-      <c r="D105" s="361"/>
+      <c r="B105" s="346">
+        <v>41640</v>
+      </c>
+      <c r="C105" s="347"/>
+      <c r="D105" s="348"/>
       <c r="E105" s="137"/>
       <c r="F105" s="137"/>
-      <c r="G105" s="363"/>
-      <c r="H105" s="168" t="s">
+      <c r="G105" s="350"/>
+      <c r="H105" s="341" t="s">
         <v>139</v>
       </c>
-      <c r="I105" s="218"/>
-      <c r="J105" s="219"/>
-      <c r="K105" s="220" t="s">
-        <v>187</v>
-      </c>
-      <c r="L105" s="221"/>
-      <c r="M105" s="221"/>
-      <c r="N105" s="221"/>
-      <c r="O105" s="221"/>
-      <c r="P105" s="221"/>
-      <c r="Q105" s="288"/>
+      <c r="I105" s="352"/>
+      <c r="J105" s="353"/>
+      <c r="K105" s="354" t="s">
+        <v>195</v>
+      </c>
+      <c r="L105" s="355"/>
+      <c r="M105" s="355"/>
+      <c r="N105" s="355"/>
+      <c r="O105" s="355"/>
+      <c r="P105" s="355"/>
+      <c r="Q105" s="360"/>
       <c r="R105" s="167" t="s">
         <v>141</v>
       </c>
-      <c r="S105" s="214"/>
-      <c r="T105" s="215"/>
-      <c r="U105" s="269" t="s">
+      <c r="S105" s="209"/>
+      <c r="T105" s="210"/>
+      <c r="U105" s="256" t="s">
         <v>83</v>
       </c>
-      <c r="V105" s="265"/>
-      <c r="W105" s="266"/>
+      <c r="V105" s="252"/>
+      <c r="W105" s="253"/>
       <c r="X105" s="371"/>
       <c r="Y105" s="386"/>
       <c r="Z105" s="384"/>
       <c r="AA105" s="385"/>
       <c r="AB105" s="385"/>
-      <c r="AC105" s="325"/>
-      <c r="AD105" s="325"/>
+      <c r="AC105" s="307"/>
+      <c r="AD105" s="307"/>
       <c r="AE105" s="385"/>
       <c r="AF105" s="385"/>
       <c r="AG105" s="391"/>
     </row>
-    <row r="106" s="4" customFormat="1" spans="1:33">
+    <row r="106" s="6" customFormat="1" ht="22" customHeight="1" spans="1:33">
       <c r="A106" s="159"/>
-      <c r="B106" s="169"/>
-      <c r="C106" s="170"/>
-      <c r="D106" s="171"/>
+      <c r="B106" s="342"/>
+      <c r="C106" s="343"/>
+      <c r="D106" s="344"/>
       <c r="E106" s="148"/>
       <c r="F106" s="148"/>
-      <c r="G106" s="364"/>
-      <c r="H106" s="172"/>
-      <c r="I106" s="222"/>
-      <c r="J106" s="223"/>
-      <c r="K106" s="224"/>
-      <c r="L106" s="225"/>
-      <c r="M106" s="225"/>
-      <c r="N106" s="225"/>
-      <c r="O106" s="225"/>
-      <c r="P106" s="225"/>
-      <c r="Q106" s="289"/>
-      <c r="R106" s="290" t="s">
+      <c r="G106" s="351"/>
+      <c r="H106" s="345"/>
+      <c r="I106" s="356"/>
+      <c r="J106" s="357"/>
+      <c r="K106" s="358"/>
+      <c r="L106" s="359"/>
+      <c r="M106" s="359"/>
+      <c r="N106" s="359"/>
+      <c r="O106" s="359"/>
+      <c r="P106" s="359"/>
+      <c r="Q106" s="361"/>
+      <c r="R106" s="362" t="s">
         <v>142</v>
       </c>
-      <c r="S106" s="291"/>
-      <c r="T106" s="292"/>
+      <c r="S106" s="363"/>
+      <c r="T106" s="364"/>
       <c r="U106" s="376" t="s">
-        <v>94</v>
+        <v>196</v>
       </c>
       <c r="V106" s="377"/>
       <c r="W106" s="378"/>
@@ -10184,14 +10212,738 @@
       <c r="Z106" s="388"/>
       <c r="AA106" s="389"/>
       <c r="AB106" s="389"/>
-      <c r="AC106" s="329"/>
-      <c r="AD106" s="329"/>
+      <c r="AC106" s="311"/>
+      <c r="AD106" s="311"/>
       <c r="AE106" s="389"/>
       <c r="AF106" s="389"/>
       <c r="AG106" s="392"/>
     </row>
+    <row r="107" customFormat="1" ht="14" customHeight="1" spans="1:33">
+      <c r="A107" s="152">
+        <v>15</v>
+      </c>
+      <c r="B107" s="160">
+        <v>41548</v>
+      </c>
+      <c r="C107" s="161"/>
+      <c r="D107" s="162"/>
+      <c r="E107" s="130">
+        <f ca="1">IF(AND(B107&lt;&gt;"",B109&lt;&gt;""),DATEDIF(B107,B109,"M")+1,IF(AND(B107&lt;&gt;"",B109=""),DATEDIF(B107,TODAY(),"M")+1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="F107" s="130">
+        <v>5</v>
+      </c>
+      <c r="G107" s="349" t="s">
+        <v>129</v>
+      </c>
+      <c r="H107" s="163" t="s">
+        <v>130</v>
+      </c>
+      <c r="I107" s="205"/>
+      <c r="J107" s="206"/>
+      <c r="K107" s="207" t="s">
+        <v>33</v>
+      </c>
+      <c r="L107" s="208"/>
+      <c r="M107" s="208"/>
+      <c r="N107" s="208"/>
+      <c r="O107" s="208"/>
+      <c r="P107" s="208"/>
+      <c r="Q107" s="270"/>
+      <c r="R107" s="271" t="s">
+        <v>132</v>
+      </c>
+      <c r="S107" s="272"/>
+      <c r="T107" s="273"/>
+      <c r="U107" s="365" t="s">
+        <v>38</v>
+      </c>
+      <c r="V107" s="366"/>
+      <c r="W107" s="367"/>
+      <c r="X107" s="369" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y107" s="380"/>
+      <c r="Z107" s="381"/>
+      <c r="AA107" s="382"/>
+      <c r="AB107" s="382"/>
+      <c r="AC107" s="304" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD107" s="304" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE107" s="382"/>
+      <c r="AF107" s="382"/>
+      <c r="AG107" s="390"/>
+    </row>
+    <row r="108" customFormat="1" ht="13.5" spans="1:33">
+      <c r="A108" s="126"/>
+      <c r="B108" s="164" t="s">
+        <v>134</v>
+      </c>
+      <c r="C108" s="165"/>
+      <c r="D108" s="166"/>
+      <c r="E108" s="137"/>
+      <c r="F108" s="137"/>
+      <c r="G108" s="350"/>
+      <c r="H108" s="167" t="s">
+        <v>135</v>
+      </c>
+      <c r="I108" s="209"/>
+      <c r="J108" s="210"/>
+      <c r="K108" s="211" t="s">
+        <v>197</v>
+      </c>
+      <c r="L108" s="212"/>
+      <c r="M108" s="212"/>
+      <c r="N108" s="212"/>
+      <c r="O108" s="212"/>
+      <c r="P108" s="212"/>
+      <c r="Q108" s="274"/>
+      <c r="R108" s="167" t="s">
+        <v>137</v>
+      </c>
+      <c r="S108" s="209"/>
+      <c r="T108" s="210"/>
+      <c r="U108" s="373" t="s">
+        <v>194</v>
+      </c>
+      <c r="V108" s="374"/>
+      <c r="W108" s="375"/>
+      <c r="X108" s="370"/>
+      <c r="Y108" s="383"/>
+      <c r="Z108" s="384"/>
+      <c r="AA108" s="385"/>
+      <c r="AB108" s="385"/>
+      <c r="AC108" s="307"/>
+      <c r="AD108" s="307"/>
+      <c r="AE108" s="385"/>
+      <c r="AF108" s="385"/>
+      <c r="AG108" s="391"/>
+    </row>
+    <row r="109" customFormat="1" ht="13.5" spans="1:33">
+      <c r="A109" s="126"/>
+      <c r="B109" s="346">
+        <v>41577</v>
+      </c>
+      <c r="C109" s="347"/>
+      <c r="D109" s="348"/>
+      <c r="E109" s="137"/>
+      <c r="F109" s="137"/>
+      <c r="G109" s="350"/>
+      <c r="H109" s="341" t="s">
+        <v>139</v>
+      </c>
+      <c r="I109" s="352"/>
+      <c r="J109" s="353"/>
+      <c r="K109" s="354" t="s">
+        <v>195</v>
+      </c>
+      <c r="L109" s="355"/>
+      <c r="M109" s="355"/>
+      <c r="N109" s="355"/>
+      <c r="O109" s="355"/>
+      <c r="P109" s="355"/>
+      <c r="Q109" s="360"/>
+      <c r="R109" s="167" t="s">
+        <v>141</v>
+      </c>
+      <c r="S109" s="209"/>
+      <c r="T109" s="210"/>
+      <c r="U109" s="256" t="s">
+        <v>83</v>
+      </c>
+      <c r="V109" s="252"/>
+      <c r="W109" s="253"/>
+      <c r="X109" s="371"/>
+      <c r="Y109" s="386"/>
+      <c r="Z109" s="384"/>
+      <c r="AA109" s="385"/>
+      <c r="AB109" s="385"/>
+      <c r="AC109" s="307"/>
+      <c r="AD109" s="307"/>
+      <c r="AE109" s="385"/>
+      <c r="AF109" s="385"/>
+      <c r="AG109" s="391"/>
+    </row>
+    <row r="110" customFormat="1" ht="21" customHeight="1" spans="1:33">
+      <c r="A110" s="159"/>
+      <c r="B110" s="342"/>
+      <c r="C110" s="343"/>
+      <c r="D110" s="344"/>
+      <c r="E110" s="148"/>
+      <c r="F110" s="148"/>
+      <c r="G110" s="351"/>
+      <c r="H110" s="345"/>
+      <c r="I110" s="356"/>
+      <c r="J110" s="357"/>
+      <c r="K110" s="358"/>
+      <c r="L110" s="359"/>
+      <c r="M110" s="359"/>
+      <c r="N110" s="359"/>
+      <c r="O110" s="359"/>
+      <c r="P110" s="359"/>
+      <c r="Q110" s="361"/>
+      <c r="R110" s="362" t="s">
+        <v>142</v>
+      </c>
+      <c r="S110" s="363"/>
+      <c r="T110" s="364"/>
+      <c r="U110" s="376" t="s">
+        <v>196</v>
+      </c>
+      <c r="V110" s="377"/>
+      <c r="W110" s="378"/>
+      <c r="X110" s="372"/>
+      <c r="Y110" s="387"/>
+      <c r="Z110" s="388"/>
+      <c r="AA110" s="389"/>
+      <c r="AB110" s="389"/>
+      <c r="AC110" s="311"/>
+      <c r="AD110" s="311"/>
+      <c r="AE110" s="389"/>
+      <c r="AF110" s="389"/>
+      <c r="AG110" s="392"/>
+    </row>
+    <row r="111" s="4" customFormat="1" ht="15" customHeight="1" spans="1:33">
+      <c r="A111" s="152">
+        <v>16</v>
+      </c>
+      <c r="B111" s="160">
+        <v>41395</v>
+      </c>
+      <c r="C111" s="161"/>
+      <c r="D111" s="162"/>
+      <c r="E111" s="130">
+        <f ca="1">IF(AND(B111&lt;&gt;"",B113&lt;&gt;""),DATEDIF(B111,B113,"M")+1,IF(AND(B111&lt;&gt;"",B113=""),DATEDIF(B111,TODAY(),"M")+1,""))</f>
+        <v>5</v>
+      </c>
+      <c r="F111" s="130">
+        <v>5</v>
+      </c>
+      <c r="G111" s="349" t="s">
+        <v>129</v>
+      </c>
+      <c r="H111" s="163" t="s">
+        <v>130</v>
+      </c>
+      <c r="I111" s="205"/>
+      <c r="J111" s="206"/>
+      <c r="K111" s="207" t="s">
+        <v>33</v>
+      </c>
+      <c r="L111" s="208"/>
+      <c r="M111" s="208"/>
+      <c r="N111" s="208"/>
+      <c r="O111" s="208"/>
+      <c r="P111" s="208"/>
+      <c r="Q111" s="270"/>
+      <c r="R111" s="271" t="s">
+        <v>132</v>
+      </c>
+      <c r="S111" s="272"/>
+      <c r="T111" s="273"/>
+      <c r="U111" s="365" t="s">
+        <v>38</v>
+      </c>
+      <c r="V111" s="366"/>
+      <c r="W111" s="367"/>
+      <c r="X111" s="369" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y111" s="380"/>
+      <c r="Z111" s="381"/>
+      <c r="AA111" s="382"/>
+      <c r="AB111" s="382"/>
+      <c r="AC111" s="304" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD111" s="304" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE111" s="382"/>
+      <c r="AF111" s="382"/>
+      <c r="AG111" s="390"/>
+    </row>
+    <row r="112" s="4" customFormat="1" ht="27" customHeight="1" spans="1:33">
+      <c r="A112" s="126"/>
+      <c r="B112" s="164" t="s">
+        <v>134</v>
+      </c>
+      <c r="C112" s="165"/>
+      <c r="D112" s="166"/>
+      <c r="E112" s="137"/>
+      <c r="F112" s="137"/>
+      <c r="G112" s="350"/>
+      <c r="H112" s="167" t="s">
+        <v>135</v>
+      </c>
+      <c r="I112" s="209"/>
+      <c r="J112" s="210"/>
+      <c r="K112" s="211" t="s">
+        <v>198</v>
+      </c>
+      <c r="L112" s="212"/>
+      <c r="M112" s="212"/>
+      <c r="N112" s="212"/>
+      <c r="O112" s="212"/>
+      <c r="P112" s="212"/>
+      <c r="Q112" s="274"/>
+      <c r="R112" s="167" t="s">
+        <v>137</v>
+      </c>
+      <c r="S112" s="209"/>
+      <c r="T112" s="210"/>
+      <c r="U112" s="373" t="s">
+        <v>194</v>
+      </c>
+      <c r="V112" s="374"/>
+      <c r="W112" s="375"/>
+      <c r="X112" s="370"/>
+      <c r="Y112" s="383"/>
+      <c r="Z112" s="384"/>
+      <c r="AA112" s="385"/>
+      <c r="AB112" s="385"/>
+      <c r="AC112" s="307"/>
+      <c r="AD112" s="307"/>
+      <c r="AE112" s="385"/>
+      <c r="AF112" s="385"/>
+      <c r="AG112" s="391"/>
+    </row>
+    <row r="113" s="4" customFormat="1" ht="15" customHeight="1" spans="1:33">
+      <c r="A113" s="126"/>
+      <c r="B113" s="346">
+        <v>41547</v>
+      </c>
+      <c r="C113" s="347"/>
+      <c r="D113" s="348"/>
+      <c r="E113" s="137"/>
+      <c r="F113" s="137"/>
+      <c r="G113" s="350"/>
+      <c r="H113" s="341" t="s">
+        <v>139</v>
+      </c>
+      <c r="I113" s="352"/>
+      <c r="J113" s="353"/>
+      <c r="K113" s="354" t="s">
+        <v>195</v>
+      </c>
+      <c r="L113" s="355"/>
+      <c r="M113" s="355"/>
+      <c r="N113" s="355"/>
+      <c r="O113" s="355"/>
+      <c r="P113" s="355"/>
+      <c r="Q113" s="360"/>
+      <c r="R113" s="167" t="s">
+        <v>141</v>
+      </c>
+      <c r="S113" s="209"/>
+      <c r="T113" s="210"/>
+      <c r="U113" s="256" t="s">
+        <v>83</v>
+      </c>
+      <c r="V113" s="252"/>
+      <c r="W113" s="253"/>
+      <c r="X113" s="371"/>
+      <c r="Y113" s="386"/>
+      <c r="Z113" s="384"/>
+      <c r="AA113" s="385"/>
+      <c r="AB113" s="385"/>
+      <c r="AC113" s="307"/>
+      <c r="AD113" s="307"/>
+      <c r="AE113" s="385"/>
+      <c r="AF113" s="385"/>
+      <c r="AG113" s="391"/>
+    </row>
+    <row r="114" s="4" customFormat="1" ht="21" customHeight="1" spans="1:33">
+      <c r="A114" s="159"/>
+      <c r="B114" s="342"/>
+      <c r="C114" s="343"/>
+      <c r="D114" s="344"/>
+      <c r="E114" s="148"/>
+      <c r="F114" s="148"/>
+      <c r="G114" s="351"/>
+      <c r="H114" s="345"/>
+      <c r="I114" s="356"/>
+      <c r="J114" s="357"/>
+      <c r="K114" s="358"/>
+      <c r="L114" s="359"/>
+      <c r="M114" s="359"/>
+      <c r="N114" s="359"/>
+      <c r="O114" s="359"/>
+      <c r="P114" s="359"/>
+      <c r="Q114" s="361"/>
+      <c r="R114" s="362" t="s">
+        <v>142</v>
+      </c>
+      <c r="S114" s="363"/>
+      <c r="T114" s="364"/>
+      <c r="U114" s="376" t="s">
+        <v>94</v>
+      </c>
+      <c r="V114" s="377"/>
+      <c r="W114" s="378"/>
+      <c r="X114" s="372"/>
+      <c r="Y114" s="387"/>
+      <c r="Z114" s="388"/>
+      <c r="AA114" s="389"/>
+      <c r="AB114" s="389"/>
+      <c r="AC114" s="311"/>
+      <c r="AD114" s="311"/>
+      <c r="AE114" s="389"/>
+      <c r="AF114" s="389"/>
+      <c r="AG114" s="392"/>
+    </row>
+    <row r="115" s="4" customFormat="1" spans="1:33">
+      <c r="A115" s="152">
+        <v>17</v>
+      </c>
+      <c r="B115" s="160">
+        <v>41030</v>
+      </c>
+      <c r="C115" s="161"/>
+      <c r="D115" s="162"/>
+      <c r="E115" s="130">
+        <f ca="1">IF(AND(B115&lt;&gt;"",B117&lt;&gt;""),DATEDIF(B115,B117,"M")+1,IF(AND(B115&lt;&gt;"",B117=""),DATEDIF(B115,TODAY(),"M")+1,""))</f>
+        <v>8</v>
+      </c>
+      <c r="F115" s="130">
+        <v>5</v>
+      </c>
+      <c r="G115" s="349" t="s">
+        <v>129</v>
+      </c>
+      <c r="H115" s="163" t="s">
+        <v>130</v>
+      </c>
+      <c r="I115" s="205"/>
+      <c r="J115" s="206"/>
+      <c r="K115" s="207" t="s">
+        <v>33</v>
+      </c>
+      <c r="L115" s="208"/>
+      <c r="M115" s="208"/>
+      <c r="N115" s="208"/>
+      <c r="O115" s="208"/>
+      <c r="P115" s="208"/>
+      <c r="Q115" s="270"/>
+      <c r="R115" s="271" t="s">
+        <v>132</v>
+      </c>
+      <c r="S115" s="272"/>
+      <c r="T115" s="273"/>
+      <c r="U115" s="365" t="s">
+        <v>38</v>
+      </c>
+      <c r="V115" s="366"/>
+      <c r="W115" s="367"/>
+      <c r="X115" s="369" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y115" s="380"/>
+      <c r="Z115" s="381"/>
+      <c r="AA115" s="382"/>
+      <c r="AB115" s="382"/>
+      <c r="AC115" s="304" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD115" s="304" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE115" s="382"/>
+      <c r="AF115" s="382"/>
+      <c r="AG115" s="390"/>
+    </row>
+    <row r="116" s="4" customFormat="1" ht="24" customHeight="1" spans="1:33">
+      <c r="A116" s="126"/>
+      <c r="B116" s="164" t="s">
+        <v>134</v>
+      </c>
+      <c r="C116" s="165"/>
+      <c r="D116" s="166"/>
+      <c r="E116" s="137"/>
+      <c r="F116" s="137"/>
+      <c r="G116" s="350"/>
+      <c r="H116" s="167" t="s">
+        <v>135</v>
+      </c>
+      <c r="I116" s="209"/>
+      <c r="J116" s="210"/>
+      <c r="K116" s="211" t="s">
+        <v>199</v>
+      </c>
+      <c r="L116" s="212"/>
+      <c r="M116" s="212"/>
+      <c r="N116" s="212"/>
+      <c r="O116" s="212"/>
+      <c r="P116" s="212"/>
+      <c r="Q116" s="274"/>
+      <c r="R116" s="167" t="s">
+        <v>137</v>
+      </c>
+      <c r="S116" s="209"/>
+      <c r="T116" s="210"/>
+      <c r="U116" s="373" t="s">
+        <v>194</v>
+      </c>
+      <c r="V116" s="374"/>
+      <c r="W116" s="375"/>
+      <c r="X116" s="370"/>
+      <c r="Y116" s="383"/>
+      <c r="Z116" s="384"/>
+      <c r="AA116" s="385"/>
+      <c r="AB116" s="385"/>
+      <c r="AC116" s="307"/>
+      <c r="AD116" s="307"/>
+      <c r="AE116" s="385"/>
+      <c r="AF116" s="385"/>
+      <c r="AG116" s="391"/>
+    </row>
+    <row r="117" s="4" customFormat="1" spans="1:33">
+      <c r="A117" s="126"/>
+      <c r="B117" s="346">
+        <v>41273</v>
+      </c>
+      <c r="C117" s="347"/>
+      <c r="D117" s="348"/>
+      <c r="E117" s="137"/>
+      <c r="F117" s="137"/>
+      <c r="G117" s="350"/>
+      <c r="H117" s="341" t="s">
+        <v>139</v>
+      </c>
+      <c r="I117" s="352"/>
+      <c r="J117" s="353"/>
+      <c r="K117" s="354" t="s">
+        <v>195</v>
+      </c>
+      <c r="L117" s="355"/>
+      <c r="M117" s="355"/>
+      <c r="N117" s="355"/>
+      <c r="O117" s="355"/>
+      <c r="P117" s="355"/>
+      <c r="Q117" s="360"/>
+      <c r="R117" s="167" t="s">
+        <v>141</v>
+      </c>
+      <c r="S117" s="209"/>
+      <c r="T117" s="210"/>
+      <c r="U117" s="256" t="s">
+        <v>83</v>
+      </c>
+      <c r="V117" s="252"/>
+      <c r="W117" s="253"/>
+      <c r="X117" s="371"/>
+      <c r="Y117" s="386"/>
+      <c r="Z117" s="384"/>
+      <c r="AA117" s="385"/>
+      <c r="AB117" s="385"/>
+      <c r="AC117" s="307"/>
+      <c r="AD117" s="307"/>
+      <c r="AE117" s="385"/>
+      <c r="AF117" s="385"/>
+      <c r="AG117" s="391"/>
+    </row>
+    <row r="118" s="4" customFormat="1" spans="1:33">
+      <c r="A118" s="159"/>
+      <c r="B118" s="342"/>
+      <c r="C118" s="343"/>
+      <c r="D118" s="344"/>
+      <c r="E118" s="148"/>
+      <c r="F118" s="148"/>
+      <c r="G118" s="351"/>
+      <c r="H118" s="345"/>
+      <c r="I118" s="356"/>
+      <c r="J118" s="357"/>
+      <c r="K118" s="358"/>
+      <c r="L118" s="359"/>
+      <c r="M118" s="359"/>
+      <c r="N118" s="359"/>
+      <c r="O118" s="359"/>
+      <c r="P118" s="359"/>
+      <c r="Q118" s="361"/>
+      <c r="R118" s="362" t="s">
+        <v>142</v>
+      </c>
+      <c r="S118" s="363"/>
+      <c r="T118" s="364"/>
+      <c r="U118" s="376" t="s">
+        <v>94</v>
+      </c>
+      <c r="V118" s="377"/>
+      <c r="W118" s="378"/>
+      <c r="X118" s="372"/>
+      <c r="Y118" s="387"/>
+      <c r="Z118" s="388"/>
+      <c r="AA118" s="389"/>
+      <c r="AB118" s="389"/>
+      <c r="AC118" s="311"/>
+      <c r="AD118" s="311"/>
+      <c r="AE118" s="389"/>
+      <c r="AF118" s="389"/>
+      <c r="AG118" s="392"/>
+    </row>
+    <row r="119" spans="1:33">
+      <c r="A119" s="152"/>
+      <c r="B119" s="160"/>
+      <c r="C119" s="161"/>
+      <c r="D119" s="162"/>
+      <c r="E119" s="130">
+        <f ca="1">SUM(E39:E118)</f>
+        <v>128</v>
+      </c>
+      <c r="F119" s="130"/>
+      <c r="G119" s="349"/>
+      <c r="H119" s="163" t="s">
+        <v>130</v>
+      </c>
+      <c r="I119" s="205"/>
+      <c r="J119" s="206"/>
+      <c r="K119" s="207"/>
+      <c r="L119" s="208"/>
+      <c r="M119" s="208"/>
+      <c r="N119" s="208"/>
+      <c r="O119" s="208"/>
+      <c r="P119" s="208"/>
+      <c r="Q119" s="270"/>
+      <c r="R119" s="271" t="s">
+        <v>132</v>
+      </c>
+      <c r="S119" s="272"/>
+      <c r="T119" s="273"/>
+      <c r="U119" s="365"/>
+      <c r="V119" s="366"/>
+      <c r="W119" s="367"/>
+      <c r="X119" s="369"/>
+      <c r="Y119" s="380"/>
+      <c r="Z119" s="381"/>
+      <c r="AA119" s="382"/>
+      <c r="AB119" s="382"/>
+      <c r="AC119" s="304"/>
+      <c r="AD119" s="304"/>
+      <c r="AE119" s="382"/>
+      <c r="AF119" s="382"/>
+      <c r="AG119" s="390"/>
+    </row>
+    <row r="120" spans="1:33">
+      <c r="A120" s="126"/>
+      <c r="B120" s="164"/>
+      <c r="C120" s="165"/>
+      <c r="D120" s="166"/>
+      <c r="E120" s="137"/>
+      <c r="F120" s="137"/>
+      <c r="G120" s="350"/>
+      <c r="H120" s="167" t="s">
+        <v>135</v>
+      </c>
+      <c r="I120" s="209"/>
+      <c r="J120" s="210"/>
+      <c r="K120" s="211"/>
+      <c r="L120" s="212"/>
+      <c r="M120" s="212"/>
+      <c r="N120" s="212"/>
+      <c r="O120" s="212"/>
+      <c r="P120" s="212"/>
+      <c r="Q120" s="274"/>
+      <c r="R120" s="167" t="s">
+        <v>137</v>
+      </c>
+      <c r="S120" s="209"/>
+      <c r="T120" s="210"/>
+      <c r="U120" s="373"/>
+      <c r="V120" s="374"/>
+      <c r="W120" s="375"/>
+      <c r="X120" s="370"/>
+      <c r="Y120" s="383"/>
+      <c r="Z120" s="384"/>
+      <c r="AA120" s="385"/>
+      <c r="AB120" s="385"/>
+      <c r="AC120" s="307"/>
+      <c r="AD120" s="307"/>
+      <c r="AE120" s="385"/>
+      <c r="AF120" s="385"/>
+      <c r="AG120" s="391"/>
+    </row>
+    <row r="121" spans="1:33">
+      <c r="A121" s="126"/>
+      <c r="B121" s="346"/>
+      <c r="C121" s="347"/>
+      <c r="D121" s="348"/>
+      <c r="E121" s="137"/>
+      <c r="F121" s="137"/>
+      <c r="G121" s="350"/>
+      <c r="H121" s="341" t="s">
+        <v>139</v>
+      </c>
+      <c r="I121" s="352"/>
+      <c r="J121" s="353"/>
+      <c r="K121" s="354"/>
+      <c r="L121" s="355"/>
+      <c r="M121" s="355"/>
+      <c r="N121" s="355"/>
+      <c r="O121" s="355"/>
+      <c r="P121" s="355"/>
+      <c r="Q121" s="360"/>
+      <c r="R121" s="167" t="s">
+        <v>141</v>
+      </c>
+      <c r="S121" s="209"/>
+      <c r="T121" s="210"/>
+      <c r="U121" s="256"/>
+      <c r="V121" s="252"/>
+      <c r="W121" s="253"/>
+      <c r="X121" s="371"/>
+      <c r="Y121" s="386"/>
+      <c r="Z121" s="384"/>
+      <c r="AA121" s="385"/>
+      <c r="AB121" s="385"/>
+      <c r="AC121" s="307"/>
+      <c r="AD121" s="307"/>
+      <c r="AE121" s="385"/>
+      <c r="AF121" s="385"/>
+      <c r="AG121" s="391"/>
+    </row>
+    <row r="122" spans="1:33">
+      <c r="A122" s="159"/>
+      <c r="B122" s="342"/>
+      <c r="C122" s="343"/>
+      <c r="D122" s="344"/>
+      <c r="E122" s="148"/>
+      <c r="F122" s="148"/>
+      <c r="G122" s="351"/>
+      <c r="H122" s="345"/>
+      <c r="I122" s="356"/>
+      <c r="J122" s="357"/>
+      <c r="K122" s="358"/>
+      <c r="L122" s="359"/>
+      <c r="M122" s="359"/>
+      <c r="N122" s="359"/>
+      <c r="O122" s="359"/>
+      <c r="P122" s="359"/>
+      <c r="Q122" s="361"/>
+      <c r="R122" s="362" t="s">
+        <v>142</v>
+      </c>
+      <c r="S122" s="363"/>
+      <c r="T122" s="364"/>
+      <c r="U122" s="376"/>
+      <c r="V122" s="377"/>
+      <c r="W122" s="378"/>
+      <c r="X122" s="372"/>
+      <c r="Y122" s="387"/>
+      <c r="Z122" s="388"/>
+      <c r="AA122" s="389"/>
+      <c r="AB122" s="389"/>
+      <c r="AC122" s="311"/>
+      <c r="AD122" s="311"/>
+      <c r="AE122" s="389"/>
+      <c r="AF122" s="389"/>
+      <c r="AG122" s="392"/>
+    </row>
   </sheetData>
-  <mergeCells count="671">
+  <mergeCells count="795">
     <mergeCell ref="A2:AG2"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="AD3:AG3"/>
@@ -10584,6 +11336,70 @@
     <mergeCell ref="U105:W105"/>
     <mergeCell ref="R106:T106"/>
     <mergeCell ref="U106:W106"/>
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="H107:J107"/>
+    <mergeCell ref="K107:Q107"/>
+    <mergeCell ref="R107:T107"/>
+    <mergeCell ref="U107:W107"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="H108:J108"/>
+    <mergeCell ref="K108:Q108"/>
+    <mergeCell ref="R108:T108"/>
+    <mergeCell ref="U108:W108"/>
+    <mergeCell ref="B109:D109"/>
+    <mergeCell ref="H109:J109"/>
+    <mergeCell ref="R109:T109"/>
+    <mergeCell ref="U109:W109"/>
+    <mergeCell ref="R110:T110"/>
+    <mergeCell ref="U110:W110"/>
+    <mergeCell ref="B111:D111"/>
+    <mergeCell ref="H111:J111"/>
+    <mergeCell ref="K111:Q111"/>
+    <mergeCell ref="R111:T111"/>
+    <mergeCell ref="U111:W111"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="H112:J112"/>
+    <mergeCell ref="K112:Q112"/>
+    <mergeCell ref="R112:T112"/>
+    <mergeCell ref="U112:W112"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="H113:J113"/>
+    <mergeCell ref="R113:T113"/>
+    <mergeCell ref="U113:W113"/>
+    <mergeCell ref="R114:T114"/>
+    <mergeCell ref="U114:W114"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="H115:J115"/>
+    <mergeCell ref="K115:Q115"/>
+    <mergeCell ref="R115:T115"/>
+    <mergeCell ref="U115:W115"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="H116:J116"/>
+    <mergeCell ref="K116:Q116"/>
+    <mergeCell ref="R116:T116"/>
+    <mergeCell ref="U116:W116"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="H117:J117"/>
+    <mergeCell ref="R117:T117"/>
+    <mergeCell ref="U117:W117"/>
+    <mergeCell ref="R118:T118"/>
+    <mergeCell ref="U118:W118"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="H119:J119"/>
+    <mergeCell ref="K119:Q119"/>
+    <mergeCell ref="R119:T119"/>
+    <mergeCell ref="U119:W119"/>
+    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="H120:J120"/>
+    <mergeCell ref="K120:Q120"/>
+    <mergeCell ref="R120:T120"/>
+    <mergeCell ref="U120:W120"/>
+    <mergeCell ref="B121:D121"/>
+    <mergeCell ref="H121:J121"/>
+    <mergeCell ref="R121:T121"/>
+    <mergeCell ref="U121:W121"/>
+    <mergeCell ref="R122:T122"/>
+    <mergeCell ref="U122:W122"/>
     <mergeCell ref="A33:A37"/>
     <mergeCell ref="A39:A42"/>
     <mergeCell ref="A43:A46"/>
@@ -10602,6 +11418,10 @@
     <mergeCell ref="A95:A98"/>
     <mergeCell ref="A99:A102"/>
     <mergeCell ref="A103:A106"/>
+    <mergeCell ref="A107:A110"/>
+    <mergeCell ref="A111:A114"/>
+    <mergeCell ref="A115:A118"/>
+    <mergeCell ref="A119:A122"/>
     <mergeCell ref="E33:E37"/>
     <mergeCell ref="E39:E42"/>
     <mergeCell ref="E43:E46"/>
@@ -10620,6 +11440,10 @@
     <mergeCell ref="E95:E98"/>
     <mergeCell ref="E99:E102"/>
     <mergeCell ref="E103:E106"/>
+    <mergeCell ref="E107:E110"/>
+    <mergeCell ref="E111:E114"/>
+    <mergeCell ref="E115:E118"/>
+    <mergeCell ref="E119:E122"/>
     <mergeCell ref="F33:F37"/>
     <mergeCell ref="F39:F42"/>
     <mergeCell ref="F43:F46"/>
@@ -10638,6 +11462,10 @@
     <mergeCell ref="F95:F98"/>
     <mergeCell ref="F99:F102"/>
     <mergeCell ref="F103:F106"/>
+    <mergeCell ref="F107:F110"/>
+    <mergeCell ref="F111:F114"/>
+    <mergeCell ref="F115:F118"/>
+    <mergeCell ref="F119:F122"/>
     <mergeCell ref="G33:G37"/>
     <mergeCell ref="G39:G42"/>
     <mergeCell ref="G43:G46"/>
@@ -10656,6 +11484,10 @@
     <mergeCell ref="G95:G98"/>
     <mergeCell ref="G99:G102"/>
     <mergeCell ref="G103:G106"/>
+    <mergeCell ref="G107:G110"/>
+    <mergeCell ref="G111:G114"/>
+    <mergeCell ref="G115:G118"/>
+    <mergeCell ref="G119:G122"/>
     <mergeCell ref="Z33:Z37"/>
     <mergeCell ref="Z39:Z42"/>
     <mergeCell ref="Z43:Z46"/>
@@ -10674,6 +11506,10 @@
     <mergeCell ref="Z95:Z98"/>
     <mergeCell ref="Z99:Z102"/>
     <mergeCell ref="Z103:Z106"/>
+    <mergeCell ref="Z107:Z110"/>
+    <mergeCell ref="Z111:Z114"/>
+    <mergeCell ref="Z115:Z118"/>
+    <mergeCell ref="Z119:Z122"/>
     <mergeCell ref="AA33:AA37"/>
     <mergeCell ref="AA39:AA42"/>
     <mergeCell ref="AA43:AA46"/>
@@ -10692,6 +11528,10 @@
     <mergeCell ref="AA95:AA98"/>
     <mergeCell ref="AA99:AA102"/>
     <mergeCell ref="AA103:AA106"/>
+    <mergeCell ref="AA107:AA110"/>
+    <mergeCell ref="AA111:AA114"/>
+    <mergeCell ref="AA115:AA118"/>
+    <mergeCell ref="AA119:AA122"/>
     <mergeCell ref="AB33:AB37"/>
     <mergeCell ref="AB39:AB42"/>
     <mergeCell ref="AB43:AB46"/>
@@ -10710,6 +11550,10 @@
     <mergeCell ref="AB95:AB98"/>
     <mergeCell ref="AB99:AB102"/>
     <mergeCell ref="AB103:AB106"/>
+    <mergeCell ref="AB107:AB110"/>
+    <mergeCell ref="AB111:AB114"/>
+    <mergeCell ref="AB115:AB118"/>
+    <mergeCell ref="AB119:AB122"/>
     <mergeCell ref="AC33:AC37"/>
     <mergeCell ref="AC39:AC42"/>
     <mergeCell ref="AC43:AC46"/>
@@ -10728,6 +11572,10 @@
     <mergeCell ref="AC95:AC98"/>
     <mergeCell ref="AC99:AC102"/>
     <mergeCell ref="AC103:AC106"/>
+    <mergeCell ref="AC107:AC110"/>
+    <mergeCell ref="AC111:AC114"/>
+    <mergeCell ref="AC115:AC118"/>
+    <mergeCell ref="AC119:AC122"/>
     <mergeCell ref="AD33:AD37"/>
     <mergeCell ref="AD39:AD42"/>
     <mergeCell ref="AD43:AD46"/>
@@ -10746,6 +11594,10 @@
     <mergeCell ref="AD95:AD98"/>
     <mergeCell ref="AD99:AD102"/>
     <mergeCell ref="AD103:AD106"/>
+    <mergeCell ref="AD107:AD110"/>
+    <mergeCell ref="AD111:AD114"/>
+    <mergeCell ref="AD115:AD118"/>
+    <mergeCell ref="AD119:AD122"/>
     <mergeCell ref="AE33:AE37"/>
     <mergeCell ref="AE39:AE42"/>
     <mergeCell ref="AE43:AE46"/>
@@ -10764,6 +11616,10 @@
     <mergeCell ref="AE95:AE98"/>
     <mergeCell ref="AE99:AE102"/>
     <mergeCell ref="AE103:AE106"/>
+    <mergeCell ref="AE107:AE110"/>
+    <mergeCell ref="AE111:AE114"/>
+    <mergeCell ref="AE115:AE118"/>
+    <mergeCell ref="AE119:AE122"/>
     <mergeCell ref="AF33:AF37"/>
     <mergeCell ref="AF39:AF42"/>
     <mergeCell ref="AF43:AF46"/>
@@ -10782,6 +11638,10 @@
     <mergeCell ref="AF95:AF98"/>
     <mergeCell ref="AF99:AF102"/>
     <mergeCell ref="AF103:AF106"/>
+    <mergeCell ref="AF107:AF110"/>
+    <mergeCell ref="AF111:AF114"/>
+    <mergeCell ref="AF115:AF118"/>
+    <mergeCell ref="AF119:AF122"/>
     <mergeCell ref="AG33:AG37"/>
     <mergeCell ref="AG39:AG42"/>
     <mergeCell ref="AG43:AG46"/>
@@ -10800,6 +11660,10 @@
     <mergeCell ref="AG95:AG98"/>
     <mergeCell ref="AG99:AG102"/>
     <mergeCell ref="AG103:AG106"/>
+    <mergeCell ref="AG107:AG110"/>
+    <mergeCell ref="AG111:AG114"/>
+    <mergeCell ref="AG115:AG118"/>
+    <mergeCell ref="AG119:AG122"/>
     <mergeCell ref="A7:C8"/>
     <mergeCell ref="A9:C11"/>
     <mergeCell ref="P9:Q11"/>
@@ -10821,9 +11685,6 @@
     <mergeCell ref="X47:Y48"/>
     <mergeCell ref="K49:Q50"/>
     <mergeCell ref="X49:Y50"/>
-    <mergeCell ref="X51:Y52"/>
-    <mergeCell ref="K53:Q54"/>
-    <mergeCell ref="X53:Y54"/>
     <mergeCell ref="X55:Y56"/>
     <mergeCell ref="K57:Q58"/>
     <mergeCell ref="X57:Y58"/>
@@ -10863,6 +11724,21 @@
     <mergeCell ref="K101:Q102"/>
     <mergeCell ref="K97:Q98"/>
     <mergeCell ref="K105:Q106"/>
+    <mergeCell ref="X107:Y108"/>
+    <mergeCell ref="K109:Q110"/>
+    <mergeCell ref="X109:Y110"/>
+    <mergeCell ref="X111:Y112"/>
+    <mergeCell ref="K113:Q114"/>
+    <mergeCell ref="X113:Y114"/>
+    <mergeCell ref="X51:Y52"/>
+    <mergeCell ref="K53:Q54"/>
+    <mergeCell ref="X53:Y54"/>
+    <mergeCell ref="X115:Y116"/>
+    <mergeCell ref="K117:Q118"/>
+    <mergeCell ref="X117:Y118"/>
+    <mergeCell ref="X119:Y120"/>
+    <mergeCell ref="K121:Q122"/>
+    <mergeCell ref="X121:Y122"/>
   </mergeCells>
   <conditionalFormatting sqref="AD3:AG3">
     <cfRule type="expression" dxfId="0" priority="1">
@@ -10870,40 +11746,40 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="13">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="その他の場合、ここに記入してください。" sqref="R16:AG16 AB21 W23:AG23 AB26"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="点数" sqref="L11"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11">
-      <formula1>"TOEIC,GRE,その他"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5">
       <formula1>"女,男"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N5">
       <formula1>"有,無"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K39:Q39 K43:Q43 K47:Q47 K51:Q51 K55:Q55 K59:Q59 K63:Q63 K67:Q67 K71:Q71 K75:Q75 K79:Q79 K83:Q83 K87:Q87 K91:Q91 K95:Q95 K99:Q99 K103:Q103">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K39:Q39 K43:Q43 K47:Q47 K51:Q51 K55:Q55 K59:Q59 K63:Q63 K67:Q67 K71:Q71 K75:Q75 K79:Q79 K83:Q83 K87:Q87 K91:Q91 K95:Q95 K99:Q99 K103:Q103 K107:Q107 K111:Q111 K115:Q115 K119:Q119">
       <formula1>業種</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="作成日を記入すると、自動的に算出" sqref="U5:W5"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q15 V15 AA15 AG15 V17 AA19 AA22 AG22 G15:G26 L15:L26 Q17:Q26 V19:V22 V24:V26 AA24:AA25 AG17:AG20 AG24:AG25">
+      <formula1>"●,〇,△,　"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G10">
       <formula1>"1級強(母国語レベル),1級(会議に支障がない),1級弱(仕事に支障がない),2級強(日常会話に支障がない),2級(簡単な意思疎通ができる),2級弱(簡単な単語を話せる)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q15 V15 AA15 AG15 V17 AA19 AA22 AG22 G15:G26 L15:L26 Q17:Q26 V19:V22 V24:V26 AA24:AA25 AG17:AG20 AG24:AG25">
-      <formula1>"●,〇,△,　"</formula1>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="その他の場合、ここに記入してください。" sqref="R16:AG16 AB21 W23:AG23 AB26"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="点数" sqref="L11"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11">
+      <formula1>"TOEIC,GRE,その他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z39:AG39 Z43:AG43 Z47:AG47 Z51:AG51 Z55:AG55 Z59:AG59 Z63:AG63 Z67:AG67 Z71:AG71 Z75:AG75 Z79:AG79 Z83:AG83 Z87:AG87 Z91:AG91 Z95:AG95 Z99:AG99 Z103:AG103">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z39:AG39 Z43:AG43 Z47:AG47 Z51:AG51 Z55:AA55 AB55 AC55:AG55 Z59:AG59 Z63:AG63 Z67:AG67 Z71:AG71 Z75:AG75 Z79:AG79 Z83:AG83 Z87:AG87 Z91:AG91 Z95:AG95 Z99:AG99 Z103:AG103 Z107:AG107 Z111:AG111 Z115:AG115 Z119:AG119">
       <formula1>"●"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X39:Y40 X43:Y44 X47:Y48 X51:Y52 X55:Y56 X59:Y60 X63:Y64 X67:Y68 X71:Y72 X75:Y76 X79:Y80 X83:Y84 X87:Y88 X91:Y92 X95:Y96 X99:Y100 X103:Y104">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G39:G50 G51:G54 G55:G58 G59:G70 G71:G74 G75:G78 G79:G114 G115:G118 G119:G122">
+      <formula1>"日本,中国,韓国"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X39:Y40 X43:Y44 X47:Y48 X51:Y52 X55:Y56 X59:Y60 X63:Y64 X67:Y68 X71:Y72 X75:Y76 X79:Y80 X83:Y84 X87:Y88 X91:Y92 X95:Y96 X99:Y100 X103:Y104 X107:Y108 X111:Y112 X115:Y116 X119:Y120">
       <formula1>役割</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G39:G102 G103:G106">
-      <formula1>"日本,中国,韓国"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="管理人数を記載する。" sqref="X41:Y42 X45:Y46 X49:Y50 X53:Y54 X57:Y58 X61:Y62 X65:Y66 X69:Y70 X73:Y74 X77:Y78 X81:Y82 X85:Y86 X89:Y90 X93:Y94 X97:Y98 X101:Y102 X105:Y106"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="管理人数を記載する。" sqref="X41:Y42 X45:Y46 X49:Y50 X53:Y54 X57:Y58 X61:Y62 X65:Y66 X69:Y70 X73:Y74 X77:Y78 X81:Y82 X85:Y86 X89:Y90 X93:Y94 X97:Y98 X101:Y102 X105:Y106 X109:Y110 X113:Y114 X117:Y118 X121:Y122"/>
   </dataValidations>
   <pageMargins left="0.31496062992126" right="0.275590551181102" top="0.31496062992126" bottom="0.511811023622047" header="0.511811023622047" footer="0.31496062992126"/>
-  <pageSetup paperSize="9" scale="93" fitToHeight="0" orientation="portrait" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;P / &amp;N</oddFooter>
   </headerFooter>
@@ -10948,7 +11824,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>133</v>
@@ -10956,26 +11832,26 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -10983,12 +11859,12 @@
         <v>33</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="2" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
